--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="437">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -895,6 +895,18 @@
     <t>['61', '90+6']</t>
   </si>
   <si>
+    <t>['29', '83', '90+3']</t>
+  </si>
+  <si>
+    <t>['8', '10', '90+2']</t>
+  </si>
+  <si>
+    <t>['4', '20', '29', '34', '64']</t>
+  </si>
+  <si>
+    <t>['45', '65']</t>
+  </si>
+  <si>
     <t>['4', '74', '90', '90+4']</t>
   </si>
   <si>
@@ -1311,6 +1323,9 @@
   <si>
     <t>['47', '56']</t>
   </si>
+  <si>
+    <t>['8', '90+1']</t>
+  </si>
 </sst>
 </file>
 
@@ -1671,7 +1686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1930,7 +1945,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -2008,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2136,7 +2151,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2217,7 +2232,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ3">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2420,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
         <v>0.9399999999999999</v>
@@ -2548,7 +2563,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q5">
         <v>2.88</v>
@@ -2626,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ5">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2754,7 +2769,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2835,7 +2850,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3038,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ7">
         <v>0.47</v>
@@ -3244,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ8">
         <v>0.6899999999999999</v>
@@ -3659,7 +3674,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ10">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3990,7 +4005,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -4402,7 +4417,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q14">
         <v>3.4</v>
@@ -4608,7 +4623,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4686,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ15">
         <v>0.9399999999999999</v>
@@ -4814,7 +4829,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -5020,7 +5035,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -5226,7 +5241,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5513,7 +5528,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5638,7 +5653,7 @@
         <v>105</v>
       </c>
       <c r="P20" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q20">
         <v>1.62</v>
@@ -5716,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ20">
         <v>0.9399999999999999</v>
@@ -5922,10 +5937,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ21">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR21">
         <v>2.09</v>
@@ -6131,7 +6146,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ22">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR22">
         <v>1.6</v>
@@ -6256,7 +6271,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q23">
         <v>2.5</v>
@@ -6540,7 +6555,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
         <v>0.9399999999999999</v>
@@ -6746,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ25">
         <v>0.53</v>
@@ -6874,7 +6889,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6955,7 +6970,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ26">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR26">
         <v>1.22</v>
@@ -7286,7 +7301,7 @@
         <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7367,7 +7382,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ28">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR28">
         <v>1.37</v>
@@ -7492,7 +7507,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -7779,7 +7794,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR30">
         <v>2.28</v>
@@ -7904,7 +7919,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -8110,7 +8125,7 @@
         <v>116</v>
       </c>
       <c r="P32" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -8188,7 +8203,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32">
         <v>0.63</v>
@@ -8316,7 +8331,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8522,7 +8537,7 @@
         <v>118</v>
       </c>
       <c r="P34" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8600,7 +8615,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ34">
         <v>1.25</v>
@@ -8934,7 +8949,7 @@
         <v>120</v>
       </c>
       <c r="P36" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -9140,7 +9155,7 @@
         <v>121</v>
       </c>
       <c r="P37" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9221,7 +9236,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR37">
         <v>2.1</v>
@@ -9346,7 +9361,7 @@
         <v>122</v>
       </c>
       <c r="P38" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q38">
         <v>1.91</v>
@@ -9424,10 +9439,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ38">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR38">
         <v>1.89</v>
@@ -9836,7 +9851,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ40">
         <v>0.9399999999999999</v>
@@ -9964,7 +9979,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -10457,7 +10472,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ43">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR43">
         <v>1.09</v>
@@ -10582,7 +10597,7 @@
         <v>126</v>
       </c>
       <c r="P44" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10660,7 +10675,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44">
         <v>0.6899999999999999</v>
@@ -10788,7 +10803,7 @@
         <v>127</v>
       </c>
       <c r="P45" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -11075,7 +11090,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ46">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR46">
         <v>1.14</v>
@@ -11200,7 +11215,7 @@
         <v>103</v>
       </c>
       <c r="P47" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q47">
         <v>3.25</v>
@@ -11278,7 +11293,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ47">
         <v>1.88</v>
@@ -11484,7 +11499,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ48">
         <v>1.06</v>
@@ -11612,7 +11627,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11818,7 +11833,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q50">
         <v>3.25</v>
@@ -11896,7 +11911,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ50">
         <v>1.75</v>
@@ -12024,7 +12039,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q51">
         <v>2.88</v>
@@ -12105,7 +12120,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ51">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR51">
         <v>2.06</v>
@@ -12436,7 +12451,7 @@
         <v>130</v>
       </c>
       <c r="P53" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12517,7 +12532,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ53">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR53">
         <v>1.73</v>
@@ -12642,7 +12657,7 @@
         <v>131</v>
       </c>
       <c r="P54" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q54">
         <v>3.25</v>
@@ -12929,7 +12944,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR55">
         <v>1.58</v>
@@ -13054,7 +13069,7 @@
         <v>133</v>
       </c>
       <c r="P56" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13260,7 +13275,7 @@
         <v>134</v>
       </c>
       <c r="P57" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13341,7 +13356,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR57">
         <v>1.31</v>
@@ -13466,7 +13481,7 @@
         <v>135</v>
       </c>
       <c r="P58" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13544,7 +13559,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ58">
         <v>0.9399999999999999</v>
@@ -13672,7 +13687,7 @@
         <v>136</v>
       </c>
       <c r="P59" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13750,7 +13765,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ59">
         <v>0.63</v>
@@ -14084,7 +14099,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -14162,7 +14177,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ61">
         <v>1.25</v>
@@ -14577,7 +14592,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ63">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR63">
         <v>2.3</v>
@@ -14986,7 +15001,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -15114,7 +15129,7 @@
         <v>88</v>
       </c>
       <c r="P66" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15320,7 +15335,7 @@
         <v>142</v>
       </c>
       <c r="P67" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15526,7 +15541,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15604,7 +15619,7 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ68">
         <v>2.6</v>
@@ -15732,7 +15747,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q69">
         <v>2.63</v>
@@ -15810,7 +15825,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ69">
         <v>1.06</v>
@@ -15938,7 +15953,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -16019,7 +16034,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ70">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR70">
         <v>1.75</v>
@@ -16144,7 +16159,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q71">
         <v>6.5</v>
@@ -16225,7 +16240,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ71">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR71">
         <v>1.36</v>
@@ -16428,10 +16443,10 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ72">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR72">
         <v>1.7</v>
@@ -16556,7 +16571,7 @@
         <v>148</v>
       </c>
       <c r="P73" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16637,7 +16652,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR73">
         <v>1.67</v>
@@ -16762,7 +16777,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16968,7 +16983,7 @@
         <v>150</v>
       </c>
       <c r="P75" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -17046,7 +17061,7 @@
         <v>3</v>
       </c>
       <c r="AP75">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ75">
         <v>1.25</v>
@@ -17174,7 +17189,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -17458,7 +17473,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ77">
         <v>0.63</v>
@@ -17667,7 +17682,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ78">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR78">
         <v>2.22</v>
@@ -17792,7 +17807,7 @@
         <v>154</v>
       </c>
       <c r="P79" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -18204,7 +18219,7 @@
         <v>156</v>
       </c>
       <c r="P81" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -18491,7 +18506,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ82">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR82">
         <v>2.28</v>
@@ -18616,7 +18631,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18822,7 +18837,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -19028,7 +19043,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -19109,7 +19124,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ85">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR85">
         <v>1.41</v>
@@ -19315,7 +19330,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ86">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR86">
         <v>1.41</v>
@@ -19518,10 +19533,10 @@
         <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR87">
         <v>1.79</v>
@@ -19646,7 +19661,7 @@
         <v>161</v>
       </c>
       <c r="P88" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19724,7 +19739,7 @@
         <v>2.5</v>
       </c>
       <c r="AP88">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ88">
         <v>2.6</v>
@@ -19852,7 +19867,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -19930,10 +19945,10 @@
         <v>2.5</v>
       </c>
       <c r="AP89">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ89">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR89">
         <v>1.72</v>
@@ -20058,7 +20073,7 @@
         <v>162</v>
       </c>
       <c r="P90" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -20136,7 +20151,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -21166,7 +21181,7 @@
         <v>2</v>
       </c>
       <c r="AP95">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ95">
         <v>1.88</v>
@@ -21294,7 +21309,7 @@
         <v>167</v>
       </c>
       <c r="P96" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q96">
         <v>1.3</v>
@@ -21500,7 +21515,7 @@
         <v>103</v>
       </c>
       <c r="P97" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -21912,7 +21927,7 @@
         <v>169</v>
       </c>
       <c r="P99" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21990,7 +22005,7 @@
         <v>1.6</v>
       </c>
       <c r="AP99">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ99">
         <v>1.06</v>
@@ -22118,7 +22133,7 @@
         <v>170</v>
       </c>
       <c r="P100" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q100">
         <v>1.91</v>
@@ -22199,7 +22214,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ100">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR100">
         <v>1.72</v>
@@ -22324,7 +22339,7 @@
         <v>88</v>
       </c>
       <c r="P101" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q101">
         <v>7.5</v>
@@ -22402,10 +22417,10 @@
         <v>2.6</v>
       </c>
       <c r="AP101">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ101">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR101">
         <v>1.97</v>
@@ -22530,7 +22545,7 @@
         <v>94</v>
       </c>
       <c r="P102" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22611,7 +22626,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR102">
         <v>1.3</v>
@@ -22817,7 +22832,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ103">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR103">
         <v>1.58</v>
@@ -22942,7 +22957,7 @@
         <v>172</v>
       </c>
       <c r="P104" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -23020,10 +23035,10 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ104">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR104">
         <v>1.55</v>
@@ -23148,7 +23163,7 @@
         <v>88</v>
       </c>
       <c r="P105" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q105">
         <v>5.5</v>
@@ -23226,7 +23241,7 @@
         <v>2.6</v>
       </c>
       <c r="AP105">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ105">
         <v>2.6</v>
@@ -23354,7 +23369,7 @@
         <v>173</v>
       </c>
       <c r="P106" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q106">
         <v>1.91</v>
@@ -23432,10 +23447,10 @@
         <v>1.2</v>
       </c>
       <c r="AP106">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ106">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR106">
         <v>1.65</v>
@@ -23560,7 +23575,7 @@
         <v>174</v>
       </c>
       <c r="P107" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q107">
         <v>3.1</v>
@@ -23972,7 +23987,7 @@
         <v>175</v>
       </c>
       <c r="P109" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q109">
         <v>2.5</v>
@@ -24050,7 +24065,7 @@
         <v>0.5</v>
       </c>
       <c r="AP109">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ109">
         <v>0.53</v>
@@ -24178,7 +24193,7 @@
         <v>88</v>
       </c>
       <c r="P110" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q110">
         <v>3.25</v>
@@ -24796,7 +24811,7 @@
         <v>178</v>
       </c>
       <c r="P113" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -25080,7 +25095,7 @@
         <v>0.2</v>
       </c>
       <c r="AP114">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -25289,7 +25304,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ115">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR115">
         <v>1.32</v>
@@ -25414,7 +25429,7 @@
         <v>180</v>
       </c>
       <c r="P116" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q116">
         <v>2.1</v>
@@ -25620,7 +25635,7 @@
         <v>181</v>
       </c>
       <c r="P117" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q117">
         <v>3.2</v>
@@ -25904,7 +25919,7 @@
         <v>0.86</v>
       </c>
       <c r="AP118">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ118">
         <v>0.47</v>
@@ -26113,7 +26128,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ119">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR119">
         <v>1.35</v>
@@ -26238,7 +26253,7 @@
         <v>184</v>
       </c>
       <c r="P120" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q120">
         <v>6.5</v>
@@ -26319,7 +26334,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ120">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR120">
         <v>1.31</v>
@@ -26522,10 +26537,10 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ121">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR121">
         <v>1.48</v>
@@ -26728,10 +26743,10 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR122">
         <v>1.2</v>
@@ -26856,7 +26871,7 @@
         <v>186</v>
       </c>
       <c r="P123" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26937,7 +26952,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ123">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR123">
         <v>1.51</v>
@@ -27062,7 +27077,7 @@
         <v>187</v>
       </c>
       <c r="P124" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q124">
         <v>2.88</v>
@@ -27140,10 +27155,10 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ124">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR124">
         <v>1.78</v>
@@ -27268,7 +27283,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q125">
         <v>3.25</v>
@@ -27346,7 +27361,7 @@
         <v>2.67</v>
       </c>
       <c r="AP125">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ125">
         <v>2.6</v>
@@ -27552,7 +27567,7 @@
         <v>0.57</v>
       </c>
       <c r="AP126">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ126">
         <v>0.53</v>
@@ -27680,7 +27695,7 @@
         <v>188</v>
       </c>
       <c r="P127" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28710,7 +28725,7 @@
         <v>191</v>
       </c>
       <c r="P132" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q132">
         <v>1.91</v>
@@ -29534,7 +29549,7 @@
         <v>195</v>
       </c>
       <c r="P136" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q136">
         <v>4.5</v>
@@ -29612,10 +29627,10 @@
         <v>1.71</v>
       </c>
       <c r="AP136">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ136">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR136">
         <v>1.23</v>
@@ -29818,7 +29833,7 @@
         <v>0.63</v>
       </c>
       <c r="AP137">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ137">
         <v>0.53</v>
@@ -29946,7 +29961,7 @@
         <v>197</v>
       </c>
       <c r="P138" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -30024,10 +30039,10 @@
         <v>0.57</v>
       </c>
       <c r="AP138">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ138">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR138">
         <v>1.53</v>
@@ -30358,7 +30373,7 @@
         <v>199</v>
       </c>
       <c r="P140" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -30439,7 +30454,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ140">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR140">
         <v>1.55</v>
@@ -30770,7 +30785,7 @@
         <v>201</v>
       </c>
       <c r="P142" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -30851,7 +30866,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ142">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR142">
         <v>1.32</v>
@@ -30976,7 +30991,7 @@
         <v>202</v>
       </c>
       <c r="P143" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31054,10 +31069,10 @@
         <v>2.29</v>
       </c>
       <c r="AP143">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ143">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR143">
         <v>1.41</v>
@@ -31260,10 +31275,10 @@
         <v>0.71</v>
       </c>
       <c r="AP144">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ144">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR144">
         <v>2.08</v>
@@ -32496,7 +32511,7 @@
         <v>0.5</v>
       </c>
       <c r="AP150">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ150">
         <v>0.9399999999999999</v>
@@ -32624,7 +32639,7 @@
         <v>88</v>
       </c>
       <c r="P151" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32830,7 +32845,7 @@
         <v>205</v>
       </c>
       <c r="P152" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -33242,7 +33257,7 @@
         <v>207</v>
       </c>
       <c r="P154" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q154">
         <v>4.33</v>
@@ -33860,7 +33875,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q157">
         <v>4.5</v>
@@ -33938,7 +33953,7 @@
         <v>1.63</v>
       </c>
       <c r="AP157">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ157">
         <v>1.88</v>
@@ -34066,7 +34081,7 @@
         <v>209</v>
       </c>
       <c r="P158" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q158">
         <v>2.6</v>
@@ -34272,7 +34287,7 @@
         <v>210</v>
       </c>
       <c r="P159" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34684,7 +34699,7 @@
         <v>174</v>
       </c>
       <c r="P161" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -34765,7 +34780,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR161">
         <v>1.31</v>
@@ -35302,7 +35317,7 @@
         <v>213</v>
       </c>
       <c r="P164" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q164">
         <v>3.1</v>
@@ -35380,10 +35395,10 @@
         <v>1.63</v>
       </c>
       <c r="AP164">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ164">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR164">
         <v>2.07</v>
@@ -35508,7 +35523,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q165">
         <v>2.4</v>
@@ -35586,7 +35601,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP165">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ165">
         <v>0.6899999999999999</v>
@@ -35714,7 +35729,7 @@
         <v>214</v>
       </c>
       <c r="P166" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q166">
         <v>7.5</v>
@@ -35795,7 +35810,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ166">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR166">
         <v>1.29</v>
@@ -35920,7 +35935,7 @@
         <v>215</v>
       </c>
       <c r="P167" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q167">
         <v>3.1</v>
@@ -35998,10 +36013,10 @@
         <v>1.11</v>
       </c>
       <c r="AP167">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ167">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR167">
         <v>1.24</v>
@@ -36204,7 +36219,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP168">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ168">
         <v>0.9399999999999999</v>
@@ -36413,7 +36428,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ169">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR169">
         <v>2.15</v>
@@ -36619,7 +36634,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ170">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR170">
         <v>1.43</v>
@@ -36744,7 +36759,7 @@
         <v>218</v>
       </c>
       <c r="P171" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q171">
         <v>1.8</v>
@@ -36822,7 +36837,7 @@
         <v>0.67</v>
       </c>
       <c r="AP171">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ171">
         <v>0.47</v>
@@ -37156,7 +37171,7 @@
         <v>88</v>
       </c>
       <c r="P173" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q173">
         <v>7.5</v>
@@ -37443,7 +37458,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ174">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR174">
         <v>2.38</v>
@@ -37568,7 +37583,7 @@
         <v>220</v>
       </c>
       <c r="P175" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q175">
         <v>3.5</v>
@@ -37774,7 +37789,7 @@
         <v>88</v>
       </c>
       <c r="P176" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37980,7 +37995,7 @@
         <v>221</v>
       </c>
       <c r="P177" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -38061,7 +38076,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ177">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR177">
         <v>1.8</v>
@@ -38264,7 +38279,7 @@
         <v>1.3</v>
       </c>
       <c r="AP178">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ178">
         <v>1.06</v>
@@ -38392,7 +38407,7 @@
         <v>223</v>
       </c>
       <c r="P179" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q179">
         <v>2.63</v>
@@ -38470,7 +38485,7 @@
         <v>1.6</v>
       </c>
       <c r="AP179">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ179">
         <v>1.25</v>
@@ -38804,7 +38819,7 @@
         <v>225</v>
       </c>
       <c r="P181" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q181">
         <v>2.88</v>
@@ -39088,10 +39103,10 @@
         <v>1</v>
       </c>
       <c r="AP182">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ182">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR182">
         <v>1.78</v>
@@ -39216,7 +39231,7 @@
         <v>227</v>
       </c>
       <c r="P183" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q183">
         <v>2.4</v>
@@ -39294,7 +39309,7 @@
         <v>0.6</v>
       </c>
       <c r="AP183">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ183">
         <v>0.9399999999999999</v>
@@ -39503,7 +39518,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ184">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR184">
         <v>1.34</v>
@@ -39628,7 +39643,7 @@
         <v>228</v>
       </c>
       <c r="P185" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q185">
         <v>4.33</v>
@@ -39709,7 +39724,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ185">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR185">
         <v>1.35</v>
@@ -40040,7 +40055,7 @@
         <v>230</v>
       </c>
       <c r="P187" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q187">
         <v>2.3</v>
@@ -40327,7 +40342,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ188">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR188">
         <v>2.23</v>
@@ -40452,7 +40467,7 @@
         <v>232</v>
       </c>
       <c r="P189" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q189">
         <v>1.95</v>
@@ -40530,7 +40545,7 @@
         <v>0.6</v>
       </c>
       <c r="AP189">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ189">
         <v>0.53</v>
@@ -40736,7 +40751,7 @@
         <v>0.6</v>
       </c>
       <c r="AP190">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ190">
         <v>0.6899999999999999</v>
@@ -40942,7 +40957,7 @@
         <v>0.9</v>
       </c>
       <c r="AP191">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ191">
         <v>1</v>
@@ -41070,7 +41085,7 @@
         <v>88</v>
       </c>
       <c r="P192" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q192">
         <v>2.6</v>
@@ -41148,7 +41163,7 @@
         <v>0.45</v>
       </c>
       <c r="AP192">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ192">
         <v>0.63</v>
@@ -41560,7 +41575,7 @@
         <v>1.7</v>
       </c>
       <c r="AP194">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ194">
         <v>1.88</v>
@@ -41769,7 +41784,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ195">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR195">
         <v>1.48</v>
@@ -41894,7 +41909,7 @@
         <v>134</v>
       </c>
       <c r="P196" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q196">
         <v>7</v>
@@ -42181,7 +42196,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ197">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR197">
         <v>1.86</v>
@@ -42306,7 +42321,7 @@
         <v>237</v>
       </c>
       <c r="P198" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -42512,7 +42527,7 @@
         <v>238</v>
       </c>
       <c r="P199" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q199">
         <v>6.5</v>
@@ -42593,7 +42608,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ199">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR199">
         <v>1.73</v>
@@ -42924,7 +42939,7 @@
         <v>240</v>
       </c>
       <c r="P201" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -43130,7 +43145,7 @@
         <v>241</v>
       </c>
       <c r="P202" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q202">
         <v>2.5</v>
@@ -43414,10 +43429,10 @@
         <v>0.6</v>
       </c>
       <c r="AP203">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ203">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR203">
         <v>1.26</v>
@@ -43620,7 +43635,7 @@
         <v>0.64</v>
       </c>
       <c r="AP204">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ204">
         <v>0.6899999999999999</v>
@@ -43829,7 +43844,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ205">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR205">
         <v>2.32</v>
@@ -43954,7 +43969,7 @@
         <v>244</v>
       </c>
       <c r="P206" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q206">
         <v>2.88</v>
@@ -44160,7 +44175,7 @@
         <v>245</v>
       </c>
       <c r="P207" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q207">
         <v>1.95</v>
@@ -44238,7 +44253,7 @@
         <v>1.55</v>
       </c>
       <c r="AP207">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ207">
         <v>1.25</v>
@@ -44447,7 +44462,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ208">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR208">
         <v>1.35</v>
@@ -44572,7 +44587,7 @@
         <v>247</v>
       </c>
       <c r="P209" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q209">
         <v>5.5</v>
@@ -44653,7 +44668,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ209">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR209">
         <v>1.6</v>
@@ -44778,7 +44793,7 @@
         <v>129</v>
       </c>
       <c r="P210" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q210">
         <v>3.4</v>
@@ -44984,7 +44999,7 @@
         <v>88</v>
       </c>
       <c r="P211" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q211">
         <v>3.4</v>
@@ -45065,7 +45080,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ211">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR211">
         <v>1.4</v>
@@ -45190,7 +45205,7 @@
         <v>248</v>
       </c>
       <c r="P212" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q212">
         <v>4.75</v>
@@ -45271,7 +45286,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ212">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR212">
         <v>1.69</v>
@@ -45477,7 +45492,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ213">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR213">
         <v>1.48</v>
@@ -45602,7 +45617,7 @@
         <v>88</v>
       </c>
       <c r="P214" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45808,7 +45823,7 @@
         <v>250</v>
       </c>
       <c r="P215" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q215">
         <v>3.6</v>
@@ -45886,7 +45901,7 @@
         <v>1.64</v>
       </c>
       <c r="AP215">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ215">
         <v>1.75</v>
@@ -46014,7 +46029,7 @@
         <v>88</v>
       </c>
       <c r="P216" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -46092,7 +46107,7 @@
         <v>2.64</v>
       </c>
       <c r="AP216">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ216">
         <v>2.6</v>
@@ -46220,7 +46235,7 @@
         <v>251</v>
       </c>
       <c r="P217" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q217">
         <v>2.5</v>
@@ -46298,7 +46313,7 @@
         <v>1.09</v>
       </c>
       <c r="AP217">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ217">
         <v>1</v>
@@ -46504,7 +46519,7 @@
         <v>0.67</v>
       </c>
       <c r="AP218">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ218">
         <v>0.63</v>
@@ -46838,7 +46853,7 @@
         <v>254</v>
       </c>
       <c r="P220" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q220">
         <v>1.67</v>
@@ -47125,7 +47140,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ221">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR221">
         <v>1.87</v>
@@ -47250,7 +47265,7 @@
         <v>256</v>
       </c>
       <c r="P222" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47456,7 +47471,7 @@
         <v>257</v>
       </c>
       <c r="P223" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q223">
         <v>3.75</v>
@@ -47534,7 +47549,7 @@
         <v>1.75</v>
       </c>
       <c r="AP223">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ223">
         <v>1.88</v>
@@ -47662,7 +47677,7 @@
         <v>217</v>
       </c>
       <c r="P224" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q224">
         <v>2.88</v>
@@ -47743,7 +47758,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ224">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR224">
         <v>1.67</v>
@@ -48280,7 +48295,7 @@
         <v>260</v>
       </c>
       <c r="P227" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q227">
         <v>5.5</v>
@@ -48358,10 +48373,10 @@
         <v>1.42</v>
       </c>
       <c r="AP227">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ227">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR227">
         <v>1.46</v>
@@ -48692,7 +48707,7 @@
         <v>262</v>
       </c>
       <c r="P229" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q229">
         <v>10</v>
@@ -48773,7 +48788,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ229">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR229">
         <v>1.38</v>
@@ -48898,7 +48913,7 @@
         <v>263</v>
       </c>
       <c r="P230" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q230">
         <v>2.63</v>
@@ -48976,10 +48991,10 @@
         <v>1</v>
       </c>
       <c r="AP230">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ230">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR230">
         <v>1.38</v>
@@ -49391,7 +49406,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ232">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR232">
         <v>1.44</v>
@@ -49516,7 +49531,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49594,7 +49609,7 @@
         <v>1.75</v>
       </c>
       <c r="AP233">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ233">
         <v>1.75</v>
@@ -49722,7 +49737,7 @@
         <v>266</v>
       </c>
       <c r="P234" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q234">
         <v>5.5</v>
@@ -50006,7 +50021,7 @@
         <v>1.31</v>
       </c>
       <c r="AP235">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ235">
         <v>1.06</v>
@@ -50752,7 +50767,7 @@
         <v>88</v>
       </c>
       <c r="P239" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q239">
         <v>2.88</v>
@@ -50833,7 +50848,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ239">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR239">
         <v>1.48</v>
@@ -50958,7 +50973,7 @@
         <v>88</v>
       </c>
       <c r="P240" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q240">
         <v>3.2</v>
@@ -51036,7 +51051,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP240">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ240">
         <v>0.9399999999999999</v>
@@ -51164,7 +51179,7 @@
         <v>88</v>
       </c>
       <c r="P241" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q241">
         <v>1.83</v>
@@ -51576,7 +51591,7 @@
         <v>269</v>
       </c>
       <c r="P243" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q243">
         <v>1.67</v>
@@ -51654,7 +51669,7 @@
         <v>0.77</v>
       </c>
       <c r="AP243">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ243">
         <v>0.9399999999999999</v>
@@ -51782,7 +51797,7 @@
         <v>270</v>
       </c>
       <c r="P244" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q244">
         <v>2.25</v>
@@ -51863,7 +51878,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ244">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR244">
         <v>1.7</v>
@@ -52194,7 +52209,7 @@
         <v>272</v>
       </c>
       <c r="P246" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q246">
         <v>6</v>
@@ -52275,7 +52290,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ246">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR246">
         <v>1.43</v>
@@ -52478,7 +52493,7 @@
         <v>0.54</v>
       </c>
       <c r="AP247">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ247">
         <v>0.47</v>
@@ -52687,7 +52702,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ248">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR248">
         <v>1.46</v>
@@ -52812,7 +52827,7 @@
         <v>129</v>
       </c>
       <c r="P249" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q249">
         <v>4.5</v>
@@ -52893,7 +52908,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ249">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR249">
         <v>1.57</v>
@@ -53302,7 +53317,7 @@
         <v>1.85</v>
       </c>
       <c r="AP251">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ251">
         <v>1.75</v>
@@ -53508,10 +53523,10 @@
         <v>1.15</v>
       </c>
       <c r="AP252">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ252">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR252">
         <v>1.48</v>
@@ -53636,7 +53651,7 @@
         <v>248</v>
       </c>
       <c r="P253" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q253">
         <v>2.4</v>
@@ -53714,10 +53729,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP253">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ253">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR253">
         <v>1.4</v>
@@ -54666,7 +54681,7 @@
         <v>280</v>
       </c>
       <c r="P258" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q258">
         <v>3.5</v>
@@ -55156,7 +55171,7 @@
         <v>1.21</v>
       </c>
       <c r="AP260">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ260">
         <v>1.06</v>
@@ -55365,7 +55380,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ261">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR261">
         <v>1.34</v>
@@ -55777,7 +55792,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ263">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR263">
         <v>1.46</v>
@@ -55902,7 +55917,7 @@
         <v>285</v>
       </c>
       <c r="P264" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q264">
         <v>2.5</v>
@@ -55980,10 +55995,10 @@
         <v>0.86</v>
       </c>
       <c r="AP264">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ264">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR264">
         <v>1.49</v>
@@ -56186,7 +56201,7 @@
         <v>0.5</v>
       </c>
       <c r="AP265">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ265">
         <v>0.47</v>
@@ -56314,7 +56329,7 @@
         <v>117</v>
       </c>
       <c r="P266" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q266">
         <v>5.5</v>
@@ -56395,7 +56410,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ266">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR266">
         <v>1.4</v>
@@ -56520,7 +56535,7 @@
         <v>88</v>
       </c>
       <c r="P267" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -56598,10 +56613,10 @@
         <v>0.57</v>
       </c>
       <c r="AP267">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ267">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR267">
         <v>1.45</v>
@@ -56726,7 +56741,7 @@
         <v>281</v>
       </c>
       <c r="P268" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -56807,7 +56822,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ268">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR268">
         <v>1.36</v>
@@ -56932,7 +56947,7 @@
         <v>286</v>
       </c>
       <c r="P269" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q269">
         <v>4.75</v>
@@ -57010,7 +57025,7 @@
         <v>1.93</v>
       </c>
       <c r="AP269">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ269">
         <v>1.75</v>
@@ -57138,7 +57153,7 @@
         <v>287</v>
       </c>
       <c r="P270" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q270">
         <v>2.88</v>
@@ -57216,7 +57231,7 @@
         <v>2.71</v>
       </c>
       <c r="AP270">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ270">
         <v>2.6</v>
@@ -57550,7 +57565,7 @@
         <v>289</v>
       </c>
       <c r="P272" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q272">
         <v>2.75</v>
@@ -57962,7 +57977,7 @@
         <v>291</v>
       </c>
       <c r="P274" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q274">
         <v>2.2</v>
@@ -58168,7 +58183,7 @@
         <v>143</v>
       </c>
       <c r="P275" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q275">
         <v>2.88</v>
@@ -58374,7 +58389,7 @@
         <v>88</v>
       </c>
       <c r="P276" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q276">
         <v>2.3</v>
@@ -58580,7 +58595,7 @@
         <v>292</v>
       </c>
       <c r="P277" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q277">
         <v>2.2</v>
@@ -59355,6 +59370,1242 @@
       </c>
       <c r="BP280">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>6683918</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45415.64583333334</v>
+      </c>
+      <c r="F281">
+        <v>32</v>
+      </c>
+      <c r="G281" t="s">
+        <v>73</v>
+      </c>
+      <c r="H281" t="s">
+        <v>79</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281">
+        <v>1</v>
+      </c>
+      <c r="N281">
+        <v>2</v>
+      </c>
+      <c r="O281" t="s">
+        <v>281</v>
+      </c>
+      <c r="P281" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q281">
+        <v>5</v>
+      </c>
+      <c r="R281">
+        <v>2.88</v>
+      </c>
+      <c r="S281">
+        <v>1.91</v>
+      </c>
+      <c r="T281">
+        <v>1.17</v>
+      </c>
+      <c r="U281">
+        <v>5</v>
+      </c>
+      <c r="V281">
+        <v>1.8</v>
+      </c>
+      <c r="W281">
+        <v>1.91</v>
+      </c>
+      <c r="X281">
+        <v>3.75</v>
+      </c>
+      <c r="Y281">
+        <v>1.25</v>
+      </c>
+      <c r="Z281">
+        <v>4.7</v>
+      </c>
+      <c r="AA281">
+        <v>4.5</v>
+      </c>
+      <c r="AB281">
+        <v>1.5</v>
+      </c>
+      <c r="AC281">
+        <v>1.01</v>
+      </c>
+      <c r="AD281">
+        <v>37.5</v>
+      </c>
+      <c r="AE281">
+        <v>1.08</v>
+      </c>
+      <c r="AF281">
+        <v>7.9</v>
+      </c>
+      <c r="AG281">
+        <v>1.33</v>
+      </c>
+      <c r="AH281">
+        <v>3.2</v>
+      </c>
+      <c r="AI281">
+        <v>1.4</v>
+      </c>
+      <c r="AJ281">
+        <v>2.75</v>
+      </c>
+      <c r="AK281">
+        <v>2.45</v>
+      </c>
+      <c r="AL281">
+        <v>1.19</v>
+      </c>
+      <c r="AM281">
+        <v>1.18</v>
+      </c>
+      <c r="AN281">
+        <v>1.27</v>
+      </c>
+      <c r="AO281">
+        <v>1.73</v>
+      </c>
+      <c r="AP281">
+        <v>1.25</v>
+      </c>
+      <c r="AQ281">
+        <v>1.69</v>
+      </c>
+      <c r="AR281">
+        <v>1.56</v>
+      </c>
+      <c r="AS281">
+        <v>1.55</v>
+      </c>
+      <c r="AT281">
+        <v>3.11</v>
+      </c>
+      <c r="AU281">
+        <v>9</v>
+      </c>
+      <c r="AV281">
+        <v>5</v>
+      </c>
+      <c r="AW281">
+        <v>9</v>
+      </c>
+      <c r="AX281">
+        <v>3</v>
+      </c>
+      <c r="AY281">
+        <v>18</v>
+      </c>
+      <c r="AZ281">
+        <v>8</v>
+      </c>
+      <c r="BA281">
+        <v>4</v>
+      </c>
+      <c r="BB281">
+        <v>4</v>
+      </c>
+      <c r="BC281">
+        <v>8</v>
+      </c>
+      <c r="BD281">
+        <v>3</v>
+      </c>
+      <c r="BE281">
+        <v>8.5</v>
+      </c>
+      <c r="BF281">
+        <v>1.52</v>
+      </c>
+      <c r="BG281">
+        <v>1.19</v>
+      </c>
+      <c r="BH281">
+        <v>3.9</v>
+      </c>
+      <c r="BI281">
+        <v>1.35</v>
+      </c>
+      <c r="BJ281">
+        <v>2.75</v>
+      </c>
+      <c r="BK281">
+        <v>1.63</v>
+      </c>
+      <c r="BL281">
+        <v>2.1</v>
+      </c>
+      <c r="BM281">
+        <v>2</v>
+      </c>
+      <c r="BN281">
+        <v>1.68</v>
+      </c>
+      <c r="BO281">
+        <v>2.55</v>
+      </c>
+      <c r="BP281">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>6683920</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45416.4375</v>
+      </c>
+      <c r="F282">
+        <v>32</v>
+      </c>
+      <c r="G282" t="s">
+        <v>75</v>
+      </c>
+      <c r="H282" t="s">
+        <v>87</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>2</v>
+      </c>
+      <c r="L282">
+        <v>3</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+      <c r="N282">
+        <v>4</v>
+      </c>
+      <c r="O282" t="s">
+        <v>293</v>
+      </c>
+      <c r="P282" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q282">
+        <v>2.6</v>
+      </c>
+      <c r="R282">
+        <v>2.5</v>
+      </c>
+      <c r="S282">
+        <v>3.4</v>
+      </c>
+      <c r="T282">
+        <v>1.22</v>
+      </c>
+      <c r="U282">
+        <v>4</v>
+      </c>
+      <c r="V282">
+        <v>2.1</v>
+      </c>
+      <c r="W282">
+        <v>1.67</v>
+      </c>
+      <c r="X282">
+        <v>4.5</v>
+      </c>
+      <c r="Y282">
+        <v>1.18</v>
+      </c>
+      <c r="Z282">
+        <v>2.3</v>
+      </c>
+      <c r="AA282">
+        <v>3.7</v>
+      </c>
+      <c r="AB282">
+        <v>2.75</v>
+      </c>
+      <c r="AC282">
+        <v>1.01</v>
+      </c>
+      <c r="AD282">
+        <v>26</v>
+      </c>
+      <c r="AE282">
+        <v>1.13</v>
+      </c>
+      <c r="AF282">
+        <v>6</v>
+      </c>
+      <c r="AG282">
+        <v>1.52</v>
+      </c>
+      <c r="AH282">
+        <v>2.31</v>
+      </c>
+      <c r="AI282">
+        <v>1.4</v>
+      </c>
+      <c r="AJ282">
+        <v>2.75</v>
+      </c>
+      <c r="AK282">
+        <v>1.4</v>
+      </c>
+      <c r="AL282">
+        <v>1.2</v>
+      </c>
+      <c r="AM282">
+        <v>1.75</v>
+      </c>
+      <c r="AN282">
+        <v>2.4</v>
+      </c>
+      <c r="AO282">
+        <v>1.93</v>
+      </c>
+      <c r="AP282">
+        <v>2.44</v>
+      </c>
+      <c r="AQ282">
+        <v>1.81</v>
+      </c>
+      <c r="AR282">
+        <v>1.89</v>
+      </c>
+      <c r="AS282">
+        <v>1.9</v>
+      </c>
+      <c r="AT282">
+        <v>3.79</v>
+      </c>
+      <c r="AU282">
+        <v>11</v>
+      </c>
+      <c r="AV282">
+        <v>4</v>
+      </c>
+      <c r="AW282">
+        <v>8</v>
+      </c>
+      <c r="AX282">
+        <v>3</v>
+      </c>
+      <c r="AY282">
+        <v>19</v>
+      </c>
+      <c r="AZ282">
+        <v>7</v>
+      </c>
+      <c r="BA282">
+        <v>3</v>
+      </c>
+      <c r="BB282">
+        <v>1</v>
+      </c>
+      <c r="BC282">
+        <v>4</v>
+      </c>
+      <c r="BD282">
+        <v>1.79</v>
+      </c>
+      <c r="BE282">
+        <v>7.5</v>
+      </c>
+      <c r="BF282">
+        <v>2.35</v>
+      </c>
+      <c r="BG282">
+        <v>1.21</v>
+      </c>
+      <c r="BH282">
+        <v>3.55</v>
+      </c>
+      <c r="BI282">
+        <v>1.42</v>
+      </c>
+      <c r="BJ282">
+        <v>2.55</v>
+      </c>
+      <c r="BK282">
+        <v>1.72</v>
+      </c>
+      <c r="BL282">
+        <v>1.98</v>
+      </c>
+      <c r="BM282">
+        <v>2.14</v>
+      </c>
+      <c r="BN282">
+        <v>1.6</v>
+      </c>
+      <c r="BO282">
+        <v>2.75</v>
+      </c>
+      <c r="BP282">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>6683916</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45416.4375</v>
+      </c>
+      <c r="F283">
+        <v>32</v>
+      </c>
+      <c r="G283" t="s">
+        <v>72</v>
+      </c>
+      <c r="H283" t="s">
+        <v>80</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>2</v>
+      </c>
+      <c r="L283">
+        <v>3</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>3</v>
+      </c>
+      <c r="O283" t="s">
+        <v>294</v>
+      </c>
+      <c r="P283" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q283">
+        <v>1.83</v>
+      </c>
+      <c r="R283">
+        <v>2.6</v>
+      </c>
+      <c r="S283">
+        <v>6.5</v>
+      </c>
+      <c r="T283">
+        <v>1.29</v>
+      </c>
+      <c r="U283">
+        <v>3.5</v>
+      </c>
+      <c r="V283">
+        <v>2.25</v>
+      </c>
+      <c r="W283">
+        <v>1.57</v>
+      </c>
+      <c r="X283">
+        <v>5.5</v>
+      </c>
+      <c r="Y283">
+        <v>1.14</v>
+      </c>
+      <c r="Z283">
+        <v>1.4</v>
+      </c>
+      <c r="AA283">
+        <v>4.75</v>
+      </c>
+      <c r="AB283">
+        <v>7.5</v>
+      </c>
+      <c r="AC283">
+        <v>1.02</v>
+      </c>
+      <c r="AD283">
+        <v>13</v>
+      </c>
+      <c r="AE283">
+        <v>1.13</v>
+      </c>
+      <c r="AF283">
+        <v>5.2</v>
+      </c>
+      <c r="AG283">
+        <v>1.53</v>
+      </c>
+      <c r="AH283">
+        <v>2.35</v>
+      </c>
+      <c r="AI283">
+        <v>1.8</v>
+      </c>
+      <c r="AJ283">
+        <v>1.95</v>
+      </c>
+      <c r="AK283">
+        <v>1.12</v>
+      </c>
+      <c r="AL283">
+        <v>1.18</v>
+      </c>
+      <c r="AM283">
+        <v>2.9</v>
+      </c>
+      <c r="AN283">
+        <v>1.27</v>
+      </c>
+      <c r="AO283">
+        <v>0.73</v>
+      </c>
+      <c r="AP283">
+        <v>1.38</v>
+      </c>
+      <c r="AQ283">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR283">
+        <v>1.39</v>
+      </c>
+      <c r="AS283">
+        <v>1.08</v>
+      </c>
+      <c r="AT283">
+        <v>2.47</v>
+      </c>
+      <c r="AU283">
+        <v>8</v>
+      </c>
+      <c r="AV283">
+        <v>3</v>
+      </c>
+      <c r="AW283">
+        <v>7</v>
+      </c>
+      <c r="AX283">
+        <v>4</v>
+      </c>
+      <c r="AY283">
+        <v>15</v>
+      </c>
+      <c r="AZ283">
+        <v>7</v>
+      </c>
+      <c r="BA283">
+        <v>9</v>
+      </c>
+      <c r="BB283">
+        <v>2</v>
+      </c>
+      <c r="BC283">
+        <v>11</v>
+      </c>
+      <c r="BD283">
+        <v>1.37</v>
+      </c>
+      <c r="BE283">
+        <v>9</v>
+      </c>
+      <c r="BF283">
+        <v>3.9</v>
+      </c>
+      <c r="BG283">
+        <v>1.27</v>
+      </c>
+      <c r="BH283">
+        <v>3.15</v>
+      </c>
+      <c r="BI283">
+        <v>1.49</v>
+      </c>
+      <c r="BJ283">
+        <v>2.35</v>
+      </c>
+      <c r="BK283">
+        <v>1.84</v>
+      </c>
+      <c r="BL283">
+        <v>1.85</v>
+      </c>
+      <c r="BM283">
+        <v>2.3</v>
+      </c>
+      <c r="BN283">
+        <v>1.5</v>
+      </c>
+      <c r="BO283">
+        <v>3</v>
+      </c>
+      <c r="BP283">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>6683913</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45416.4375</v>
+      </c>
+      <c r="F284">
+        <v>32</v>
+      </c>
+      <c r="G284" t="s">
+        <v>76</v>
+      </c>
+      <c r="H284" t="s">
+        <v>74</v>
+      </c>
+      <c r="I284">
+        <v>4</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="K284">
+        <v>5</v>
+      </c>
+      <c r="L284">
+        <v>5</v>
+      </c>
+      <c r="M284">
+        <v>1</v>
+      </c>
+      <c r="N284">
+        <v>6</v>
+      </c>
+      <c r="O284" t="s">
+        <v>295</v>
+      </c>
+      <c r="P284" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q284">
+        <v>2.2</v>
+      </c>
+      <c r="R284">
+        <v>2.75</v>
+      </c>
+      <c r="S284">
+        <v>4</v>
+      </c>
+      <c r="T284">
+        <v>1.18</v>
+      </c>
+      <c r="U284">
+        <v>4.5</v>
+      </c>
+      <c r="V284">
+        <v>1.83</v>
+      </c>
+      <c r="W284">
+        <v>1.83</v>
+      </c>
+      <c r="X284">
+        <v>4</v>
+      </c>
+      <c r="Y284">
+        <v>1.22</v>
+      </c>
+      <c r="Z284">
+        <v>1.61</v>
+      </c>
+      <c r="AA284">
+        <v>4.4</v>
+      </c>
+      <c r="AB284">
+        <v>4.6</v>
+      </c>
+      <c r="AC284">
+        <v>1.01</v>
+      </c>
+      <c r="AD284">
+        <v>14</v>
+      </c>
+      <c r="AE284">
+        <v>1.06</v>
+      </c>
+      <c r="AF284">
+        <v>7.5</v>
+      </c>
+      <c r="AG284">
+        <v>1.35</v>
+      </c>
+      <c r="AH284">
+        <v>2.87</v>
+      </c>
+      <c r="AI284">
+        <v>1.36</v>
+      </c>
+      <c r="AJ284">
+        <v>3</v>
+      </c>
+      <c r="AK284">
+        <v>1.24</v>
+      </c>
+      <c r="AL284">
+        <v>1.22</v>
+      </c>
+      <c r="AM284">
+        <v>2.1</v>
+      </c>
+      <c r="AN284">
+        <v>1.8</v>
+      </c>
+      <c r="AO284">
+        <v>1</v>
+      </c>
+      <c r="AP284">
+        <v>1.88</v>
+      </c>
+      <c r="AQ284">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR284">
+        <v>1.77</v>
+      </c>
+      <c r="AS284">
+        <v>1.31</v>
+      </c>
+      <c r="AT284">
+        <v>3.08</v>
+      </c>
+      <c r="AU284">
+        <v>11</v>
+      </c>
+      <c r="AV284">
+        <v>5</v>
+      </c>
+      <c r="AW284">
+        <v>7</v>
+      </c>
+      <c r="AX284">
+        <v>10</v>
+      </c>
+      <c r="AY284">
+        <v>18</v>
+      </c>
+      <c r="AZ284">
+        <v>15</v>
+      </c>
+      <c r="BA284">
+        <v>6</v>
+      </c>
+      <c r="BB284">
+        <v>9</v>
+      </c>
+      <c r="BC284">
+        <v>15</v>
+      </c>
+      <c r="BD284">
+        <v>1.58</v>
+      </c>
+      <c r="BE284">
+        <v>8</v>
+      </c>
+      <c r="BF284">
+        <v>2.8</v>
+      </c>
+      <c r="BG284">
+        <v>1.2</v>
+      </c>
+      <c r="BH284">
+        <v>3.7</v>
+      </c>
+      <c r="BI284">
+        <v>1.38</v>
+      </c>
+      <c r="BJ284">
+        <v>2.65</v>
+      </c>
+      <c r="BK284">
+        <v>1.67</v>
+      </c>
+      <c r="BL284">
+        <v>2.02</v>
+      </c>
+      <c r="BM284">
+        <v>2.08</v>
+      </c>
+      <c r="BN284">
+        <v>1.64</v>
+      </c>
+      <c r="BO284">
+        <v>2.65</v>
+      </c>
+      <c r="BP284">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>6683919</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45416.4375</v>
+      </c>
+      <c r="F285">
+        <v>32</v>
+      </c>
+      <c r="G285" t="s">
+        <v>70</v>
+      </c>
+      <c r="H285" t="s">
+        <v>85</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="J285">
+        <v>1</v>
+      </c>
+      <c r="K285">
+        <v>2</v>
+      </c>
+      <c r="L285">
+        <v>2</v>
+      </c>
+      <c r="M285">
+        <v>2</v>
+      </c>
+      <c r="N285">
+        <v>4</v>
+      </c>
+      <c r="O285" t="s">
+        <v>296</v>
+      </c>
+      <c r="P285" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q285">
+        <v>2.88</v>
+      </c>
+      <c r="R285">
+        <v>2.4</v>
+      </c>
+      <c r="S285">
+        <v>3.25</v>
+      </c>
+      <c r="T285">
+        <v>1.29</v>
+      </c>
+      <c r="U285">
+        <v>3.5</v>
+      </c>
+      <c r="V285">
+        <v>2.25</v>
+      </c>
+      <c r="W285">
+        <v>1.57</v>
+      </c>
+      <c r="X285">
+        <v>5.5</v>
+      </c>
+      <c r="Y285">
+        <v>1.14</v>
+      </c>
+      <c r="Z285">
+        <v>2.4</v>
+      </c>
+      <c r="AA285">
+        <v>3.6</v>
+      </c>
+      <c r="AB285">
+        <v>2.7</v>
+      </c>
+      <c r="AC285">
+        <v>1.03</v>
+      </c>
+      <c r="AD285">
+        <v>13</v>
+      </c>
+      <c r="AE285">
+        <v>1.13</v>
+      </c>
+      <c r="AF285">
+        <v>5.2</v>
+      </c>
+      <c r="AG285">
+        <v>1.61</v>
+      </c>
+      <c r="AH285">
+        <v>2.13</v>
+      </c>
+      <c r="AI285">
+        <v>1.5</v>
+      </c>
+      <c r="AJ285">
+        <v>2.5</v>
+      </c>
+      <c r="AK285">
+        <v>1.44</v>
+      </c>
+      <c r="AL285">
+        <v>1.24</v>
+      </c>
+      <c r="AM285">
+        <v>1.63</v>
+      </c>
+      <c r="AN285">
+        <v>1.4</v>
+      </c>
+      <c r="AO285">
+        <v>0.8</v>
+      </c>
+      <c r="AP285">
+        <v>1.38</v>
+      </c>
+      <c r="AQ285">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR285">
+        <v>1.23</v>
+      </c>
+      <c r="AS285">
+        <v>1.31</v>
+      </c>
+      <c r="AT285">
+        <v>2.54</v>
+      </c>
+      <c r="AU285">
+        <v>7</v>
+      </c>
+      <c r="AV285">
+        <v>7</v>
+      </c>
+      <c r="AW285">
+        <v>9</v>
+      </c>
+      <c r="AX285">
+        <v>8</v>
+      </c>
+      <c r="AY285">
+        <v>16</v>
+      </c>
+      <c r="AZ285">
+        <v>15</v>
+      </c>
+      <c r="BA285">
+        <v>7</v>
+      </c>
+      <c r="BB285">
+        <v>2</v>
+      </c>
+      <c r="BC285">
+        <v>9</v>
+      </c>
+      <c r="BD285">
+        <v>1.95</v>
+      </c>
+      <c r="BE285">
+        <v>7.5</v>
+      </c>
+      <c r="BF285">
+        <v>2.12</v>
+      </c>
+      <c r="BG285">
+        <v>1.25</v>
+      </c>
+      <c r="BH285">
+        <v>3.25</v>
+      </c>
+      <c r="BI285">
+        <v>1.48</v>
+      </c>
+      <c r="BJ285">
+        <v>2.38</v>
+      </c>
+      <c r="BK285">
+        <v>1.82</v>
+      </c>
+      <c r="BL285">
+        <v>1.87</v>
+      </c>
+      <c r="BM285">
+        <v>2.3</v>
+      </c>
+      <c r="BN285">
+        <v>1.5</v>
+      </c>
+      <c r="BO285">
+        <v>3</v>
+      </c>
+      <c r="BP285">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>6683917</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45416.5625</v>
+      </c>
+      <c r="F286">
+        <v>32</v>
+      </c>
+      <c r="G286" t="s">
+        <v>83</v>
+      </c>
+      <c r="H286" t="s">
+        <v>81</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>0</v>
+      </c>
+      <c r="O286" t="s">
+        <v>88</v>
+      </c>
+      <c r="P286" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q286">
+        <v>2.88</v>
+      </c>
+      <c r="R286">
+        <v>2.25</v>
+      </c>
+      <c r="S286">
+        <v>3.4</v>
+      </c>
+      <c r="T286">
+        <v>1.33</v>
+      </c>
+      <c r="U286">
+        <v>3.25</v>
+      </c>
+      <c r="V286">
+        <v>2.63</v>
+      </c>
+      <c r="W286">
+        <v>1.44</v>
+      </c>
+      <c r="X286">
+        <v>6.5</v>
+      </c>
+      <c r="Y286">
+        <v>1.11</v>
+      </c>
+      <c r="Z286">
+        <v>2.32</v>
+      </c>
+      <c r="AA286">
+        <v>3.6</v>
+      </c>
+      <c r="AB286">
+        <v>2.85</v>
+      </c>
+      <c r="AC286">
+        <v>1.04</v>
+      </c>
+      <c r="AD286">
+        <v>14.5</v>
+      </c>
+      <c r="AE286">
+        <v>1.23</v>
+      </c>
+      <c r="AF286">
+        <v>4.17</v>
+      </c>
+      <c r="AG286">
+        <v>1.7</v>
+      </c>
+      <c r="AH286">
+        <v>2.15</v>
+      </c>
+      <c r="AI286">
+        <v>1.62</v>
+      </c>
+      <c r="AJ286">
+        <v>2.2</v>
+      </c>
+      <c r="AK286">
+        <v>1.42</v>
+      </c>
+      <c r="AL286">
+        <v>1.25</v>
+      </c>
+      <c r="AM286">
+        <v>1.63</v>
+      </c>
+      <c r="AN286">
+        <v>0.8</v>
+      </c>
+      <c r="AO286">
+        <v>1.27</v>
+      </c>
+      <c r="AP286">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AQ286">
+        <v>1.25</v>
+      </c>
+      <c r="AR286">
+        <v>1.47</v>
+      </c>
+      <c r="AS286">
+        <v>1.09</v>
+      </c>
+      <c r="AT286">
+        <v>2.56</v>
+      </c>
+      <c r="AU286">
+        <v>8</v>
+      </c>
+      <c r="AV286">
+        <v>0</v>
+      </c>
+      <c r="AW286">
+        <v>8</v>
+      </c>
+      <c r="AX286">
+        <v>5</v>
+      </c>
+      <c r="AY286">
+        <v>16</v>
+      </c>
+      <c r="AZ286">
+        <v>5</v>
+      </c>
+      <c r="BA286">
+        <v>7</v>
+      </c>
+      <c r="BB286">
+        <v>1</v>
+      </c>
+      <c r="BC286">
+        <v>8</v>
+      </c>
+      <c r="BD286">
+        <v>1.7</v>
+      </c>
+      <c r="BE286">
+        <v>7.5</v>
+      </c>
+      <c r="BF286">
+        <v>2.5</v>
+      </c>
+      <c r="BG286">
+        <v>1.27</v>
+      </c>
+      <c r="BH286">
+        <v>3.15</v>
+      </c>
+      <c r="BI286">
+        <v>1.52</v>
+      </c>
+      <c r="BJ286">
+        <v>2.3</v>
+      </c>
+      <c r="BK286">
+        <v>1.88</v>
+      </c>
+      <c r="BL286">
+        <v>1.81</v>
+      </c>
+      <c r="BM286">
+        <v>2.35</v>
+      </c>
+      <c r="BN286">
+        <v>1.48</v>
+      </c>
+      <c r="BO286">
+        <v>3.15</v>
+      </c>
+      <c r="BP286">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="439">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -898,13 +898,16 @@
     <t>['29', '83', '90+3']</t>
   </si>
   <si>
-    <t>['8', '10', '90+2']</t>
+    <t>['8', '10', '90+3']</t>
   </si>
   <si>
     <t>['4', '20', '29', '34', '64']</t>
   </si>
   <si>
     <t>['45', '65']</t>
+  </si>
+  <si>
+    <t>['59', '62', '74']</t>
   </si>
   <si>
     <t>['4', '74', '90', '90+4']</t>
@@ -1326,6 +1329,9 @@
   <si>
     <t>['8', '90+1']</t>
   </si>
+  <si>
+    <t>['16', '31', '37', '70']</t>
+  </si>
 </sst>
 </file>
 
@@ -1686,7 +1692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP286"/>
+  <dimension ref="A1:BP287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1945,7 +1951,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -2151,7 +2157,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2563,7 +2569,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q5">
         <v>2.88</v>
@@ -2769,7 +2775,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -3056,7 +3062,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ7">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3465,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
         <v>0.53</v>
@@ -4005,7 +4011,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -4417,7 +4423,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q14">
         <v>3.4</v>
@@ -4623,7 +4629,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4829,7 +4835,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -5035,7 +5041,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -5241,7 +5247,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5653,7 +5659,7 @@
         <v>105</v>
       </c>
       <c r="P20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q20">
         <v>1.62</v>
@@ -6271,7 +6277,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q23">
         <v>2.5</v>
@@ -6352,7 +6358,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AR23">
         <v>1.82</v>
@@ -6889,7 +6895,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7301,7 +7307,7 @@
         <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7379,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28">
         <v>1.69</v>
@@ -7507,7 +7513,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -7919,7 +7925,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -8125,7 +8131,7 @@
         <v>116</v>
       </c>
       <c r="P32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -8331,7 +8337,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8537,7 +8543,7 @@
         <v>118</v>
       </c>
       <c r="P34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8949,7 +8955,7 @@
         <v>120</v>
       </c>
       <c r="P36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -9155,7 +9161,7 @@
         <v>121</v>
       </c>
       <c r="P37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9361,7 +9367,7 @@
         <v>122</v>
       </c>
       <c r="P38" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q38">
         <v>1.91</v>
@@ -9648,7 +9654,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ39">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AR39">
         <v>1.86</v>
@@ -9979,7 +9985,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -10057,7 +10063,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ41">
         <v>1.25</v>
@@ -10597,7 +10603,7 @@
         <v>126</v>
       </c>
       <c r="P44" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10803,7 +10809,7 @@
         <v>127</v>
       </c>
       <c r="P45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -11215,7 +11221,7 @@
         <v>103</v>
       </c>
       <c r="P47" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q47">
         <v>3.25</v>
@@ -11627,7 +11633,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11833,7 +11839,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q50">
         <v>3.25</v>
@@ -12039,7 +12045,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q51">
         <v>2.88</v>
@@ -12451,7 +12457,7 @@
         <v>130</v>
       </c>
       <c r="P53" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12657,7 +12663,7 @@
         <v>131</v>
       </c>
       <c r="P54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q54">
         <v>3.25</v>
@@ -13069,7 +13075,7 @@
         <v>133</v>
       </c>
       <c r="P56" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13275,7 +13281,7 @@
         <v>134</v>
       </c>
       <c r="P57" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13481,7 +13487,7 @@
         <v>135</v>
       </c>
       <c r="P58" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13687,7 +13693,7 @@
         <v>136</v>
       </c>
       <c r="P59" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13974,7 +13980,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ60">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AR60">
         <v>1.42</v>
@@ -14099,7 +14105,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -15129,7 +15135,7 @@
         <v>88</v>
       </c>
       <c r="P66" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15207,7 +15213,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ66">
         <v>1.75</v>
@@ -15335,7 +15341,7 @@
         <v>142</v>
       </c>
       <c r="P67" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15416,7 +15422,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ67">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15541,7 +15547,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15747,7 +15753,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q69">
         <v>2.63</v>
@@ -15953,7 +15959,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -16159,7 +16165,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q71">
         <v>6.5</v>
@@ -16571,7 +16577,7 @@
         <v>148</v>
       </c>
       <c r="P73" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16777,7 +16783,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16983,7 +16989,7 @@
         <v>150</v>
       </c>
       <c r="P75" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -17189,7 +17195,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -17807,7 +17813,7 @@
         <v>154</v>
       </c>
       <c r="P79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -18219,7 +18225,7 @@
         <v>156</v>
       </c>
       <c r="P81" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -18631,7 +18637,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18712,7 +18718,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ83">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AR83">
         <v>1.75</v>
@@ -18837,7 +18843,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18915,7 +18921,7 @@
         <v>1.25</v>
       </c>
       <c r="AP84">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ84">
         <v>1.06</v>
@@ -19043,7 +19049,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -19661,7 +19667,7 @@
         <v>161</v>
       </c>
       <c r="P88" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19867,7 +19873,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -20073,7 +20079,7 @@
         <v>162</v>
       </c>
       <c r="P90" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -21309,7 +21315,7 @@
         <v>167</v>
       </c>
       <c r="P96" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q96">
         <v>1.3</v>
@@ -21515,7 +21521,7 @@
         <v>103</v>
       </c>
       <c r="P97" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -21927,7 +21933,7 @@
         <v>169</v>
       </c>
       <c r="P99" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -22133,7 +22139,7 @@
         <v>170</v>
       </c>
       <c r="P100" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q100">
         <v>1.91</v>
@@ -22339,7 +22345,7 @@
         <v>88</v>
       </c>
       <c r="P101" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q101">
         <v>7.5</v>
@@ -22545,7 +22551,7 @@
         <v>94</v>
       </c>
       <c r="P102" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22623,7 +22629,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ102">
         <v>0.9399999999999999</v>
@@ -22957,7 +22963,7 @@
         <v>172</v>
       </c>
       <c r="P104" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -23163,7 +23169,7 @@
         <v>88</v>
       </c>
       <c r="P105" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q105">
         <v>5.5</v>
@@ -23369,7 +23375,7 @@
         <v>173</v>
       </c>
       <c r="P106" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q106">
         <v>1.91</v>
@@ -23575,7 +23581,7 @@
         <v>174</v>
       </c>
       <c r="P107" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q107">
         <v>3.1</v>
@@ -23862,7 +23868,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ108">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AR108">
         <v>1.57</v>
@@ -23987,7 +23993,7 @@
         <v>175</v>
       </c>
       <c r="P109" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q109">
         <v>2.5</v>
@@ -24193,7 +24199,7 @@
         <v>88</v>
       </c>
       <c r="P110" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q110">
         <v>3.25</v>
@@ -24811,7 +24817,7 @@
         <v>178</v>
       </c>
       <c r="P113" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -25429,7 +25435,7 @@
         <v>180</v>
       </c>
       <c r="P116" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q116">
         <v>2.1</v>
@@ -25635,7 +25641,7 @@
         <v>181</v>
       </c>
       <c r="P117" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q117">
         <v>3.2</v>
@@ -25922,7 +25928,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ118">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -26125,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ119">
         <v>0.8100000000000001</v>
@@ -26253,7 +26259,7 @@
         <v>184</v>
       </c>
       <c r="P120" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q120">
         <v>6.5</v>
@@ -26871,7 +26877,7 @@
         <v>186</v>
       </c>
       <c r="P123" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -27077,7 +27083,7 @@
         <v>187</v>
       </c>
       <c r="P124" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q124">
         <v>2.88</v>
@@ -27283,7 +27289,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q125">
         <v>3.25</v>
@@ -27695,7 +27701,7 @@
         <v>188</v>
       </c>
       <c r="P127" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28725,7 +28731,7 @@
         <v>191</v>
       </c>
       <c r="P132" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q132">
         <v>1.91</v>
@@ -29549,7 +29555,7 @@
         <v>195</v>
       </c>
       <c r="P136" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q136">
         <v>4.5</v>
@@ -29961,7 +29967,7 @@
         <v>197</v>
       </c>
       <c r="P138" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -30245,7 +30251,7 @@
         <v>0.63</v>
       </c>
       <c r="AP139">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ139">
         <v>0.6899999999999999</v>
@@ -30373,7 +30379,7 @@
         <v>199</v>
       </c>
       <c r="P140" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -30660,7 +30666,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ141">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AR141">
         <v>2.18</v>
@@ -30785,7 +30791,7 @@
         <v>201</v>
       </c>
       <c r="P142" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -30991,7 +30997,7 @@
         <v>202</v>
       </c>
       <c r="P143" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -32639,7 +32645,7 @@
         <v>88</v>
       </c>
       <c r="P151" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32845,7 +32851,7 @@
         <v>205</v>
       </c>
       <c r="P152" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -33257,7 +33263,7 @@
         <v>207</v>
       </c>
       <c r="P154" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q154">
         <v>4.33</v>
@@ -33875,7 +33881,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q157">
         <v>4.5</v>
@@ -34081,7 +34087,7 @@
         <v>209</v>
       </c>
       <c r="P158" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q158">
         <v>2.6</v>
@@ -34287,7 +34293,7 @@
         <v>210</v>
       </c>
       <c r="P159" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34699,7 +34705,7 @@
         <v>174</v>
       </c>
       <c r="P161" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -35317,7 +35323,7 @@
         <v>213</v>
       </c>
       <c r="P164" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q164">
         <v>3.1</v>
@@ -35523,7 +35529,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q165">
         <v>2.4</v>
@@ -35729,7 +35735,7 @@
         <v>214</v>
       </c>
       <c r="P166" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q166">
         <v>7.5</v>
@@ -35935,7 +35941,7 @@
         <v>215</v>
       </c>
       <c r="P167" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q167">
         <v>3.1</v>
@@ -36631,7 +36637,7 @@
         <v>0.63</v>
       </c>
       <c r="AP170">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ170">
         <v>0.6899999999999999</v>
@@ -36759,7 +36765,7 @@
         <v>218</v>
       </c>
       <c r="P171" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q171">
         <v>1.8</v>
@@ -36840,7 +36846,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ171">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AR171">
         <v>1.78</v>
@@ -37171,7 +37177,7 @@
         <v>88</v>
       </c>
       <c r="P173" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q173">
         <v>7.5</v>
@@ -37583,7 +37589,7 @@
         <v>220</v>
       </c>
       <c r="P175" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q175">
         <v>3.5</v>
@@ -37789,7 +37795,7 @@
         <v>88</v>
       </c>
       <c r="P176" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37995,7 +38001,7 @@
         <v>221</v>
       </c>
       <c r="P177" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -38407,7 +38413,7 @@
         <v>223</v>
       </c>
       <c r="P179" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q179">
         <v>2.63</v>
@@ -38819,7 +38825,7 @@
         <v>225</v>
       </c>
       <c r="P181" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q181">
         <v>2.88</v>
@@ -39231,7 +39237,7 @@
         <v>227</v>
       </c>
       <c r="P183" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q183">
         <v>2.4</v>
@@ -39643,7 +39649,7 @@
         <v>228</v>
       </c>
       <c r="P185" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q185">
         <v>4.33</v>
@@ -39927,7 +39933,7 @@
         <v>0.8</v>
       </c>
       <c r="AP186">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ186">
         <v>0.9399999999999999</v>
@@ -40055,7 +40061,7 @@
         <v>230</v>
       </c>
       <c r="P187" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q187">
         <v>2.3</v>
@@ -40136,7 +40142,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ187">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AR187">
         <v>1.35</v>
@@ -40467,7 +40473,7 @@
         <v>232</v>
       </c>
       <c r="P189" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q189">
         <v>1.95</v>
@@ -41085,7 +41091,7 @@
         <v>88</v>
       </c>
       <c r="P192" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q192">
         <v>2.6</v>
@@ -41909,7 +41915,7 @@
         <v>134</v>
       </c>
       <c r="P196" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q196">
         <v>7</v>
@@ -42321,7 +42327,7 @@
         <v>237</v>
       </c>
       <c r="P198" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -42527,7 +42533,7 @@
         <v>238</v>
       </c>
       <c r="P199" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q199">
         <v>6.5</v>
@@ -42939,7 +42945,7 @@
         <v>240</v>
       </c>
       <c r="P201" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -43017,7 +43023,7 @@
         <v>0.82</v>
       </c>
       <c r="AP201">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ201">
         <v>0.9399999999999999</v>
@@ -43145,7 +43151,7 @@
         <v>241</v>
       </c>
       <c r="P202" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q202">
         <v>2.5</v>
@@ -43226,7 +43232,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ202">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AR202">
         <v>1.43</v>
@@ -43969,7 +43975,7 @@
         <v>244</v>
       </c>
       <c r="P206" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q206">
         <v>2.88</v>
@@ -44175,7 +44181,7 @@
         <v>245</v>
       </c>
       <c r="P207" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q207">
         <v>1.95</v>
@@ -44587,7 +44593,7 @@
         <v>247</v>
       </c>
       <c r="P209" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q209">
         <v>5.5</v>
@@ -44793,7 +44799,7 @@
         <v>129</v>
       </c>
       <c r="P210" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q210">
         <v>3.4</v>
@@ -44999,7 +45005,7 @@
         <v>88</v>
       </c>
       <c r="P211" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q211">
         <v>3.4</v>
@@ -45205,7 +45211,7 @@
         <v>248</v>
       </c>
       <c r="P212" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q212">
         <v>4.75</v>
@@ -45617,7 +45623,7 @@
         <v>88</v>
       </c>
       <c r="P214" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45695,7 +45701,7 @@
         <v>1.64</v>
       </c>
       <c r="AP214">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ214">
         <v>1.88</v>
@@ -45823,7 +45829,7 @@
         <v>250</v>
       </c>
       <c r="P215" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q215">
         <v>3.6</v>
@@ -46029,7 +46035,7 @@
         <v>88</v>
       </c>
       <c r="P216" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -46235,7 +46241,7 @@
         <v>251</v>
       </c>
       <c r="P217" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q217">
         <v>2.5</v>
@@ -46853,7 +46859,7 @@
         <v>254</v>
       </c>
       <c r="P220" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q220">
         <v>1.67</v>
@@ -47265,7 +47271,7 @@
         <v>256</v>
       </c>
       <c r="P222" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47471,7 +47477,7 @@
         <v>257</v>
       </c>
       <c r="P223" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q223">
         <v>3.75</v>
@@ -47677,7 +47683,7 @@
         <v>217</v>
       </c>
       <c r="P224" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q224">
         <v>2.88</v>
@@ -48295,7 +48301,7 @@
         <v>260</v>
       </c>
       <c r="P227" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q227">
         <v>5.5</v>
@@ -48579,7 +48585,7 @@
         <v>1</v>
       </c>
       <c r="AP228">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ228">
         <v>1</v>
@@ -48707,7 +48713,7 @@
         <v>262</v>
       </c>
       <c r="P229" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q229">
         <v>10</v>
@@ -48913,7 +48919,7 @@
         <v>263</v>
       </c>
       <c r="P230" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q230">
         <v>2.63</v>
@@ -49200,7 +49206,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ231">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AR231">
         <v>1.47</v>
@@ -49531,7 +49537,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49737,7 +49743,7 @@
         <v>266</v>
       </c>
       <c r="P234" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q234">
         <v>5.5</v>
@@ -50767,7 +50773,7 @@
         <v>88</v>
       </c>
       <c r="P239" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q239">
         <v>2.88</v>
@@ -50973,7 +50979,7 @@
         <v>88</v>
       </c>
       <c r="P240" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q240">
         <v>3.2</v>
@@ -51179,7 +51185,7 @@
         <v>88</v>
       </c>
       <c r="P241" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q241">
         <v>1.83</v>
@@ -51591,7 +51597,7 @@
         <v>269</v>
       </c>
       <c r="P243" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q243">
         <v>1.67</v>
@@ -51797,7 +51803,7 @@
         <v>270</v>
       </c>
       <c r="P244" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q244">
         <v>2.25</v>
@@ -52209,7 +52215,7 @@
         <v>272</v>
       </c>
       <c r="P246" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q246">
         <v>6</v>
@@ -52496,7 +52502,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ247">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AR247">
         <v>1.42</v>
@@ -52827,7 +52833,7 @@
         <v>129</v>
       </c>
       <c r="P249" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q249">
         <v>4.5</v>
@@ -53111,7 +53117,7 @@
         <v>2.69</v>
       </c>
       <c r="AP250">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ250">
         <v>2.6</v>
@@ -53651,7 +53657,7 @@
         <v>248</v>
       </c>
       <c r="P253" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q253">
         <v>2.4</v>
@@ -54681,7 +54687,7 @@
         <v>280</v>
       </c>
       <c r="P258" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q258">
         <v>3.5</v>
@@ -55917,7 +55923,7 @@
         <v>285</v>
       </c>
       <c r="P264" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q264">
         <v>2.5</v>
@@ -56204,7 +56210,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ265">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AR265">
         <v>1.4</v>
@@ -56329,7 +56335,7 @@
         <v>117</v>
       </c>
       <c r="P266" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q266">
         <v>5.5</v>
@@ -56535,7 +56541,7 @@
         <v>88</v>
       </c>
       <c r="P267" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -56741,7 +56747,7 @@
         <v>281</v>
       </c>
       <c r="P268" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -56819,7 +56825,7 @@
         <v>1.86</v>
       </c>
       <c r="AP268">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ268">
         <v>1.81</v>
@@ -56947,7 +56953,7 @@
         <v>286</v>
       </c>
       <c r="P269" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q269">
         <v>4.75</v>
@@ -57153,7 +57159,7 @@
         <v>287</v>
       </c>
       <c r="P270" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q270">
         <v>2.88</v>
@@ -57565,7 +57571,7 @@
         <v>289</v>
       </c>
       <c r="P272" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q272">
         <v>2.75</v>
@@ -57977,7 +57983,7 @@
         <v>291</v>
       </c>
       <c r="P274" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q274">
         <v>2.2</v>
@@ -58183,7 +58189,7 @@
         <v>143</v>
       </c>
       <c r="P275" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q275">
         <v>2.88</v>
@@ -58389,7 +58395,7 @@
         <v>88</v>
       </c>
       <c r="P276" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q276">
         <v>2.3</v>
@@ -58595,7 +58601,7 @@
         <v>292</v>
       </c>
       <c r="P277" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q277">
         <v>2.2</v>
@@ -59419,7 +59425,7 @@
         <v>281</v>
       </c>
       <c r="P281" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q281">
         <v>5</v>
@@ -59625,7 +59631,7 @@
         <v>293</v>
       </c>
       <c r="P282" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q282">
         <v>2.6</v>
@@ -59718,22 +59724,22 @@
         <v>3.79</v>
       </c>
       <c r="AU282">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV282">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW282">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX282">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY282">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ282">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA282">
         <v>3</v>
@@ -59924,10 +59930,10 @@
         <v>2.47</v>
       </c>
       <c r="AU283">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW283">
         <v>7</v>
@@ -59936,10 +59942,10 @@
         <v>4</v>
       </c>
       <c r="AY283">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ283">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA283">
         <v>9</v>
@@ -60130,22 +60136,22 @@
         <v>3.08</v>
       </c>
       <c r="AU284">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AV284">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW284">
         <v>7</v>
       </c>
       <c r="AX284">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY284">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AZ284">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA284">
         <v>6</v>
@@ -60243,7 +60249,7 @@
         <v>296</v>
       </c>
       <c r="P285" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q285">
         <v>2.88</v>
@@ -60336,22 +60342,22 @@
         <v>2.54</v>
       </c>
       <c r="AU285">
+        <v>5</v>
+      </c>
+      <c r="AV285">
+        <v>6</v>
+      </c>
+      <c r="AW285">
+        <v>8</v>
+      </c>
+      <c r="AX285">
         <v>7</v>
       </c>
-      <c r="AV285">
-        <v>7</v>
-      </c>
-      <c r="AW285">
-        <v>9</v>
-      </c>
-      <c r="AX285">
-        <v>8</v>
-      </c>
       <c r="AY285">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ285">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA285">
         <v>7</v>
@@ -60606,6 +60612,212 @@
       </c>
       <c r="BP286">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>6683914</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45417.4375</v>
+      </c>
+      <c r="F287">
+        <v>32</v>
+      </c>
+      <c r="G287" t="s">
+        <v>77</v>
+      </c>
+      <c r="H287" t="s">
+        <v>84</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>3</v>
+      </c>
+      <c r="K287">
+        <v>3</v>
+      </c>
+      <c r="L287">
+        <v>3</v>
+      </c>
+      <c r="M287">
+        <v>4</v>
+      </c>
+      <c r="N287">
+        <v>7</v>
+      </c>
+      <c r="O287" t="s">
+        <v>297</v>
+      </c>
+      <c r="P287" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q287">
+        <v>2.6</v>
+      </c>
+      <c r="R287">
+        <v>2.1</v>
+      </c>
+      <c r="S287">
+        <v>4.5</v>
+      </c>
+      <c r="T287">
+        <v>1.44</v>
+      </c>
+      <c r="U287">
+        <v>2.63</v>
+      </c>
+      <c r="V287">
+        <v>3</v>
+      </c>
+      <c r="W287">
+        <v>1.36</v>
+      </c>
+      <c r="X287">
+        <v>9</v>
+      </c>
+      <c r="Y287">
+        <v>1.07</v>
+      </c>
+      <c r="Z287">
+        <v>1.96</v>
+      </c>
+      <c r="AA287">
+        <v>3.5</v>
+      </c>
+      <c r="AB287">
+        <v>4.01</v>
+      </c>
+      <c r="AC287">
+        <v>1.08</v>
+      </c>
+      <c r="AD287">
+        <v>11.5</v>
+      </c>
+      <c r="AE287">
+        <v>1.33</v>
+      </c>
+      <c r="AF287">
+        <v>3.3</v>
+      </c>
+      <c r="AG287">
+        <v>1.98</v>
+      </c>
+      <c r="AH287">
+        <v>1.77</v>
+      </c>
+      <c r="AI287">
+        <v>1.91</v>
+      </c>
+      <c r="AJ287">
+        <v>1.91</v>
+      </c>
+      <c r="AK287">
+        <v>1.26</v>
+      </c>
+      <c r="AL287">
+        <v>1.26</v>
+      </c>
+      <c r="AM287">
+        <v>1.88</v>
+      </c>
+      <c r="AN287">
+        <v>1.33</v>
+      </c>
+      <c r="AO287">
+        <v>0.47</v>
+      </c>
+      <c r="AP287">
+        <v>1.25</v>
+      </c>
+      <c r="AQ287">
+        <v>0.63</v>
+      </c>
+      <c r="AR287">
+        <v>1.35</v>
+      </c>
+      <c r="AS287">
+        <v>1.2</v>
+      </c>
+      <c r="AT287">
+        <v>2.55</v>
+      </c>
+      <c r="AU287">
+        <v>3</v>
+      </c>
+      <c r="AV287">
+        <v>2</v>
+      </c>
+      <c r="AW287">
+        <v>3</v>
+      </c>
+      <c r="AX287">
+        <v>5</v>
+      </c>
+      <c r="AY287">
+        <v>6</v>
+      </c>
+      <c r="AZ287">
+        <v>7</v>
+      </c>
+      <c r="BA287">
+        <v>5</v>
+      </c>
+      <c r="BB287">
+        <v>3</v>
+      </c>
+      <c r="BC287">
+        <v>8</v>
+      </c>
+      <c r="BD287">
+        <v>1.6</v>
+      </c>
+      <c r="BE287">
+        <v>8</v>
+      </c>
+      <c r="BF287">
+        <v>2.75</v>
+      </c>
+      <c r="BG287">
+        <v>1.27</v>
+      </c>
+      <c r="BH287">
+        <v>3.15</v>
+      </c>
+      <c r="BI287">
+        <v>1.5</v>
+      </c>
+      <c r="BJ287">
+        <v>2.3</v>
+      </c>
+      <c r="BK287">
+        <v>1.87</v>
+      </c>
+      <c r="BL287">
+        <v>1.82</v>
+      </c>
+      <c r="BM287">
+        <v>2.35</v>
+      </c>
+      <c r="BN287">
+        <v>1.49</v>
+      </c>
+      <c r="BO287">
+        <v>3.1</v>
+      </c>
+      <c r="BP287">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
@@ -61172,22 +61172,22 @@
         <v>2.63</v>
       </c>
       <c r="AU289">
+        <v>6</v>
+      </c>
+      <c r="AV289">
         <v>5</v>
       </c>
-      <c r="AV289">
-        <v>4</v>
-      </c>
       <c r="AW289">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX289">
         <v>3</v>
       </c>
       <c r="AY289">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ289">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA289">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="441">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1698,7 +1698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ6">
         <v>0.8100000000000001</v>
@@ -3892,7 +3892,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -6361,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ23">
         <v>0.63</v>
@@ -8424,7 +8424,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR33">
         <v>1.54</v>
@@ -10275,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ42">
         <v>0.5600000000000001</v>
@@ -11926,7 +11926,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ50">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR50">
         <v>1.75</v>
@@ -13365,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ57">
         <v>0.6899999999999999</v>
@@ -15222,7 +15222,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ66">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR66">
         <v>1.32</v>
@@ -17897,7 +17897,7 @@
         <v>0.75</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ79">
         <v>0.9399999999999999</v>
@@ -20372,7 +20372,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ91">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR91">
         <v>1.64</v>
@@ -20987,7 +20987,7 @@
         <v>3</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ94">
         <v>1.25</v>
@@ -23668,7 +23668,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ107">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR107">
         <v>1.37</v>
@@ -25725,7 +25725,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ117">
         <v>1.06</v>
@@ -28403,7 +28403,7 @@
         <v>1.5</v>
       </c>
       <c r="AP130">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ130">
         <v>1.88</v>
@@ -29436,7 +29436,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ135">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR135">
         <v>2.33</v>
@@ -31905,7 +31905,7 @@
         <v>2.43</v>
       </c>
       <c r="AP147">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ147">
         <v>2.63</v>
@@ -33144,7 +33144,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ153">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR153">
         <v>1.35</v>
@@ -33762,7 +33762,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ156">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR156">
         <v>1.93</v>
@@ -35819,7 +35819,7 @@
         <v>2.38</v>
       </c>
       <c r="AP166">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ166">
         <v>1.81</v>
@@ -37676,7 +37676,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ175">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR175">
         <v>1.65</v>
@@ -39733,7 +39733,7 @@
         <v>1.44</v>
       </c>
       <c r="AP185">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ185">
         <v>1.69</v>
@@ -41384,7 +41384,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ193">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR193">
         <v>1.34</v>
@@ -44471,7 +44471,7 @@
         <v>0.91</v>
       </c>
       <c r="AP208">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ208">
         <v>1.25</v>
@@ -45916,7 +45916,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ215">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR215">
         <v>1.4</v>
@@ -46737,7 +46737,7 @@
         <v>0.83</v>
       </c>
       <c r="AP219">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ219">
         <v>0.9399999999999999</v>
@@ -49624,7 +49624,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ233">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR233">
         <v>1.54</v>
@@ -51475,7 +51475,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP242">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ242">
         <v>0.6899999999999999</v>
@@ -53332,7 +53332,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ251">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR251">
         <v>1.83</v>
@@ -53947,7 +53947,7 @@
         <v>0.64</v>
       </c>
       <c r="AP254">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ254">
         <v>0.63</v>
@@ -57040,7 +57040,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ269">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR269">
         <v>1.26</v>
@@ -58479,7 +58479,7 @@
         <v>0.87</v>
       </c>
       <c r="AP276">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ276">
         <v>1</v>
@@ -58688,7 +58688,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ277">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR277">
         <v>2.24</v>
@@ -61236,6 +61236,212 @@
       </c>
       <c r="BP289">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>6683929</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45422.64583333334</v>
+      </c>
+      <c r="F290">
+        <v>33</v>
+      </c>
+      <c r="G290" t="s">
+        <v>74</v>
+      </c>
+      <c r="H290" t="s">
+        <v>75</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+      <c r="M290">
+        <v>1</v>
+      </c>
+      <c r="N290">
+        <v>1</v>
+      </c>
+      <c r="O290" t="s">
+        <v>88</v>
+      </c>
+      <c r="P290" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q290">
+        <v>3.75</v>
+      </c>
+      <c r="R290">
+        <v>2.5</v>
+      </c>
+      <c r="S290">
+        <v>2.38</v>
+      </c>
+      <c r="T290">
+        <v>1.22</v>
+      </c>
+      <c r="U290">
+        <v>4</v>
+      </c>
+      <c r="V290">
+        <v>2.1</v>
+      </c>
+      <c r="W290">
+        <v>1.67</v>
+      </c>
+      <c r="X290">
+        <v>4.5</v>
+      </c>
+      <c r="Y290">
+        <v>1.18</v>
+      </c>
+      <c r="Z290">
+        <v>3.7</v>
+      </c>
+      <c r="AA290">
+        <v>4</v>
+      </c>
+      <c r="AB290">
+        <v>1.85</v>
+      </c>
+      <c r="AC290">
+        <v>1.02</v>
+      </c>
+      <c r="AD290">
+        <v>27</v>
+      </c>
+      <c r="AE290">
+        <v>1.12</v>
+      </c>
+      <c r="AF290">
+        <v>5.75</v>
+      </c>
+      <c r="AG290">
+        <v>1.42</v>
+      </c>
+      <c r="AH290">
+        <v>2.61</v>
+      </c>
+      <c r="AI290">
+        <v>1.44</v>
+      </c>
+      <c r="AJ290">
+        <v>2.63</v>
+      </c>
+      <c r="AK290">
+        <v>1.95</v>
+      </c>
+      <c r="AL290">
+        <v>1.25</v>
+      </c>
+      <c r="AM290">
+        <v>1.28</v>
+      </c>
+      <c r="AN290">
+        <v>1.5</v>
+      </c>
+      <c r="AO290">
+        <v>1.75</v>
+      </c>
+      <c r="AP290">
+        <v>1.41</v>
+      </c>
+      <c r="AQ290">
+        <v>1.82</v>
+      </c>
+      <c r="AR290">
+        <v>1.39</v>
+      </c>
+      <c r="AS290">
+        <v>1.46</v>
+      </c>
+      <c r="AT290">
+        <v>2.85</v>
+      </c>
+      <c r="AU290">
+        <v>2</v>
+      </c>
+      <c r="AV290">
+        <v>8</v>
+      </c>
+      <c r="AW290">
+        <v>5</v>
+      </c>
+      <c r="AX290">
+        <v>6</v>
+      </c>
+      <c r="AY290">
+        <v>7</v>
+      </c>
+      <c r="AZ290">
+        <v>14</v>
+      </c>
+      <c r="BA290">
+        <v>5</v>
+      </c>
+      <c r="BB290">
+        <v>5</v>
+      </c>
+      <c r="BC290">
+        <v>10</v>
+      </c>
+      <c r="BD290">
+        <v>2.25</v>
+      </c>
+      <c r="BE290">
+        <v>7.5</v>
+      </c>
+      <c r="BF290">
+        <v>1.85</v>
+      </c>
+      <c r="BG290">
+        <v>1.41</v>
+      </c>
+      <c r="BH290">
+        <v>2.55</v>
+      </c>
+      <c r="BI290">
+        <v>1.73</v>
+      </c>
+      <c r="BJ290">
+        <v>1.96</v>
+      </c>
+      <c r="BK290">
+        <v>2.2</v>
+      </c>
+      <c r="BL290">
+        <v>1.57</v>
+      </c>
+      <c r="BM290">
+        <v>2.9</v>
+      </c>
+      <c r="BN290">
+        <v>1.32</v>
+      </c>
+      <c r="BO290">
+        <v>4</v>
+      </c>
+      <c r="BP290">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="444">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -913,6 +913,12 @@
     <t>['65']</t>
   </si>
   <si>
+    <t>['45', '87', '90+2']</t>
+  </si>
+  <si>
+    <t>['12', '19', '23']</t>
+  </si>
+  <si>
     <t>['4', '74', '90', '90+4']</t>
   </si>
   <si>
@@ -1338,6 +1344,9 @@
   <si>
     <t>['12', '44', '58', '77', '89']</t>
   </si>
+  <si>
+    <t>['15', '19']</t>
+  </si>
 </sst>
 </file>
 
@@ -1698,7 +1707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP290"/>
+  <dimension ref="A1:BP295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1957,7 +1966,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -2163,7 +2172,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2575,7 +2584,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q5">
         <v>2.88</v>
@@ -2781,7 +2790,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -3889,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ11">
         <v>1.82</v>
@@ -4017,7 +4026,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -4098,7 +4107,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ12">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4301,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -4429,7 +4438,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q14">
         <v>3.4</v>
@@ -4635,7 +4644,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4713,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ15">
         <v>0.9399999999999999</v>
@@ -4841,7 +4850,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4922,7 +4931,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ16">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5047,7 +5056,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -5125,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ17">
         <v>2.63</v>
@@ -5253,7 +5262,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5331,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ18">
         <v>1.06</v>
@@ -5665,7 +5674,7 @@
         <v>105</v>
       </c>
       <c r="P20" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q20">
         <v>1.62</v>
@@ -6283,7 +6292,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q23">
         <v>2.5</v>
@@ -6901,7 +6910,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6979,7 +6988,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ26">
         <v>1.81</v>
@@ -7313,7 +7322,7 @@
         <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7519,7 +7528,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -7803,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ30">
         <v>0.9399999999999999</v>
@@ -7931,7 +7940,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -8009,10 +8018,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ31">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR31">
         <v>1.87</v>
@@ -8137,7 +8146,7 @@
         <v>116</v>
       </c>
       <c r="P32" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -8218,7 +8227,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ32">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR32">
         <v>1.89</v>
@@ -8343,7 +8352,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8421,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ33">
         <v>1.82</v>
@@ -8549,7 +8558,7 @@
         <v>118</v>
       </c>
       <c r="P34" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8627,7 +8636,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ34">
         <v>1.25</v>
@@ -8961,7 +8970,7 @@
         <v>120</v>
       </c>
       <c r="P36" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -9167,7 +9176,7 @@
         <v>121</v>
       </c>
       <c r="P37" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9373,7 +9382,7 @@
         <v>122</v>
       </c>
       <c r="P38" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q38">
         <v>1.91</v>
@@ -9991,7 +10000,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -10481,7 +10490,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ43">
         <v>1.69</v>
@@ -10609,7 +10618,7 @@
         <v>126</v>
       </c>
       <c r="P44" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10815,7 +10824,7 @@
         <v>127</v>
       </c>
       <c r="P45" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -11227,7 +11236,7 @@
         <v>103</v>
       </c>
       <c r="P47" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q47">
         <v>3.25</v>
@@ -11308,7 +11317,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ47">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR47">
         <v>1.47</v>
@@ -11639,7 +11648,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11717,7 +11726,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ49">
         <v>2.63</v>
@@ -11845,7 +11854,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q50">
         <v>3.25</v>
@@ -11923,7 +11932,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ50">
         <v>1.82</v>
@@ -12051,7 +12060,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q51">
         <v>2.88</v>
@@ -12338,7 +12347,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ52">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR52">
         <v>1.86</v>
@@ -12463,7 +12472,7 @@
         <v>130</v>
       </c>
       <c r="P53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12541,7 +12550,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ53">
         <v>1.81</v>
@@ -12669,7 +12678,7 @@
         <v>131</v>
       </c>
       <c r="P54" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q54">
         <v>3.25</v>
@@ -12953,7 +12962,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ55">
         <v>0.9399999999999999</v>
@@ -13081,7 +13090,7 @@
         <v>133</v>
       </c>
       <c r="P56" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13159,7 +13168,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ56">
         <v>0.5600000000000001</v>
@@ -13287,7 +13296,7 @@
         <v>134</v>
       </c>
       <c r="P57" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13493,7 +13502,7 @@
         <v>135</v>
       </c>
       <c r="P58" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13699,7 +13708,7 @@
         <v>136</v>
       </c>
       <c r="P59" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13780,7 +13789,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ59">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR59">
         <v>1.74</v>
@@ -13983,7 +13992,7 @@
         <v>0.33</v>
       </c>
       <c r="AP60">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ60">
         <v>0.63</v>
@@ -14111,7 +14120,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -15141,7 +15150,7 @@
         <v>88</v>
       </c>
       <c r="P66" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15347,7 +15356,7 @@
         <v>142</v>
       </c>
       <c r="P67" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15425,7 +15434,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ67">
         <v>0.63</v>
@@ -15553,7 +15562,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15759,7 +15768,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q69">
         <v>2.63</v>
@@ -15965,7 +15974,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -16171,7 +16180,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q71">
         <v>6.5</v>
@@ -16249,7 +16258,7 @@
         <v>2.33</v>
       </c>
       <c r="AP71">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ71">
         <v>1.81</v>
@@ -16455,7 +16464,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ72">
         <v>0.8100000000000001</v>
@@ -16583,7 +16592,7 @@
         <v>148</v>
       </c>
       <c r="P73" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16789,7 +16798,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16995,7 +17004,7 @@
         <v>150</v>
       </c>
       <c r="P75" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -17201,7 +17210,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -17279,7 +17288,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ76">
         <v>0.9399999999999999</v>
@@ -17488,7 +17497,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ77">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR77">
         <v>1.3</v>
@@ -17819,7 +17828,7 @@
         <v>154</v>
       </c>
       <c r="P79" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -18103,7 +18112,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ80">
         <v>0.6899999999999999</v>
@@ -18231,7 +18240,7 @@
         <v>156</v>
       </c>
       <c r="P81" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -18312,7 +18321,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ81">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -18643,7 +18652,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18849,7 +18858,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -19055,7 +19064,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -19133,7 +19142,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ85">
         <v>0.8100000000000001</v>
@@ -19339,7 +19348,7 @@
         <v>2.25</v>
       </c>
       <c r="AP86">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ86">
         <v>1.69</v>
@@ -19545,7 +19554,7 @@
         <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ87">
         <v>0.9399999999999999</v>
@@ -19673,7 +19682,7 @@
         <v>161</v>
       </c>
       <c r="P88" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19879,7 +19888,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -20085,7 +20094,7 @@
         <v>162</v>
       </c>
       <c r="P90" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -20575,7 +20584,7 @@
         <v>0.6</v>
       </c>
       <c r="AP92">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ92">
         <v>0.9399999999999999</v>
@@ -21196,7 +21205,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ95">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR95">
         <v>2.05</v>
@@ -21321,7 +21330,7 @@
         <v>167</v>
       </c>
       <c r="P96" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q96">
         <v>1.3</v>
@@ -21527,7 +21536,7 @@
         <v>103</v>
       </c>
       <c r="P97" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -21814,7 +21823,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ98">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR98">
         <v>2.19</v>
@@ -21939,7 +21948,7 @@
         <v>169</v>
       </c>
       <c r="P99" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -22145,7 +22154,7 @@
         <v>170</v>
       </c>
       <c r="P100" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q100">
         <v>1.91</v>
@@ -22223,7 +22232,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ100">
         <v>1.25</v>
@@ -22351,7 +22360,7 @@
         <v>88</v>
       </c>
       <c r="P101" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q101">
         <v>7.5</v>
@@ -22429,7 +22438,7 @@
         <v>2.6</v>
       </c>
       <c r="AP101">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ101">
         <v>1.81</v>
@@ -22557,7 +22566,7 @@
         <v>94</v>
       </c>
       <c r="P102" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22841,7 +22850,7 @@
         <v>0.6</v>
       </c>
       <c r="AP103">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ103">
         <v>0.6899999999999999</v>
@@ -22969,7 +22978,7 @@
         <v>172</v>
       </c>
       <c r="P104" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -23175,7 +23184,7 @@
         <v>88</v>
       </c>
       <c r="P105" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q105">
         <v>5.5</v>
@@ -23381,7 +23390,7 @@
         <v>173</v>
       </c>
       <c r="P106" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q106">
         <v>1.91</v>
@@ -23587,7 +23596,7 @@
         <v>174</v>
       </c>
       <c r="P107" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q107">
         <v>3.1</v>
@@ -23999,7 +24008,7 @@
         <v>175</v>
       </c>
       <c r="P109" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q109">
         <v>2.5</v>
@@ -24205,7 +24214,7 @@
         <v>88</v>
       </c>
       <c r="P110" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q110">
         <v>3.25</v>
@@ -24695,7 +24704,7 @@
         <v>0.17</v>
       </c>
       <c r="AP112">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ112">
         <v>0.9399999999999999</v>
@@ -24823,7 +24832,7 @@
         <v>178</v>
       </c>
       <c r="P113" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24901,7 +24910,7 @@
         <v>2.67</v>
       </c>
       <c r="AP113">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ113">
         <v>1.25</v>
@@ -25313,7 +25322,7 @@
         <v>0.67</v>
       </c>
       <c r="AP115">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ115">
         <v>1.25</v>
@@ -25441,7 +25450,7 @@
         <v>180</v>
       </c>
       <c r="P116" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q116">
         <v>2.1</v>
@@ -25522,7 +25531,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ116">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR116">
         <v>2.17</v>
@@ -25647,7 +25656,7 @@
         <v>181</v>
       </c>
       <c r="P117" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q117">
         <v>3.2</v>
@@ -26265,7 +26274,7 @@
         <v>184</v>
       </c>
       <c r="P120" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q120">
         <v>6.5</v>
@@ -26883,7 +26892,7 @@
         <v>186</v>
       </c>
       <c r="P123" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -27089,7 +27098,7 @@
         <v>187</v>
       </c>
       <c r="P124" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q124">
         <v>2.88</v>
@@ -27295,7 +27304,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q125">
         <v>3.25</v>
@@ -27579,7 +27588,7 @@
         <v>0.57</v>
       </c>
       <c r="AP126">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ126">
         <v>0.5600000000000001</v>
@@ -27707,7 +27716,7 @@
         <v>188</v>
       </c>
       <c r="P127" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27785,7 +27794,7 @@
         <v>0.17</v>
       </c>
       <c r="AP127">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27994,7 +28003,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ128">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR128">
         <v>1.96</v>
@@ -28406,7 +28415,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ130">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR130">
         <v>1.34</v>
@@ -28609,7 +28618,7 @@
         <v>0.14</v>
       </c>
       <c r="AP131">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ131">
         <v>0.9399999999999999</v>
@@ -28737,7 +28746,7 @@
         <v>191</v>
       </c>
       <c r="P132" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q132">
         <v>1.91</v>
@@ -28815,7 +28824,7 @@
         <v>2.29</v>
       </c>
       <c r="AP132">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ132">
         <v>1.25</v>
@@ -29021,7 +29030,7 @@
         <v>0.71</v>
       </c>
       <c r="AP133">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ133">
         <v>0.6899999999999999</v>
@@ -29561,7 +29570,7 @@
         <v>195</v>
       </c>
       <c r="P136" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q136">
         <v>4.5</v>
@@ -29973,7 +29982,7 @@
         <v>197</v>
       </c>
       <c r="P138" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -30385,7 +30394,7 @@
         <v>199</v>
       </c>
       <c r="P140" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -30797,7 +30806,7 @@
         <v>201</v>
       </c>
       <c r="P142" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -31003,7 +31012,7 @@
         <v>202</v>
       </c>
       <c r="P143" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31699,10 +31708,10 @@
         <v>0.43</v>
       </c>
       <c r="AP146">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ146">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR146">
         <v>1.61</v>
@@ -32111,7 +32120,7 @@
         <v>0.75</v>
       </c>
       <c r="AP148">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ148">
         <v>0.9399999999999999</v>
@@ -32317,7 +32326,7 @@
         <v>1.13</v>
       </c>
       <c r="AP149">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ149">
         <v>1.06</v>
@@ -32523,7 +32532,7 @@
         <v>0.5</v>
       </c>
       <c r="AP150">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ150">
         <v>0.9399999999999999</v>
@@ -32651,7 +32660,7 @@
         <v>88</v>
       </c>
       <c r="P151" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32732,7 +32741,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ151">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR151">
         <v>1.44</v>
@@ -32857,7 +32866,7 @@
         <v>205</v>
       </c>
       <c r="P152" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -33141,7 +33150,7 @@
         <v>1.71</v>
       </c>
       <c r="AP153">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ153">
         <v>1.82</v>
@@ -33269,7 +33278,7 @@
         <v>207</v>
       </c>
       <c r="P154" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q154">
         <v>4.33</v>
@@ -33887,7 +33896,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q157">
         <v>4.5</v>
@@ -33965,10 +33974,10 @@
         <v>1.63</v>
       </c>
       <c r="AP157">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ157">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR157">
         <v>1.61</v>
@@ -34093,7 +34102,7 @@
         <v>209</v>
       </c>
       <c r="P158" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q158">
         <v>2.6</v>
@@ -34171,7 +34180,7 @@
         <v>1.78</v>
       </c>
       <c r="AP158">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ158">
         <v>1.25</v>
@@ -34299,7 +34308,7 @@
         <v>210</v>
       </c>
       <c r="P159" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34377,7 +34386,7 @@
         <v>2.5</v>
       </c>
       <c r="AP159">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ159">
         <v>2.63</v>
@@ -34711,7 +34720,7 @@
         <v>174</v>
       </c>
       <c r="P161" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -34789,7 +34798,7 @@
         <v>0.63</v>
       </c>
       <c r="AP161">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ161">
         <v>0.9399999999999999</v>
@@ -34998,7 +35007,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ162">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR162">
         <v>2.35</v>
@@ -35329,7 +35338,7 @@
         <v>213</v>
       </c>
       <c r="P164" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q164">
         <v>3.1</v>
@@ -35535,7 +35544,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q165">
         <v>2.4</v>
@@ -35741,7 +35750,7 @@
         <v>214</v>
       </c>
       <c r="P166" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q166">
         <v>7.5</v>
@@ -35947,7 +35956,7 @@
         <v>215</v>
       </c>
       <c r="P167" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q167">
         <v>3.1</v>
@@ -36771,7 +36780,7 @@
         <v>218</v>
       </c>
       <c r="P171" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q171">
         <v>1.8</v>
@@ -37058,7 +37067,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ172">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR172">
         <v>1.52</v>
@@ -37183,7 +37192,7 @@
         <v>88</v>
       </c>
       <c r="P173" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q173">
         <v>7.5</v>
@@ -37595,7 +37604,7 @@
         <v>220</v>
       </c>
       <c r="P175" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q175">
         <v>3.5</v>
@@ -37673,7 +37682,7 @@
         <v>1.33</v>
       </c>
       <c r="AP175">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ175">
         <v>1.82</v>
@@ -37801,7 +37810,7 @@
         <v>88</v>
       </c>
       <c r="P176" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37879,7 +37888,7 @@
         <v>0.67</v>
       </c>
       <c r="AP176">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ176">
         <v>1</v>
@@ -38007,7 +38016,7 @@
         <v>221</v>
       </c>
       <c r="P177" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -38291,7 +38300,7 @@
         <v>1.3</v>
       </c>
       <c r="AP178">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ178">
         <v>1.06</v>
@@ -38419,7 +38428,7 @@
         <v>223</v>
       </c>
       <c r="P179" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q179">
         <v>2.63</v>
@@ -38703,10 +38712,10 @@
         <v>0.44</v>
       </c>
       <c r="AP180">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ180">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR180">
         <v>1.88</v>
@@ -38831,7 +38840,7 @@
         <v>225</v>
       </c>
       <c r="P181" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q181">
         <v>2.88</v>
@@ -38909,10 +38918,10 @@
         <v>0.4</v>
       </c>
       <c r="AP181">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ181">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR181">
         <v>1.43</v>
@@ -39243,7 +39252,7 @@
         <v>227</v>
       </c>
       <c r="P183" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q183">
         <v>2.4</v>
@@ -39527,7 +39536,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP184">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ184">
         <v>0.6899999999999999</v>
@@ -39655,7 +39664,7 @@
         <v>228</v>
       </c>
       <c r="P185" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q185">
         <v>4.33</v>
@@ -40067,7 +40076,7 @@
         <v>230</v>
       </c>
       <c r="P187" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q187">
         <v>2.3</v>
@@ -40479,7 +40488,7 @@
         <v>232</v>
       </c>
       <c r="P189" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q189">
         <v>1.95</v>
@@ -40969,7 +40978,7 @@
         <v>0.9</v>
       </c>
       <c r="AP191">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ191">
         <v>1</v>
@@ -41097,7 +41106,7 @@
         <v>88</v>
       </c>
       <c r="P192" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q192">
         <v>2.6</v>
@@ -41178,7 +41187,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ192">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR192">
         <v>1.54</v>
@@ -41590,7 +41599,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ194">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR194">
         <v>1.41</v>
@@ -41793,7 +41802,7 @@
         <v>0.9</v>
       </c>
       <c r="AP195">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ195">
         <v>0.9399999999999999</v>
@@ -41921,7 +41930,7 @@
         <v>134</v>
       </c>
       <c r="P196" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q196">
         <v>7</v>
@@ -42205,7 +42214,7 @@
         <v>0.7</v>
       </c>
       <c r="AP197">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ197">
         <v>0.8100000000000001</v>
@@ -42333,7 +42342,7 @@
         <v>237</v>
       </c>
       <c r="P198" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -42411,7 +42420,7 @@
         <v>1.18</v>
       </c>
       <c r="AP198">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ198">
         <v>1.06</v>
@@ -42539,7 +42548,7 @@
         <v>238</v>
       </c>
       <c r="P199" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q199">
         <v>6.5</v>
@@ -42951,7 +42960,7 @@
         <v>240</v>
       </c>
       <c r="P201" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -43157,7 +43166,7 @@
         <v>241</v>
       </c>
       <c r="P202" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q202">
         <v>2.5</v>
@@ -43235,7 +43244,7 @@
         <v>0.64</v>
       </c>
       <c r="AP202">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ202">
         <v>0.63</v>
@@ -43981,7 +43990,7 @@
         <v>244</v>
       </c>
       <c r="P206" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q206">
         <v>2.88</v>
@@ -44187,7 +44196,7 @@
         <v>245</v>
       </c>
       <c r="P207" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q207">
         <v>1.95</v>
@@ -44599,7 +44608,7 @@
         <v>247</v>
       </c>
       <c r="P209" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q209">
         <v>5.5</v>
@@ -44677,7 +44686,7 @@
         <v>2</v>
       </c>
       <c r="AP209">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ209">
         <v>1.81</v>
@@ -44805,7 +44814,7 @@
         <v>129</v>
       </c>
       <c r="P210" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q210">
         <v>3.4</v>
@@ -45011,7 +45020,7 @@
         <v>88</v>
       </c>
       <c r="P211" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q211">
         <v>3.4</v>
@@ -45217,7 +45226,7 @@
         <v>248</v>
       </c>
       <c r="P212" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q212">
         <v>4.75</v>
@@ -45501,7 +45510,7 @@
         <v>0.64</v>
       </c>
       <c r="AP213">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ213">
         <v>0.8100000000000001</v>
@@ -45629,7 +45638,7 @@
         <v>88</v>
       </c>
       <c r="P214" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45710,7 +45719,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ214">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR214">
         <v>1.41</v>
@@ -45835,7 +45844,7 @@
         <v>250</v>
       </c>
       <c r="P215" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q215">
         <v>3.6</v>
@@ -46041,7 +46050,7 @@
         <v>88</v>
       </c>
       <c r="P216" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -46119,7 +46128,7 @@
         <v>2.64</v>
       </c>
       <c r="AP216">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ216">
         <v>2.63</v>
@@ -46247,7 +46256,7 @@
         <v>251</v>
       </c>
       <c r="P217" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q217">
         <v>2.5</v>
@@ -46534,7 +46543,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ218">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR218">
         <v>1.97</v>
@@ -46865,7 +46874,7 @@
         <v>254</v>
       </c>
       <c r="P220" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q220">
         <v>1.67</v>
@@ -47149,7 +47158,7 @@
         <v>0.64</v>
       </c>
       <c r="AP221">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ221">
         <v>0.6899999999999999</v>
@@ -47277,7 +47286,7 @@
         <v>256</v>
       </c>
       <c r="P222" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47355,7 +47364,7 @@
         <v>0.67</v>
       </c>
       <c r="AP222">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ222">
         <v>0.6899999999999999</v>
@@ -47483,7 +47492,7 @@
         <v>257</v>
       </c>
       <c r="P223" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q223">
         <v>3.75</v>
@@ -47564,7 +47573,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ223">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR223">
         <v>1.28</v>
@@ -47689,7 +47698,7 @@
         <v>217</v>
       </c>
       <c r="P224" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q224">
         <v>2.88</v>
@@ -48307,7 +48316,7 @@
         <v>260</v>
       </c>
       <c r="P227" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q227">
         <v>5.5</v>
@@ -48385,7 +48394,7 @@
         <v>1.42</v>
       </c>
       <c r="AP227">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ227">
         <v>1.69</v>
@@ -48719,7 +48728,7 @@
         <v>262</v>
       </c>
       <c r="P229" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q229">
         <v>10</v>
@@ -48925,7 +48934,7 @@
         <v>263</v>
       </c>
       <c r="P230" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q230">
         <v>2.63</v>
@@ -49209,7 +49218,7 @@
         <v>0.58</v>
       </c>
       <c r="AP231">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ231">
         <v>0.63</v>
@@ -49543,7 +49552,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49749,7 +49758,7 @@
         <v>266</v>
       </c>
       <c r="P234" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q234">
         <v>5.5</v>
@@ -49827,7 +49836,7 @@
         <v>2.67</v>
       </c>
       <c r="AP234">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ234">
         <v>2.63</v>
@@ -50239,7 +50248,7 @@
         <v>0.46</v>
       </c>
       <c r="AP236">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ236">
         <v>0.5600000000000001</v>
@@ -50654,7 +50663,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ238">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR238">
         <v>1.37</v>
@@ -50779,7 +50788,7 @@
         <v>88</v>
       </c>
       <c r="P239" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q239">
         <v>2.88</v>
@@ -50857,7 +50866,7 @@
         <v>1</v>
       </c>
       <c r="AP239">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ239">
         <v>1.25</v>
@@ -50985,7 +50994,7 @@
         <v>88</v>
       </c>
       <c r="P240" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q240">
         <v>3.2</v>
@@ -51191,7 +51200,7 @@
         <v>88</v>
       </c>
       <c r="P241" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q241">
         <v>1.83</v>
@@ -51272,7 +51281,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ241">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR241">
         <v>2.25</v>
@@ -51603,7 +51612,7 @@
         <v>269</v>
       </c>
       <c r="P243" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q243">
         <v>1.67</v>
@@ -51809,7 +51818,7 @@
         <v>270</v>
       </c>
       <c r="P244" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q244">
         <v>2.25</v>
@@ -52221,7 +52230,7 @@
         <v>272</v>
       </c>
       <c r="P246" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q246">
         <v>6</v>
@@ -52505,7 +52514,7 @@
         <v>0.54</v>
       </c>
       <c r="AP247">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ247">
         <v>0.63</v>
@@ -52711,7 +52720,7 @@
         <v>0.62</v>
       </c>
       <c r="AP248">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ248">
         <v>0.6899999999999999</v>
@@ -52839,7 +52848,7 @@
         <v>129</v>
       </c>
       <c r="P249" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q249">
         <v>4.5</v>
@@ -52917,7 +52926,7 @@
         <v>1.54</v>
       </c>
       <c r="AP249">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ249">
         <v>1.69</v>
@@ -53663,7 +53672,7 @@
         <v>248</v>
       </c>
       <c r="P253" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q253">
         <v>2.4</v>
@@ -53950,7 +53959,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ254">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR254">
         <v>1.44</v>
@@ -54359,7 +54368,7 @@
         <v>0.86</v>
       </c>
       <c r="AP256">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ256">
         <v>0.9399999999999999</v>
@@ -54565,7 +54574,7 @@
         <v>1.43</v>
       </c>
       <c r="AP257">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ257">
         <v>1.25</v>
@@ -54693,7 +54702,7 @@
         <v>280</v>
       </c>
       <c r="P258" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q258">
         <v>3.5</v>
@@ -54771,10 +54780,10 @@
         <v>1.93</v>
       </c>
       <c r="AP258">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ258">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR258">
         <v>1.49</v>
@@ -55929,7 +55938,7 @@
         <v>285</v>
       </c>
       <c r="P264" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q264">
         <v>2.5</v>
@@ -56341,7 +56350,7 @@
         <v>117</v>
       </c>
       <c r="P266" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q266">
         <v>5.5</v>
@@ -56547,7 +56556,7 @@
         <v>88</v>
       </c>
       <c r="P267" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -56625,7 +56634,7 @@
         <v>0.57</v>
       </c>
       <c r="AP267">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ267">
         <v>0.6899999999999999</v>
@@ -56753,7 +56762,7 @@
         <v>281</v>
       </c>
       <c r="P268" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -56959,7 +56968,7 @@
         <v>286</v>
       </c>
       <c r="P269" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q269">
         <v>4.75</v>
@@ -57165,7 +57174,7 @@
         <v>287</v>
       </c>
       <c r="P270" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q270">
         <v>2.88</v>
@@ -57449,7 +57458,7 @@
         <v>0.5</v>
       </c>
       <c r="AP271">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ271">
         <v>0.5600000000000001</v>
@@ -57577,7 +57586,7 @@
         <v>289</v>
       </c>
       <c r="P272" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q272">
         <v>2.75</v>
@@ -57989,7 +57998,7 @@
         <v>291</v>
       </c>
       <c r="P274" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q274">
         <v>2.2</v>
@@ -58067,10 +58076,10 @@
         <v>2</v>
       </c>
       <c r="AP274">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ274">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR274">
         <v>1.9</v>
@@ -58195,7 +58204,7 @@
         <v>143</v>
       </c>
       <c r="P275" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q275">
         <v>2.88</v>
@@ -58273,7 +58282,7 @@
         <v>0.8</v>
       </c>
       <c r="AP275">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ275">
         <v>0.9399999999999999</v>
@@ -58401,7 +58410,7 @@
         <v>88</v>
       </c>
       <c r="P276" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q276">
         <v>2.3</v>
@@ -58607,7 +58616,7 @@
         <v>292</v>
       </c>
       <c r="P277" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q277">
         <v>2.2</v>
@@ -58891,10 +58900,10 @@
         <v>0.6</v>
       </c>
       <c r="AP278">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ278">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR278">
         <v>1.5</v>
@@ -59097,7 +59106,7 @@
         <v>0.67</v>
       </c>
       <c r="AP279">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ279">
         <v>0.6899999999999999</v>
@@ -59431,7 +59440,7 @@
         <v>281</v>
       </c>
       <c r="P281" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q281">
         <v>5</v>
@@ -59637,7 +59646,7 @@
         <v>293</v>
       </c>
       <c r="P282" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q282">
         <v>2.6</v>
@@ -60255,7 +60264,7 @@
         <v>296</v>
       </c>
       <c r="P285" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q285">
         <v>2.88</v>
@@ -60539,7 +60548,7 @@
         <v>1.27</v>
       </c>
       <c r="AP286">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ286">
         <v>1.25</v>
@@ -60667,7 +60676,7 @@
         <v>297</v>
       </c>
       <c r="P287" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q287">
         <v>2.6</v>
@@ -60873,7 +60882,7 @@
         <v>145</v>
       </c>
       <c r="P288" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q288">
         <v>3.4</v>
@@ -61079,7 +61088,7 @@
         <v>298</v>
       </c>
       <c r="P289" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q289">
         <v>3.4</v>
@@ -61442,6 +61451,1036 @@
       </c>
       <c r="BP290">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>6683923</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45423.4375</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>79</v>
+      </c>
+      <c r="H291" t="s">
+        <v>70</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>1</v>
+      </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291">
+        <v>1</v>
+      </c>
+      <c r="N291">
+        <v>2</v>
+      </c>
+      <c r="O291" t="s">
+        <v>118</v>
+      </c>
+      <c r="P291" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q291">
+        <v>1.67</v>
+      </c>
+      <c r="R291">
+        <v>3</v>
+      </c>
+      <c r="S291">
+        <v>6.5</v>
+      </c>
+      <c r="T291">
+        <v>1.17</v>
+      </c>
+      <c r="U291">
+        <v>5</v>
+      </c>
+      <c r="V291">
+        <v>1.83</v>
+      </c>
+      <c r="W291">
+        <v>1.83</v>
+      </c>
+      <c r="X291">
+        <v>3.75</v>
+      </c>
+      <c r="Y291">
+        <v>1.25</v>
+      </c>
+      <c r="Z291">
+        <v>1.29</v>
+      </c>
+      <c r="AA291">
+        <v>6.5</v>
+      </c>
+      <c r="AB291">
+        <v>8.5</v>
+      </c>
+      <c r="AC291">
+        <v>1.02</v>
+      </c>
+      <c r="AD291">
+        <v>36</v>
+      </c>
+      <c r="AE291">
+        <v>1.05</v>
+      </c>
+      <c r="AF291">
+        <v>7.2</v>
+      </c>
+      <c r="AG291">
+        <v>1.28</v>
+      </c>
+      <c r="AH291">
+        <v>3.47</v>
+      </c>
+      <c r="AI291">
+        <v>1.57</v>
+      </c>
+      <c r="AJ291">
+        <v>2.25</v>
+      </c>
+      <c r="AK291">
+        <v>1.04</v>
+      </c>
+      <c r="AL291">
+        <v>1.13</v>
+      </c>
+      <c r="AM291">
+        <v>3.8</v>
+      </c>
+      <c r="AN291">
+        <v>2.25</v>
+      </c>
+      <c r="AO291">
+        <v>1</v>
+      </c>
+      <c r="AP291">
+        <v>2.18</v>
+      </c>
+      <c r="AQ291">
+        <v>1</v>
+      </c>
+      <c r="AR291">
+        <v>1.91</v>
+      </c>
+      <c r="AS291">
+        <v>1.17</v>
+      </c>
+      <c r="AT291">
+        <v>3.08</v>
+      </c>
+      <c r="AU291">
+        <v>6</v>
+      </c>
+      <c r="AV291">
+        <v>2</v>
+      </c>
+      <c r="AW291">
+        <v>6</v>
+      </c>
+      <c r="AX291">
+        <v>6</v>
+      </c>
+      <c r="AY291">
+        <v>12</v>
+      </c>
+      <c r="AZ291">
+        <v>8</v>
+      </c>
+      <c r="BA291">
+        <v>4</v>
+      </c>
+      <c r="BB291">
+        <v>3</v>
+      </c>
+      <c r="BC291">
+        <v>7</v>
+      </c>
+      <c r="BD291">
+        <v>1.2</v>
+      </c>
+      <c r="BE291">
+        <v>11.5</v>
+      </c>
+      <c r="BF291">
+        <v>6.4</v>
+      </c>
+      <c r="BG291">
+        <v>1.28</v>
+      </c>
+      <c r="BH291">
+        <v>3.05</v>
+      </c>
+      <c r="BI291">
+        <v>1.52</v>
+      </c>
+      <c r="BJ291">
+        <v>2.28</v>
+      </c>
+      <c r="BK291">
+        <v>1.88</v>
+      </c>
+      <c r="BL291">
+        <v>1.81</v>
+      </c>
+      <c r="BM291">
+        <v>2.35</v>
+      </c>
+      <c r="BN291">
+        <v>1.48</v>
+      </c>
+      <c r="BO291">
+        <v>3.1</v>
+      </c>
+      <c r="BP291">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>6683924</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45423.4375</v>
+      </c>
+      <c r="F292">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s">
+        <v>81</v>
+      </c>
+      <c r="H292" t="s">
+        <v>82</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+      <c r="K292">
+        <v>2</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="N292">
+        <v>2</v>
+      </c>
+      <c r="O292" t="s">
+        <v>196</v>
+      </c>
+      <c r="P292" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q292">
+        <v>2.3</v>
+      </c>
+      <c r="R292">
+        <v>2.4</v>
+      </c>
+      <c r="S292">
+        <v>4.5</v>
+      </c>
+      <c r="T292">
+        <v>1.3</v>
+      </c>
+      <c r="U292">
+        <v>3.4</v>
+      </c>
+      <c r="V292">
+        <v>2.38</v>
+      </c>
+      <c r="W292">
+        <v>1.53</v>
+      </c>
+      <c r="X292">
+        <v>6</v>
+      </c>
+      <c r="Y292">
+        <v>1.13</v>
+      </c>
+      <c r="Z292">
+        <v>1.7</v>
+      </c>
+      <c r="AA292">
+        <v>4.2</v>
+      </c>
+      <c r="AB292">
+        <v>4.5</v>
+      </c>
+      <c r="AC292">
+        <v>1.03</v>
+      </c>
+      <c r="AD292">
+        <v>15</v>
+      </c>
+      <c r="AE292">
+        <v>1.2</v>
+      </c>
+      <c r="AF292">
+        <v>4.5</v>
+      </c>
+      <c r="AG292">
+        <v>1.62</v>
+      </c>
+      <c r="AH292">
+        <v>2.3</v>
+      </c>
+      <c r="AI292">
+        <v>1.62</v>
+      </c>
+      <c r="AJ292">
+        <v>2.2</v>
+      </c>
+      <c r="AK292">
+        <v>1.23</v>
+      </c>
+      <c r="AL292">
+        <v>1.27</v>
+      </c>
+      <c r="AM292">
+        <v>2.17</v>
+      </c>
+      <c r="AN292">
+        <v>1.31</v>
+      </c>
+      <c r="AO292">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP292">
+        <v>1.29</v>
+      </c>
+      <c r="AQ292">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR292">
+        <v>1.5</v>
+      </c>
+      <c r="AS292">
+        <v>1.03</v>
+      </c>
+      <c r="AT292">
+        <v>2.53</v>
+      </c>
+      <c r="AU292">
+        <v>5</v>
+      </c>
+      <c r="AV292">
+        <v>4</v>
+      </c>
+      <c r="AW292">
+        <v>11</v>
+      </c>
+      <c r="AX292">
+        <v>5</v>
+      </c>
+      <c r="AY292">
+        <v>16</v>
+      </c>
+      <c r="AZ292">
+        <v>9</v>
+      </c>
+      <c r="BA292">
+        <v>2</v>
+      </c>
+      <c r="BB292">
+        <v>4</v>
+      </c>
+      <c r="BC292">
+        <v>6</v>
+      </c>
+      <c r="BD292">
+        <v>1.72</v>
+      </c>
+      <c r="BE292">
+        <v>7.5</v>
+      </c>
+      <c r="BF292">
+        <v>2.5</v>
+      </c>
+      <c r="BG292">
+        <v>1.3</v>
+      </c>
+      <c r="BH292">
+        <v>2.9</v>
+      </c>
+      <c r="BI292">
+        <v>1.58</v>
+      </c>
+      <c r="BJ292">
+        <v>2.17</v>
+      </c>
+      <c r="BK292">
+        <v>1.98</v>
+      </c>
+      <c r="BL292">
+        <v>1.71</v>
+      </c>
+      <c r="BM292">
+        <v>2.55</v>
+      </c>
+      <c r="BN292">
+        <v>1.41</v>
+      </c>
+      <c r="BO292">
+        <v>3.4</v>
+      </c>
+      <c r="BP292">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>6683926</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45423.4375</v>
+      </c>
+      <c r="F293">
+        <v>33</v>
+      </c>
+      <c r="G293" t="s">
+        <v>85</v>
+      </c>
+      <c r="H293" t="s">
+        <v>78</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>1</v>
+      </c>
+      <c r="K293">
+        <v>2</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293">
+        <v>1</v>
+      </c>
+      <c r="N293">
+        <v>2</v>
+      </c>
+      <c r="O293" t="s">
+        <v>263</v>
+      </c>
+      <c r="P293" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q293">
+        <v>3</v>
+      </c>
+      <c r="R293">
+        <v>2.4</v>
+      </c>
+      <c r="S293">
+        <v>3.1</v>
+      </c>
+      <c r="T293">
+        <v>1.29</v>
+      </c>
+      <c r="U293">
+        <v>3.5</v>
+      </c>
+      <c r="V293">
+        <v>2.25</v>
+      </c>
+      <c r="W293">
+        <v>1.57</v>
+      </c>
+      <c r="X293">
+        <v>5.5</v>
+      </c>
+      <c r="Y293">
+        <v>1.14</v>
+      </c>
+      <c r="Z293">
+        <v>2.5</v>
+      </c>
+      <c r="AA293">
+        <v>3.8</v>
+      </c>
+      <c r="AB293">
+        <v>2.6</v>
+      </c>
+      <c r="AC293">
+        <v>1.01</v>
+      </c>
+      <c r="AD293">
+        <v>13</v>
+      </c>
+      <c r="AE293">
+        <v>1.17</v>
+      </c>
+      <c r="AF293">
+        <v>4.75</v>
+      </c>
+      <c r="AG293">
+        <v>1.55</v>
+      </c>
+      <c r="AH293">
+        <v>2.3</v>
+      </c>
+      <c r="AI293">
+        <v>1.5</v>
+      </c>
+      <c r="AJ293">
+        <v>2.5</v>
+      </c>
+      <c r="AK293">
+        <v>1.43</v>
+      </c>
+      <c r="AL293">
+        <v>1.25</v>
+      </c>
+      <c r="AM293">
+        <v>1.49</v>
+      </c>
+      <c r="AN293">
+        <v>1.25</v>
+      </c>
+      <c r="AO293">
+        <v>1.06</v>
+      </c>
+      <c r="AP293">
+        <v>1.24</v>
+      </c>
+      <c r="AQ293">
+        <v>1.06</v>
+      </c>
+      <c r="AR293">
+        <v>1.49</v>
+      </c>
+      <c r="AS293">
+        <v>1.1</v>
+      </c>
+      <c r="AT293">
+        <v>2.59</v>
+      </c>
+      <c r="AU293">
+        <v>4</v>
+      </c>
+      <c r="AV293">
+        <v>3</v>
+      </c>
+      <c r="AW293">
+        <v>2</v>
+      </c>
+      <c r="AX293">
+        <v>10</v>
+      </c>
+      <c r="AY293">
+        <v>6</v>
+      </c>
+      <c r="AZ293">
+        <v>13</v>
+      </c>
+      <c r="BA293">
+        <v>2</v>
+      </c>
+      <c r="BB293">
+        <v>8</v>
+      </c>
+      <c r="BC293">
+        <v>10</v>
+      </c>
+      <c r="BD293">
+        <v>1.66</v>
+      </c>
+      <c r="BE293">
+        <v>8.5</v>
+      </c>
+      <c r="BF293">
+        <v>2.55</v>
+      </c>
+      <c r="BG293">
+        <v>1.17</v>
+      </c>
+      <c r="BH293">
+        <v>4.25</v>
+      </c>
+      <c r="BI293">
+        <v>1.3</v>
+      </c>
+      <c r="BJ293">
+        <v>2.95</v>
+      </c>
+      <c r="BK293">
+        <v>1.55</v>
+      </c>
+      <c r="BL293">
+        <v>2.23</v>
+      </c>
+      <c r="BM293">
+        <v>1.9</v>
+      </c>
+      <c r="BN293">
+        <v>1.79</v>
+      </c>
+      <c r="BO293">
+        <v>2.4</v>
+      </c>
+      <c r="BP293">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>6683927</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45423.4375</v>
+      </c>
+      <c r="F294">
+        <v>33</v>
+      </c>
+      <c r="G294" t="s">
+        <v>83</v>
+      </c>
+      <c r="H294" t="s">
+        <v>77</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>2</v>
+      </c>
+      <c r="K294">
+        <v>3</v>
+      </c>
+      <c r="L294">
+        <v>3</v>
+      </c>
+      <c r="M294">
+        <v>2</v>
+      </c>
+      <c r="N294">
+        <v>5</v>
+      </c>
+      <c r="O294" t="s">
+        <v>299</v>
+      </c>
+      <c r="P294" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q294">
+        <v>3.4</v>
+      </c>
+      <c r="R294">
+        <v>2.2</v>
+      </c>
+      <c r="S294">
+        <v>3.1</v>
+      </c>
+      <c r="T294">
+        <v>1.4</v>
+      </c>
+      <c r="U294">
+        <v>2.75</v>
+      </c>
+      <c r="V294">
+        <v>2.75</v>
+      </c>
+      <c r="W294">
+        <v>1.4</v>
+      </c>
+      <c r="X294">
+        <v>8</v>
+      </c>
+      <c r="Y294">
+        <v>1.08</v>
+      </c>
+      <c r="Z294">
+        <v>2.7</v>
+      </c>
+      <c r="AA294">
+        <v>3.4</v>
+      </c>
+      <c r="AB294">
+        <v>2.6</v>
+      </c>
+      <c r="AC294">
+        <v>1.05</v>
+      </c>
+      <c r="AD294">
+        <v>11</v>
+      </c>
+      <c r="AE294">
+        <v>1.3</v>
+      </c>
+      <c r="AF294">
+        <v>3.6</v>
+      </c>
+      <c r="AG294">
+        <v>2</v>
+      </c>
+      <c r="AH294">
+        <v>1.83</v>
+      </c>
+      <c r="AI294">
+        <v>1.7</v>
+      </c>
+      <c r="AJ294">
+        <v>2.05</v>
+      </c>
+      <c r="AK294">
+        <v>1.58</v>
+      </c>
+      <c r="AL294">
+        <v>1.28</v>
+      </c>
+      <c r="AM294">
+        <v>1.44</v>
+      </c>
+      <c r="AN294">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AO294">
+        <v>0.63</v>
+      </c>
+      <c r="AP294">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ294">
+        <v>0.59</v>
+      </c>
+      <c r="AR294">
+        <v>1.5</v>
+      </c>
+      <c r="AS294">
+        <v>1.24</v>
+      </c>
+      <c r="AT294">
+        <v>2.74</v>
+      </c>
+      <c r="AU294">
+        <v>6</v>
+      </c>
+      <c r="AV294">
+        <v>7</v>
+      </c>
+      <c r="AW294">
+        <v>7</v>
+      </c>
+      <c r="AX294">
+        <v>3</v>
+      </c>
+      <c r="AY294">
+        <v>13</v>
+      </c>
+      <c r="AZ294">
+        <v>10</v>
+      </c>
+      <c r="BA294">
+        <v>6</v>
+      </c>
+      <c r="BB294">
+        <v>8</v>
+      </c>
+      <c r="BC294">
+        <v>14</v>
+      </c>
+      <c r="BD294">
+        <v>1.87</v>
+      </c>
+      <c r="BE294">
+        <v>8</v>
+      </c>
+      <c r="BF294">
+        <v>2.2</v>
+      </c>
+      <c r="BG294">
+        <v>1.16</v>
+      </c>
+      <c r="BH294">
+        <v>4.25</v>
+      </c>
+      <c r="BI294">
+        <v>1.3</v>
+      </c>
+      <c r="BJ294">
+        <v>2.95</v>
+      </c>
+      <c r="BK294">
+        <v>1.54</v>
+      </c>
+      <c r="BL294">
+        <v>2.25</v>
+      </c>
+      <c r="BM294">
+        <v>1.89</v>
+      </c>
+      <c r="BN294">
+        <v>1.79</v>
+      </c>
+      <c r="BO294">
+        <v>2.35</v>
+      </c>
+      <c r="BP294">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>6683925</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45423.5625</v>
+      </c>
+      <c r="F295">
+        <v>33</v>
+      </c>
+      <c r="G295" t="s">
+        <v>86</v>
+      </c>
+      <c r="H295" t="s">
+        <v>76</v>
+      </c>
+      <c r="I295">
+        <v>3</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>3</v>
+      </c>
+      <c r="L295">
+        <v>3</v>
+      </c>
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295">
+        <v>3</v>
+      </c>
+      <c r="O295" t="s">
+        <v>300</v>
+      </c>
+      <c r="P295" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q295">
+        <v>2.75</v>
+      </c>
+      <c r="R295">
+        <v>2.5</v>
+      </c>
+      <c r="S295">
+        <v>3.25</v>
+      </c>
+      <c r="T295">
+        <v>1.25</v>
+      </c>
+      <c r="U295">
+        <v>3.75</v>
+      </c>
+      <c r="V295">
+        <v>2.2</v>
+      </c>
+      <c r="W295">
+        <v>1.62</v>
+      </c>
+      <c r="X295">
+        <v>5</v>
+      </c>
+      <c r="Y295">
+        <v>1.17</v>
+      </c>
+      <c r="Z295">
+        <v>2.59</v>
+      </c>
+      <c r="AA295">
+        <v>3.6</v>
+      </c>
+      <c r="AB295">
+        <v>2.35</v>
+      </c>
+      <c r="AC295">
+        <v>1.01</v>
+      </c>
+      <c r="AD295">
+        <v>21</v>
+      </c>
+      <c r="AE295">
+        <v>1.15</v>
+      </c>
+      <c r="AF295">
+        <v>5.5</v>
+      </c>
+      <c r="AG295">
+        <v>1.4</v>
+      </c>
+      <c r="AH295">
+        <v>2.66</v>
+      </c>
+      <c r="AI295">
+        <v>1.4</v>
+      </c>
+      <c r="AJ295">
+        <v>2.75</v>
+      </c>
+      <c r="AK295">
+        <v>1.44</v>
+      </c>
+      <c r="AL295">
+        <v>1.22</v>
+      </c>
+      <c r="AM295">
+        <v>1.66</v>
+      </c>
+      <c r="AN295">
+        <v>1.25</v>
+      </c>
+      <c r="AO295">
+        <v>1.88</v>
+      </c>
+      <c r="AP295">
+        <v>1.35</v>
+      </c>
+      <c r="AQ295">
+        <v>1.76</v>
+      </c>
+      <c r="AR295">
+        <v>1.53</v>
+      </c>
+      <c r="AS295">
+        <v>1.41</v>
+      </c>
+      <c r="AT295">
+        <v>2.94</v>
+      </c>
+      <c r="AU295">
+        <v>6</v>
+      </c>
+      <c r="AV295">
+        <v>3</v>
+      </c>
+      <c r="AW295">
+        <v>4</v>
+      </c>
+      <c r="AX295">
+        <v>3</v>
+      </c>
+      <c r="AY295">
+        <v>10</v>
+      </c>
+      <c r="AZ295">
+        <v>6</v>
+      </c>
+      <c r="BA295">
+        <v>4</v>
+      </c>
+      <c r="BB295">
+        <v>2</v>
+      </c>
+      <c r="BC295">
+        <v>6</v>
+      </c>
+      <c r="BD295">
+        <v>1.58</v>
+      </c>
+      <c r="BE295">
+        <v>8.5</v>
+      </c>
+      <c r="BF295">
+        <v>2.75</v>
+      </c>
+      <c r="BG295">
+        <v>1.18</v>
+      </c>
+      <c r="BH295">
+        <v>4</v>
+      </c>
+      <c r="BI295">
+        <v>1.34</v>
+      </c>
+      <c r="BJ295">
+        <v>2.8</v>
+      </c>
+      <c r="BK295">
+        <v>1.6</v>
+      </c>
+      <c r="BL295">
+        <v>2.14</v>
+      </c>
+      <c r="BM295">
+        <v>1.98</v>
+      </c>
+      <c r="BN295">
+        <v>1.72</v>
+      </c>
+      <c r="BO295">
+        <v>2.5</v>
+      </c>
+      <c r="BP295">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="447">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -919,6 +919,9 @@
     <t>['12', '19', '23']</t>
   </si>
   <si>
+    <t>['4', '13']</t>
+  </si>
+  <si>
     <t>['4', '74', '90', '90+4']</t>
   </si>
   <si>
@@ -1347,6 +1350,12 @@
   <si>
     <t>['15', '19']</t>
   </si>
+  <si>
+    <t>['2', '6', '22', '26', '44', '51']</t>
+  </si>
+  <si>
+    <t>['41', '45+2', '76', '86', '90+3']</t>
+  </si>
 </sst>
 </file>
 
@@ -1707,7 +1716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP295"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1966,7 +1975,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -2172,7 +2181,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2584,7 +2593,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q5">
         <v>2.88</v>
@@ -2790,7 +2799,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -4026,7 +4035,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -4104,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ12">
         <v>0.59</v>
@@ -4438,7 +4447,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q14">
         <v>3.4</v>
@@ -4519,7 +4528,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ14">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4644,7 +4653,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4725,7 +4734,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ15">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4850,7 +4859,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4928,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ16">
         <v>1.76</v>
@@ -5056,7 +5065,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -5137,7 +5146,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ17">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5262,7 +5271,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5546,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ19">
         <v>0.9399999999999999</v>
@@ -5674,7 +5683,7 @@
         <v>105</v>
       </c>
       <c r="P20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q20">
         <v>1.62</v>
@@ -6292,7 +6301,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q23">
         <v>2.5</v>
@@ -6579,7 +6588,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR24">
         <v>1.59</v>
@@ -6910,7 +6919,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7322,7 +7331,7 @@
         <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7528,7 +7537,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -7606,10 +7615,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ29">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR29">
         <v>1.7</v>
@@ -7940,7 +7949,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -8146,7 +8155,7 @@
         <v>116</v>
       </c>
       <c r="P32" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -8352,7 +8361,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8558,7 +8567,7 @@
         <v>118</v>
       </c>
       <c r="P34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8639,7 +8648,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR34">
         <v>1.53</v>
@@ -8842,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ35">
         <v>1.06</v>
@@ -8970,7 +8979,7 @@
         <v>120</v>
       </c>
       <c r="P36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -9176,7 +9185,7 @@
         <v>121</v>
       </c>
       <c r="P37" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9254,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ37">
         <v>0.8100000000000001</v>
@@ -9382,7 +9391,7 @@
         <v>122</v>
       </c>
       <c r="P38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q38">
         <v>1.91</v>
@@ -9666,7 +9675,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ39">
         <v>0.63</v>
@@ -9875,7 +9884,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ40">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR40">
         <v>1.74</v>
@@ -10000,7 +10009,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -10081,7 +10090,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ41">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR41">
         <v>0.99</v>
@@ -10618,7 +10627,7 @@
         <v>126</v>
       </c>
       <c r="P44" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10824,7 +10833,7 @@
         <v>127</v>
       </c>
       <c r="P45" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -11236,7 +11245,7 @@
         <v>103</v>
       </c>
       <c r="P47" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q47">
         <v>3.25</v>
@@ -11648,7 +11657,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11729,7 +11738,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ49">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR49">
         <v>1.4</v>
@@ -11854,7 +11863,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q50">
         <v>3.25</v>
@@ -12060,7 +12069,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q51">
         <v>2.88</v>
@@ -12138,7 +12147,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ51">
         <v>0.8100000000000001</v>
@@ -12472,7 +12481,7 @@
         <v>130</v>
       </c>
       <c r="P53" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12678,7 +12687,7 @@
         <v>131</v>
       </c>
       <c r="P54" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q54">
         <v>3.25</v>
@@ -12756,7 +12765,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -13090,7 +13099,7 @@
         <v>133</v>
       </c>
       <c r="P56" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13296,7 +13305,7 @@
         <v>134</v>
       </c>
       <c r="P57" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13502,7 +13511,7 @@
         <v>135</v>
       </c>
       <c r="P58" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13583,7 +13592,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ58">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>2</v>
@@ -13708,7 +13717,7 @@
         <v>136</v>
       </c>
       <c r="P59" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -14120,7 +14129,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -14201,7 +14210,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR61">
         <v>1.3</v>
@@ -14610,7 +14619,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ63">
         <v>1.25</v>
@@ -15150,7 +15159,7 @@
         <v>88</v>
       </c>
       <c r="P66" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15356,7 +15365,7 @@
         <v>142</v>
       </c>
       <c r="P67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15562,7 +15571,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15643,7 +15652,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ68">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR68">
         <v>1.61</v>
@@ -15768,7 +15777,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q69">
         <v>2.63</v>
@@ -15974,7 +15983,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -16052,7 +16061,7 @@
         <v>2</v>
       </c>
       <c r="AP70">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ70">
         <v>1.69</v>
@@ -16180,7 +16189,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q71">
         <v>6.5</v>
@@ -16592,7 +16601,7 @@
         <v>148</v>
       </c>
       <c r="P73" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16798,7 +16807,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16876,7 +16885,7 @@
         <v>0.25</v>
       </c>
       <c r="AP74">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ74">
         <v>0.5600000000000001</v>
@@ -17004,7 +17013,7 @@
         <v>150</v>
       </c>
       <c r="P75" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -17085,7 +17094,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ75">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR75">
         <v>1.93</v>
@@ -17210,7 +17219,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -17700,7 +17709,7 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ78">
         <v>0.6899999999999999</v>
@@ -17828,7 +17837,7 @@
         <v>154</v>
       </c>
       <c r="P79" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17909,7 +17918,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ79">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR79">
         <v>1.35</v>
@@ -18240,7 +18249,7 @@
         <v>156</v>
       </c>
       <c r="P81" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -18652,7 +18661,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18730,7 +18739,7 @@
         <v>0.4</v>
       </c>
       <c r="AP83">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ83">
         <v>0.63</v>
@@ -18858,7 +18867,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -19064,7 +19073,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -19682,7 +19691,7 @@
         <v>161</v>
       </c>
       <c r="P88" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19763,7 +19772,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR88">
         <v>1.47</v>
@@ -19888,7 +19897,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -20094,7 +20103,7 @@
         <v>162</v>
       </c>
       <c r="P90" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -20587,7 +20596,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ92">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR92">
         <v>1.36</v>
@@ -20790,7 +20799,7 @@
         <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ93">
         <v>0.5600000000000001</v>
@@ -20999,7 +21008,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ94">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR94">
         <v>1.34</v>
@@ -21330,7 +21339,7 @@
         <v>167</v>
       </c>
       <c r="P96" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q96">
         <v>1.3</v>
@@ -21408,7 +21417,7 @@
         <v>0.2</v>
       </c>
       <c r="AP96">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ96">
         <v>0.9399999999999999</v>
@@ -21536,7 +21545,7 @@
         <v>103</v>
       </c>
       <c r="P97" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -21614,7 +21623,7 @@
         <v>0.2</v>
       </c>
       <c r="AP97">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ97">
         <v>0.6899999999999999</v>
@@ -21948,7 +21957,7 @@
         <v>169</v>
       </c>
       <c r="P99" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -22154,7 +22163,7 @@
         <v>170</v>
       </c>
       <c r="P100" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q100">
         <v>1.91</v>
@@ -22360,7 +22369,7 @@
         <v>88</v>
       </c>
       <c r="P101" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q101">
         <v>7.5</v>
@@ -22566,7 +22575,7 @@
         <v>94</v>
       </c>
       <c r="P102" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22978,7 +22987,7 @@
         <v>172</v>
       </c>
       <c r="P104" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -23184,7 +23193,7 @@
         <v>88</v>
       </c>
       <c r="P105" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q105">
         <v>5.5</v>
@@ -23265,7 +23274,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ105">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR105">
         <v>1.3</v>
@@ -23390,7 +23399,7 @@
         <v>173</v>
       </c>
       <c r="P106" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q106">
         <v>1.91</v>
@@ -23596,7 +23605,7 @@
         <v>174</v>
       </c>
       <c r="P107" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q107">
         <v>3.1</v>
@@ -24008,7 +24017,7 @@
         <v>175</v>
       </c>
       <c r="P109" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q109">
         <v>2.5</v>
@@ -24214,7 +24223,7 @@
         <v>88</v>
       </c>
       <c r="P110" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q110">
         <v>3.25</v>
@@ -24292,7 +24301,7 @@
         <v>0.33</v>
       </c>
       <c r="AP110">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ110">
         <v>0.6899999999999999</v>
@@ -24498,10 +24507,10 @@
         <v>0.5</v>
       </c>
       <c r="AP111">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ111">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR111">
         <v>1.98</v>
@@ -24832,7 +24841,7 @@
         <v>178</v>
       </c>
       <c r="P113" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24913,7 +24922,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ113">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR113">
         <v>1.39</v>
@@ -25450,7 +25459,7 @@
         <v>180</v>
       </c>
       <c r="P116" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q116">
         <v>2.1</v>
@@ -25656,7 +25665,7 @@
         <v>181</v>
       </c>
       <c r="P117" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q117">
         <v>3.2</v>
@@ -26274,7 +26283,7 @@
         <v>184</v>
       </c>
       <c r="P120" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q120">
         <v>6.5</v>
@@ -26892,7 +26901,7 @@
         <v>186</v>
       </c>
       <c r="P123" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -27098,7 +27107,7 @@
         <v>187</v>
       </c>
       <c r="P124" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q124">
         <v>2.88</v>
@@ -27304,7 +27313,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q125">
         <v>3.25</v>
@@ -27385,7 +27394,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ125">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR125">
         <v>2.03</v>
@@ -27716,7 +27725,7 @@
         <v>188</v>
       </c>
       <c r="P127" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28000,7 +28009,7 @@
         <v>0.5</v>
       </c>
       <c r="AP128">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ128">
         <v>0.59</v>
@@ -28206,10 +28215,10 @@
         <v>0.43</v>
       </c>
       <c r="AP129">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ129">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR129">
         <v>1.45</v>
@@ -28746,7 +28755,7 @@
         <v>191</v>
       </c>
       <c r="P132" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q132">
         <v>1.91</v>
@@ -28827,7 +28836,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ132">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR132">
         <v>1.77</v>
@@ -29442,7 +29451,7 @@
         <v>2</v>
       </c>
       <c r="AP135">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ135">
         <v>1.82</v>
@@ -29570,7 +29579,7 @@
         <v>195</v>
       </c>
       <c r="P136" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q136">
         <v>4.5</v>
@@ -29982,7 +29991,7 @@
         <v>197</v>
       </c>
       <c r="P138" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -30394,7 +30403,7 @@
         <v>199</v>
       </c>
       <c r="P140" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -30806,7 +30815,7 @@
         <v>201</v>
       </c>
       <c r="P142" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -31012,7 +31021,7 @@
         <v>202</v>
       </c>
       <c r="P143" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31502,10 +31511,10 @@
         <v>2</v>
       </c>
       <c r="AP145">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ145">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR145">
         <v>2.25</v>
@@ -31917,7 +31926,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ147">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR147">
         <v>1.39</v>
@@ -32123,7 +32132,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ148">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR148">
         <v>1.43</v>
@@ -32660,7 +32669,7 @@
         <v>88</v>
       </c>
       <c r="P151" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32738,7 +32747,7 @@
         <v>1.43</v>
       </c>
       <c r="AP151">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ151">
         <v>1.76</v>
@@ -32866,7 +32875,7 @@
         <v>205</v>
       </c>
       <c r="P152" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32944,7 +32953,7 @@
         <v>0.29</v>
       </c>
       <c r="AP152">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -33278,7 +33287,7 @@
         <v>207</v>
       </c>
       <c r="P154" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q154">
         <v>4.33</v>
@@ -33356,7 +33365,7 @@
         <v>1.33</v>
       </c>
       <c r="AP154">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ154">
         <v>1.06</v>
@@ -33565,7 +33574,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ155">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR155">
         <v>1.51</v>
@@ -33768,7 +33777,7 @@
         <v>1.5</v>
       </c>
       <c r="AP156">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ156">
         <v>1.82</v>
@@ -33896,7 +33905,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q157">
         <v>4.5</v>
@@ -34102,7 +34111,7 @@
         <v>209</v>
       </c>
       <c r="P158" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q158">
         <v>2.6</v>
@@ -34183,7 +34192,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ158">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR158">
         <v>1.6</v>
@@ -34308,7 +34317,7 @@
         <v>210</v>
       </c>
       <c r="P159" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34389,7 +34398,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ159">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR159">
         <v>1.94</v>
@@ -34592,7 +34601,7 @@
         <v>0.38</v>
       </c>
       <c r="AP160">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ160">
         <v>1</v>
@@ -34720,7 +34729,7 @@
         <v>174</v>
       </c>
       <c r="P161" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -35004,7 +35013,7 @@
         <v>0.5</v>
       </c>
       <c r="AP162">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ162">
         <v>0.59</v>
@@ -35338,7 +35347,7 @@
         <v>213</v>
       </c>
       <c r="P164" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q164">
         <v>3.1</v>
@@ -35544,7 +35553,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q165">
         <v>2.4</v>
@@ -35750,7 +35759,7 @@
         <v>214</v>
       </c>
       <c r="P166" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q166">
         <v>7.5</v>
@@ -35956,7 +35965,7 @@
         <v>215</v>
       </c>
       <c r="P167" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q167">
         <v>3.1</v>
@@ -36780,7 +36789,7 @@
         <v>218</v>
       </c>
       <c r="P171" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q171">
         <v>1.8</v>
@@ -37192,7 +37201,7 @@
         <v>88</v>
       </c>
       <c r="P173" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q173">
         <v>7.5</v>
@@ -37270,10 +37279,10 @@
         <v>2.56</v>
       </c>
       <c r="AP173">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ173">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR173">
         <v>1.35</v>
@@ -37476,7 +37485,7 @@
         <v>0.78</v>
       </c>
       <c r="AP174">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ174">
         <v>0.8100000000000001</v>
@@ -37604,7 +37613,7 @@
         <v>220</v>
       </c>
       <c r="P175" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q175">
         <v>3.5</v>
@@ -37810,7 +37819,7 @@
         <v>88</v>
       </c>
       <c r="P176" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -38016,7 +38025,7 @@
         <v>221</v>
       </c>
       <c r="P177" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -38094,7 +38103,7 @@
         <v>0.89</v>
       </c>
       <c r="AP177">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ177">
         <v>0.9399999999999999</v>
@@ -38428,7 +38437,7 @@
         <v>223</v>
       </c>
       <c r="P179" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q179">
         <v>2.63</v>
@@ -38509,7 +38518,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ179">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR179">
         <v>1.38</v>
@@ -38840,7 +38849,7 @@
         <v>225</v>
       </c>
       <c r="P181" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q181">
         <v>2.88</v>
@@ -39252,7 +39261,7 @@
         <v>227</v>
       </c>
       <c r="P183" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q183">
         <v>2.4</v>
@@ -39664,7 +39673,7 @@
         <v>228</v>
       </c>
       <c r="P185" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q185">
         <v>4.33</v>
@@ -39951,7 +39960,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ186">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR186">
         <v>1.49</v>
@@ -40076,7 +40085,7 @@
         <v>230</v>
       </c>
       <c r="P187" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q187">
         <v>2.3</v>
@@ -40488,7 +40497,7 @@
         <v>232</v>
       </c>
       <c r="P189" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q189">
         <v>1.95</v>
@@ -41106,7 +41115,7 @@
         <v>88</v>
       </c>
       <c r="P192" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q192">
         <v>2.6</v>
@@ -41390,7 +41399,7 @@
         <v>1.5</v>
       </c>
       <c r="AP193">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ193">
         <v>1.82</v>
@@ -41930,7 +41939,7 @@
         <v>134</v>
       </c>
       <c r="P196" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q196">
         <v>7</v>
@@ -42011,7 +42020,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ196">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR196">
         <v>1.46</v>
@@ -42342,7 +42351,7 @@
         <v>237</v>
       </c>
       <c r="P198" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -42548,7 +42557,7 @@
         <v>238</v>
       </c>
       <c r="P199" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q199">
         <v>6.5</v>
@@ -42626,7 +42635,7 @@
         <v>2.2</v>
       </c>
       <c r="AP199">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ199">
         <v>1.81</v>
@@ -42960,7 +42969,7 @@
         <v>240</v>
       </c>
       <c r="P201" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -43166,7 +43175,7 @@
         <v>241</v>
       </c>
       <c r="P202" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q202">
         <v>2.5</v>
@@ -43862,7 +43871,7 @@
         <v>1.4</v>
       </c>
       <c r="AP205">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ205">
         <v>1.69</v>
@@ -43990,7 +43999,7 @@
         <v>244</v>
       </c>
       <c r="P206" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q206">
         <v>2.88</v>
@@ -44071,7 +44080,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ206">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR206">
         <v>1.31</v>
@@ -44196,7 +44205,7 @@
         <v>245</v>
       </c>
       <c r="P207" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q207">
         <v>1.95</v>
@@ -44277,7 +44286,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ207">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR207">
         <v>1.8</v>
@@ -44608,7 +44617,7 @@
         <v>247</v>
       </c>
       <c r="P209" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q209">
         <v>5.5</v>
@@ -44814,7 +44823,7 @@
         <v>129</v>
       </c>
       <c r="P210" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q210">
         <v>3.4</v>
@@ -45020,7 +45029,7 @@
         <v>88</v>
       </c>
       <c r="P211" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q211">
         <v>3.4</v>
@@ -45098,7 +45107,7 @@
         <v>0.82</v>
       </c>
       <c r="AP211">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ211">
         <v>0.9399999999999999</v>
@@ -45226,7 +45235,7 @@
         <v>248</v>
       </c>
       <c r="P212" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q212">
         <v>4.75</v>
@@ -45304,7 +45313,7 @@
         <v>1.27</v>
       </c>
       <c r="AP212">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ212">
         <v>1.69</v>
@@ -45638,7 +45647,7 @@
         <v>88</v>
       </c>
       <c r="P214" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45844,7 +45853,7 @@
         <v>250</v>
       </c>
       <c r="P215" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q215">
         <v>3.6</v>
@@ -46050,7 +46059,7 @@
         <v>88</v>
       </c>
       <c r="P216" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -46131,7 +46140,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ216">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR216">
         <v>1.55</v>
@@ -46256,7 +46265,7 @@
         <v>251</v>
       </c>
       <c r="P217" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q217">
         <v>2.5</v>
@@ -46874,7 +46883,7 @@
         <v>254</v>
       </c>
       <c r="P220" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q220">
         <v>1.67</v>
@@ -46952,7 +46961,7 @@
         <v>0.5</v>
       </c>
       <c r="AP220">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ220">
         <v>0.5600000000000001</v>
@@ -47286,7 +47295,7 @@
         <v>256</v>
       </c>
       <c r="P222" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47492,7 +47501,7 @@
         <v>257</v>
       </c>
       <c r="P223" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q223">
         <v>3.75</v>
@@ -47698,7 +47707,7 @@
         <v>217</v>
       </c>
       <c r="P224" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q224">
         <v>2.88</v>
@@ -47776,7 +47785,7 @@
         <v>0.83</v>
       </c>
       <c r="AP224">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ224">
         <v>1.25</v>
@@ -47985,7 +47994,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ225">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR225">
         <v>1.33</v>
@@ -48191,7 +48200,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ226">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR226">
         <v>2.15</v>
@@ -48316,7 +48325,7 @@
         <v>260</v>
       </c>
       <c r="P227" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q227">
         <v>5.5</v>
@@ -48728,7 +48737,7 @@
         <v>262</v>
       </c>
       <c r="P229" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q229">
         <v>10</v>
@@ -48806,7 +48815,7 @@
         <v>1.92</v>
       </c>
       <c r="AP229">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ229">
         <v>1.81</v>
@@ -48934,7 +48943,7 @@
         <v>263</v>
       </c>
       <c r="P230" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q230">
         <v>2.63</v>
@@ -49552,7 +49561,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49758,7 +49767,7 @@
         <v>266</v>
       </c>
       <c r="P234" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q234">
         <v>5.5</v>
@@ -49839,7 +49848,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ234">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR234">
         <v>1.61</v>
@@ -50457,7 +50466,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ237">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR237">
         <v>2.18</v>
@@ -50788,7 +50797,7 @@
         <v>88</v>
       </c>
       <c r="P239" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q239">
         <v>2.88</v>
@@ -50994,7 +51003,7 @@
         <v>88</v>
       </c>
       <c r="P240" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q240">
         <v>3.2</v>
@@ -51075,7 +51084,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ240">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR240">
         <v>1.3</v>
@@ -51200,7 +51209,7 @@
         <v>88</v>
       </c>
       <c r="P241" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q241">
         <v>1.83</v>
@@ -51278,7 +51287,7 @@
         <v>1.85</v>
       </c>
       <c r="AP241">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ241">
         <v>1.76</v>
@@ -51612,7 +51621,7 @@
         <v>269</v>
       </c>
       <c r="P243" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q243">
         <v>1.67</v>
@@ -51818,7 +51827,7 @@
         <v>270</v>
       </c>
       <c r="P244" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q244">
         <v>2.25</v>
@@ -51896,7 +51905,7 @@
         <v>0.58</v>
       </c>
       <c r="AP244">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ244">
         <v>0.6899999999999999</v>
@@ -52230,7 +52239,7 @@
         <v>272</v>
       </c>
       <c r="P246" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q246">
         <v>6</v>
@@ -52848,7 +52857,7 @@
         <v>129</v>
       </c>
       <c r="P249" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q249">
         <v>4.5</v>
@@ -53135,7 +53144,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ250">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR250">
         <v>1.41</v>
@@ -53672,7 +53681,7 @@
         <v>248</v>
       </c>
       <c r="P253" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q253">
         <v>2.4</v>
@@ -54162,7 +54171,7 @@
         <v>0.71</v>
       </c>
       <c r="AP255">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ255">
         <v>0.6899999999999999</v>
@@ -54371,7 +54380,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ256">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR256">
         <v>1.93</v>
@@ -54577,7 +54586,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ257">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR257">
         <v>1.5</v>
@@ -54702,7 +54711,7 @@
         <v>280</v>
       </c>
       <c r="P258" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q258">
         <v>3.5</v>
@@ -54986,7 +54995,7 @@
         <v>0.79</v>
       </c>
       <c r="AP259">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ259">
         <v>0.9399999999999999</v>
@@ -55398,7 +55407,7 @@
         <v>1.14</v>
       </c>
       <c r="AP261">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ261">
         <v>1.25</v>
@@ -55938,7 +55947,7 @@
         <v>285</v>
       </c>
       <c r="P264" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q264">
         <v>2.5</v>
@@ -56350,7 +56359,7 @@
         <v>117</v>
       </c>
       <c r="P266" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q266">
         <v>5.5</v>
@@ -56556,7 +56565,7 @@
         <v>88</v>
       </c>
       <c r="P267" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -56762,7 +56771,7 @@
         <v>281</v>
       </c>
       <c r="P268" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -56968,7 +56977,7 @@
         <v>286</v>
       </c>
       <c r="P269" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q269">
         <v>4.75</v>
@@ -57174,7 +57183,7 @@
         <v>287</v>
       </c>
       <c r="P270" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q270">
         <v>2.88</v>
@@ -57255,7 +57264,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ270">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR270">
         <v>1.84</v>
@@ -57586,7 +57595,7 @@
         <v>289</v>
       </c>
       <c r="P272" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q272">
         <v>2.75</v>
@@ -57664,10 +57673,10 @@
         <v>1.33</v>
       </c>
       <c r="AP272">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ272">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR272">
         <v>1.74</v>
@@ -57870,7 +57879,7 @@
         <v>1.13</v>
       </c>
       <c r="AP273">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ273">
         <v>1.06</v>
@@ -57998,7 +58007,7 @@
         <v>291</v>
       </c>
       <c r="P274" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q274">
         <v>2.2</v>
@@ -58204,7 +58213,7 @@
         <v>143</v>
       </c>
       <c r="P275" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q275">
         <v>2.88</v>
@@ -58285,7 +58294,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ275">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR275">
         <v>1.5</v>
@@ -58410,7 +58419,7 @@
         <v>88</v>
       </c>
       <c r="P276" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q276">
         <v>2.3</v>
@@ -58616,7 +58625,7 @@
         <v>292</v>
       </c>
       <c r="P277" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q277">
         <v>2.2</v>
@@ -59312,7 +59321,7 @@
         <v>0.8</v>
       </c>
       <c r="AP280">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ280">
         <v>0.9399999999999999</v>
@@ -59440,7 +59449,7 @@
         <v>281</v>
       </c>
       <c r="P281" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q281">
         <v>5</v>
@@ -59646,7 +59655,7 @@
         <v>293</v>
       </c>
       <c r="P282" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q282">
         <v>2.6</v>
@@ -60264,7 +60273,7 @@
         <v>296</v>
       </c>
       <c r="P285" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q285">
         <v>2.88</v>
@@ -60676,7 +60685,7 @@
         <v>297</v>
       </c>
       <c r="P287" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q287">
         <v>2.6</v>
@@ -60882,7 +60891,7 @@
         <v>145</v>
       </c>
       <c r="P288" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q288">
         <v>3.4</v>
@@ -60963,7 +60972,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ288">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR288">
         <v>1.47</v>
@@ -61088,7 +61097,7 @@
         <v>298</v>
       </c>
       <c r="P289" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q289">
         <v>3.4</v>
@@ -61706,7 +61715,7 @@
         <v>196</v>
       </c>
       <c r="P292" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q292">
         <v>2.3</v>
@@ -62118,7 +62127,7 @@
         <v>299</v>
       </c>
       <c r="P294" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q294">
         <v>3.4</v>
@@ -62481,6 +62490,624 @@
       </c>
       <c r="BP295">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>6683930</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45424.4375</v>
+      </c>
+      <c r="F296">
+        <v>33</v>
+      </c>
+      <c r="G296" t="s">
+        <v>80</v>
+      </c>
+      <c r="H296" t="s">
+        <v>73</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>5</v>
+      </c>
+      <c r="K296">
+        <v>5</v>
+      </c>
+      <c r="L296">
+        <v>0</v>
+      </c>
+      <c r="M296">
+        <v>6</v>
+      </c>
+      <c r="N296">
+        <v>6</v>
+      </c>
+      <c r="O296" t="s">
+        <v>88</v>
+      </c>
+      <c r="P296" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q296">
+        <v>4.33</v>
+      </c>
+      <c r="R296">
+        <v>2.75</v>
+      </c>
+      <c r="S296">
+        <v>2.05</v>
+      </c>
+      <c r="T296">
+        <v>1.2</v>
+      </c>
+      <c r="U296">
+        <v>4.33</v>
+      </c>
+      <c r="V296">
+        <v>1.91</v>
+      </c>
+      <c r="W296">
+        <v>1.8</v>
+      </c>
+      <c r="X296">
+        <v>4</v>
+      </c>
+      <c r="Y296">
+        <v>1.22</v>
+      </c>
+      <c r="Z296">
+        <v>3.9</v>
+      </c>
+      <c r="AA296">
+        <v>4.33</v>
+      </c>
+      <c r="AB296">
+        <v>1.75</v>
+      </c>
+      <c r="AC296">
+        <v>1.01</v>
+      </c>
+      <c r="AD296">
+        <v>28</v>
+      </c>
+      <c r="AE296">
+        <v>1.07</v>
+      </c>
+      <c r="AF296">
+        <v>6.35</v>
+      </c>
+      <c r="AG296">
+        <v>1.36</v>
+      </c>
+      <c r="AH296">
+        <v>3.1</v>
+      </c>
+      <c r="AI296">
+        <v>1.4</v>
+      </c>
+      <c r="AJ296">
+        <v>2.75</v>
+      </c>
+      <c r="AK296">
+        <v>2.15</v>
+      </c>
+      <c r="AL296">
+        <v>1.22</v>
+      </c>
+      <c r="AM296">
+        <v>1.22</v>
+      </c>
+      <c r="AN296">
+        <v>0.38</v>
+      </c>
+      <c r="AO296">
+        <v>1.25</v>
+      </c>
+      <c r="AP296">
+        <v>0.35</v>
+      </c>
+      <c r="AQ296">
+        <v>1.35</v>
+      </c>
+      <c r="AR296">
+        <v>1.35</v>
+      </c>
+      <c r="AS296">
+        <v>1.24</v>
+      </c>
+      <c r="AT296">
+        <v>2.59</v>
+      </c>
+      <c r="AU296">
+        <v>0</v>
+      </c>
+      <c r="AV296">
+        <v>8</v>
+      </c>
+      <c r="AW296">
+        <v>5</v>
+      </c>
+      <c r="AX296">
+        <v>5</v>
+      </c>
+      <c r="AY296">
+        <v>5</v>
+      </c>
+      <c r="AZ296">
+        <v>13</v>
+      </c>
+      <c r="BA296">
+        <v>2</v>
+      </c>
+      <c r="BB296">
+        <v>3</v>
+      </c>
+      <c r="BC296">
+        <v>5</v>
+      </c>
+      <c r="BD296">
+        <v>2.3</v>
+      </c>
+      <c r="BE296">
+        <v>7.5</v>
+      </c>
+      <c r="BF296">
+        <v>1.82</v>
+      </c>
+      <c r="BG296">
+        <v>1.29</v>
+      </c>
+      <c r="BH296">
+        <v>3.3</v>
+      </c>
+      <c r="BI296">
+        <v>1.52</v>
+      </c>
+      <c r="BJ296">
+        <v>2.5</v>
+      </c>
+      <c r="BK296">
+        <v>1.83</v>
+      </c>
+      <c r="BL296">
+        <v>1.97</v>
+      </c>
+      <c r="BM296">
+        <v>2.25</v>
+      </c>
+      <c r="BN296">
+        <v>1.62</v>
+      </c>
+      <c r="BO296">
+        <v>2.9</v>
+      </c>
+      <c r="BP296">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>6683922</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45424.52083333334</v>
+      </c>
+      <c r="F297">
+        <v>33</v>
+      </c>
+      <c r="G297" t="s">
+        <v>87</v>
+      </c>
+      <c r="H297" t="s">
+        <v>72</v>
+      </c>
+      <c r="I297">
+        <v>2</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>2</v>
+      </c>
+      <c r="L297">
+        <v>2</v>
+      </c>
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297">
+        <v>2</v>
+      </c>
+      <c r="O297" t="s">
+        <v>301</v>
+      </c>
+      <c r="P297" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q297">
+        <v>1.8</v>
+      </c>
+      <c r="R297">
+        <v>2.88</v>
+      </c>
+      <c r="S297">
+        <v>6</v>
+      </c>
+      <c r="T297">
+        <v>1.2</v>
+      </c>
+      <c r="U297">
+        <v>4.33</v>
+      </c>
+      <c r="V297">
+        <v>1.91</v>
+      </c>
+      <c r="W297">
+        <v>1.8</v>
+      </c>
+      <c r="X297">
+        <v>4</v>
+      </c>
+      <c r="Y297">
+        <v>1.22</v>
+      </c>
+      <c r="Z297">
+        <v>1.2</v>
+      </c>
+      <c r="AA297">
+        <v>7.3</v>
+      </c>
+      <c r="AB297">
+        <v>12</v>
+      </c>
+      <c r="AC297">
+        <v>1.02</v>
+      </c>
+      <c r="AD297">
+        <v>29</v>
+      </c>
+      <c r="AE297">
+        <v>1.1</v>
+      </c>
+      <c r="AF297">
+        <v>7</v>
+      </c>
+      <c r="AG297">
+        <v>1.34</v>
+      </c>
+      <c r="AH297">
+        <v>3.09</v>
+      </c>
+      <c r="AI297">
+        <v>1.57</v>
+      </c>
+      <c r="AJ297">
+        <v>2.25</v>
+      </c>
+      <c r="AK297">
+        <v>1.12</v>
+      </c>
+      <c r="AL297">
+        <v>1.16</v>
+      </c>
+      <c r="AM297">
+        <v>3.34</v>
+      </c>
+      <c r="AN297">
+        <v>2.5</v>
+      </c>
+      <c r="AO297">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP297">
+        <v>2.53</v>
+      </c>
+      <c r="AQ297">
+        <v>0.88</v>
+      </c>
+      <c r="AR297">
+        <v>2.19</v>
+      </c>
+      <c r="AS297">
+        <v>1.29</v>
+      </c>
+      <c r="AT297">
+        <v>3.48</v>
+      </c>
+      <c r="AU297">
+        <v>4</v>
+      </c>
+      <c r="AV297">
+        <v>3</v>
+      </c>
+      <c r="AW297">
+        <v>3</v>
+      </c>
+      <c r="AX297">
+        <v>2</v>
+      </c>
+      <c r="AY297">
+        <v>7</v>
+      </c>
+      <c r="AZ297">
+        <v>5</v>
+      </c>
+      <c r="BA297">
+        <v>4</v>
+      </c>
+      <c r="BB297">
+        <v>0</v>
+      </c>
+      <c r="BC297">
+        <v>4</v>
+      </c>
+      <c r="BD297">
+        <v>1.26</v>
+      </c>
+      <c r="BE297">
+        <v>11.5</v>
+      </c>
+      <c r="BF297">
+        <v>4.85</v>
+      </c>
+      <c r="BG297">
+        <v>1.2</v>
+      </c>
+      <c r="BH297">
+        <v>3.86</v>
+      </c>
+      <c r="BI297">
+        <v>1.41</v>
+      </c>
+      <c r="BJ297">
+        <v>2.73</v>
+      </c>
+      <c r="BK297">
+        <v>1.73</v>
+      </c>
+      <c r="BL297">
+        <v>2.09</v>
+      </c>
+      <c r="BM297">
+        <v>2.16</v>
+      </c>
+      <c r="BN297">
+        <v>1.69</v>
+      </c>
+      <c r="BO297">
+        <v>2.79</v>
+      </c>
+      <c r="BP297">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>6683928</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45424.60416666666</v>
+      </c>
+      <c r="F298">
+        <v>33</v>
+      </c>
+      <c r="G298" t="s">
+        <v>84</v>
+      </c>
+      <c r="H298" t="s">
+        <v>71</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>2</v>
+      </c>
+      <c r="K298">
+        <v>2</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+      <c r="M298">
+        <v>5</v>
+      </c>
+      <c r="N298">
+        <v>5</v>
+      </c>
+      <c r="O298" t="s">
+        <v>88</v>
+      </c>
+      <c r="P298" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q298">
+        <v>4.33</v>
+      </c>
+      <c r="R298">
+        <v>2.5</v>
+      </c>
+      <c r="S298">
+        <v>2.2</v>
+      </c>
+      <c r="T298">
+        <v>1.25</v>
+      </c>
+      <c r="U298">
+        <v>3.75</v>
+      </c>
+      <c r="V298">
+        <v>2.1</v>
+      </c>
+      <c r="W298">
+        <v>1.67</v>
+      </c>
+      <c r="X298">
+        <v>5</v>
+      </c>
+      <c r="Y298">
+        <v>1.17</v>
+      </c>
+      <c r="Z298">
+        <v>4.84</v>
+      </c>
+      <c r="AA298">
+        <v>4.4</v>
+      </c>
+      <c r="AB298">
+        <v>1.62</v>
+      </c>
+      <c r="AC298">
+        <v>1.03</v>
+      </c>
+      <c r="AD298">
+        <v>18</v>
+      </c>
+      <c r="AE298">
+        <v>1.15</v>
+      </c>
+      <c r="AF298">
+        <v>5.5</v>
+      </c>
+      <c r="AG298">
+        <v>1.44</v>
+      </c>
+      <c r="AH298">
+        <v>2.67</v>
+      </c>
+      <c r="AI298">
+        <v>1.5</v>
+      </c>
+      <c r="AJ298">
+        <v>2.5</v>
+      </c>
+      <c r="AK298">
+        <v>2.04</v>
+      </c>
+      <c r="AL298">
+        <v>1.19</v>
+      </c>
+      <c r="AM298">
+        <v>1.18</v>
+      </c>
+      <c r="AN298">
+        <v>1.44</v>
+      </c>
+      <c r="AO298">
+        <v>2.63</v>
+      </c>
+      <c r="AP298">
+        <v>1.35</v>
+      </c>
+      <c r="AQ298">
+        <v>2.65</v>
+      </c>
+      <c r="AR298">
+        <v>1.82</v>
+      </c>
+      <c r="AS298">
+        <v>1.72</v>
+      </c>
+      <c r="AT298">
+        <v>3.54</v>
+      </c>
+      <c r="AU298">
+        <v>2</v>
+      </c>
+      <c r="AV298">
+        <v>6</v>
+      </c>
+      <c r="AW298">
+        <v>2</v>
+      </c>
+      <c r="AX298">
+        <v>10</v>
+      </c>
+      <c r="AY298">
+        <v>4</v>
+      </c>
+      <c r="AZ298">
+        <v>16</v>
+      </c>
+      <c r="BA298">
+        <v>2</v>
+      </c>
+      <c r="BB298">
+        <v>6</v>
+      </c>
+      <c r="BC298">
+        <v>8</v>
+      </c>
+      <c r="BD298">
+        <v>3.36</v>
+      </c>
+      <c r="BE298">
+        <v>10</v>
+      </c>
+      <c r="BF298">
+        <v>1.45</v>
+      </c>
+      <c r="BG298">
+        <v>1.21</v>
+      </c>
+      <c r="BH298">
+        <v>3.74</v>
+      </c>
+      <c r="BI298">
+        <v>1.42</v>
+      </c>
+      <c r="BJ298">
+        <v>2.69</v>
+      </c>
+      <c r="BK298">
+        <v>1.75</v>
+      </c>
+      <c r="BL298">
+        <v>2.07</v>
+      </c>
+      <c r="BM298">
+        <v>2.14</v>
+      </c>
+      <c r="BN298">
+        <v>1.69</v>
+      </c>
+      <c r="BO298">
+        <v>2.88</v>
+      </c>
+      <c r="BP298">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
@@ -63044,22 +63044,22 @@
         <v>3.54</v>
       </c>
       <c r="AU298">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV298">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AW298">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX298">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY298">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ298">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BA298">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="459">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -922,6 +922,30 @@
     <t>['4', '13']</t>
   </si>
   <si>
+    <t>['8', '68', '85', '87']</t>
+  </si>
+  <si>
+    <t>['6', '78', '80', '87']</t>
+  </si>
+  <si>
+    <t>['23', '31', '75', '83']</t>
+  </si>
+  <si>
+    <t>['12', '27']</t>
+  </si>
+  <si>
+    <t>['68', '90+2']</t>
+  </si>
+  <si>
+    <t>['30', '38', '72', '88']</t>
+  </si>
+  <si>
+    <t>['60', '77']</t>
+  </si>
+  <si>
+    <t>['16', '22', '36', '78']</t>
+  </si>
+  <si>
     <t>['4', '74', '90', '90+4']</t>
   </si>
   <si>
@@ -1356,6 +1380,18 @@
   <si>
     <t>['41', '45+2', '76', '86', '90+3']</t>
   </si>
+  <si>
+    <t>['4', '6']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['24', '71', '85']</t>
+  </si>
+  <si>
+    <t>['42', '46']</t>
+  </si>
 </sst>
 </file>
 
@@ -1716,7 +1752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1975,7 +2011,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -2053,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ2">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2181,7 +2217,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2259,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ3">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2465,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ4">
         <v>0.9399999999999999</v>
@@ -2593,7 +2629,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q5">
         <v>2.88</v>
@@ -2671,10 +2707,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ5">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2799,7 +2835,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2880,7 +2916,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ6">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3083,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ7">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3289,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ8">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3495,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ9">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3701,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ10">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4035,7 +4071,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q12">
         <v>4.5</v>
@@ -4447,7 +4483,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q14">
         <v>3.4</v>
@@ -4525,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ14">
         <v>1.35</v>
@@ -4653,7 +4689,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4859,7 +4895,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -5065,7 +5101,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -5271,7 +5307,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5558,7 +5594,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ19">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5683,7 +5719,7 @@
         <v>105</v>
       </c>
       <c r="P20" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q20">
         <v>1.62</v>
@@ -5761,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ20">
         <v>0.9399999999999999</v>
@@ -5967,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ21">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR21">
         <v>2.09</v>
@@ -6173,10 +6209,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ22">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR22">
         <v>1.6</v>
@@ -6301,7 +6337,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q23">
         <v>2.5</v>
@@ -6382,7 +6418,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ23">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR23">
         <v>1.82</v>
@@ -6585,7 +6621,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ24">
         <v>0.88</v>
@@ -6791,10 +6827,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ25">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR25">
         <v>0.75</v>
@@ -6919,7 +6955,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -7000,7 +7036,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ26">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR26">
         <v>1.22</v>
@@ -7203,10 +7239,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ27">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -7331,7 +7367,7 @@
         <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7409,10 +7445,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ28">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR28">
         <v>1.37</v>
@@ -7537,7 +7573,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -7824,7 +7860,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ30">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR30">
         <v>2.28</v>
@@ -7949,7 +7985,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -8155,7 +8191,7 @@
         <v>116</v>
       </c>
       <c r="P32" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -8233,7 +8269,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
         <v>0.59</v>
@@ -8361,7 +8397,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8567,7 +8603,7 @@
         <v>118</v>
       </c>
       <c r="P34" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8979,7 +9015,7 @@
         <v>120</v>
       </c>
       <c r="P36" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -9057,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -9185,7 +9221,7 @@
         <v>121</v>
       </c>
       <c r="P37" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9266,7 +9302,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ37">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR37">
         <v>2.1</v>
@@ -9391,7 +9427,7 @@
         <v>122</v>
       </c>
       <c r="P38" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q38">
         <v>1.91</v>
@@ -9469,10 +9505,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ38">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR38">
         <v>1.89</v>
@@ -9678,7 +9714,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ39">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR39">
         <v>1.86</v>
@@ -9881,7 +9917,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ40">
         <v>0.88</v>
@@ -10009,7 +10045,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -10087,7 +10123,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ41">
         <v>1.35</v>
@@ -10296,7 +10332,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ42">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR42">
         <v>1.53</v>
@@ -10502,7 +10538,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ43">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR43">
         <v>1.09</v>
@@ -10627,7 +10663,7 @@
         <v>126</v>
       </c>
       <c r="P44" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10705,10 +10741,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ44">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR44">
         <v>1.16</v>
@@ -10833,7 +10869,7 @@
         <v>127</v>
       </c>
       <c r="P45" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
@@ -10911,7 +10947,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ45">
         <v>0.9399999999999999</v>
@@ -11117,10 +11153,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ46">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR46">
         <v>1.14</v>
@@ -11245,7 +11281,7 @@
         <v>103</v>
       </c>
       <c r="P47" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q47">
         <v>3.25</v>
@@ -11323,7 +11359,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ47">
         <v>1.76</v>
@@ -11529,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ48">
         <v>1.06</v>
@@ -11657,7 +11693,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11863,7 +11899,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q50">
         <v>3.25</v>
@@ -12069,7 +12105,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q51">
         <v>2.88</v>
@@ -12150,7 +12186,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ51">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR51">
         <v>2.06</v>
@@ -12353,7 +12389,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ52">
         <v>0.59</v>
@@ -12481,7 +12517,7 @@
         <v>130</v>
       </c>
       <c r="P53" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12562,7 +12598,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ53">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR53">
         <v>1.73</v>
@@ -12687,7 +12723,7 @@
         <v>131</v>
       </c>
       <c r="P54" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q54">
         <v>3.25</v>
@@ -12974,7 +13010,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ55">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR55">
         <v>1.58</v>
@@ -13099,7 +13135,7 @@
         <v>133</v>
       </c>
       <c r="P56" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13180,7 +13216,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ56">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR56">
         <v>1.1</v>
@@ -13305,7 +13341,7 @@
         <v>134</v>
       </c>
       <c r="P57" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13386,7 +13422,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ57">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR57">
         <v>1.31</v>
@@ -13511,7 +13547,7 @@
         <v>135</v>
       </c>
       <c r="P58" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13589,7 +13625,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ58">
         <v>0.88</v>
@@ -13717,7 +13753,7 @@
         <v>136</v>
       </c>
       <c r="P59" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13795,7 +13831,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ59">
         <v>0.59</v>
@@ -14004,7 +14040,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ60">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR60">
         <v>1.42</v>
@@ -14129,7 +14165,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -14207,7 +14243,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ61">
         <v>1.35</v>
@@ -14413,10 +14449,10 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ62">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR62">
         <v>2.28</v>
@@ -14622,7 +14658,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ63">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR63">
         <v>2.3</v>
@@ -14825,7 +14861,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ64">
         <v>0.9399999999999999</v>
@@ -15031,7 +15067,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -15159,7 +15195,7 @@
         <v>88</v>
       </c>
       <c r="P66" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15237,7 +15273,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ66">
         <v>1.82</v>
@@ -15365,7 +15401,7 @@
         <v>142</v>
       </c>
       <c r="P67" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15446,7 +15482,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ67">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15571,7 +15607,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15649,7 +15685,7 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ68">
         <v>2.65</v>
@@ -15777,7 +15813,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q69">
         <v>2.63</v>
@@ -15855,7 +15891,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ69">
         <v>1.06</v>
@@ -15983,7 +16019,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -16064,7 +16100,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ70">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR70">
         <v>1.75</v>
@@ -16189,7 +16225,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q71">
         <v>6.5</v>
@@ -16270,7 +16306,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ71">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR71">
         <v>1.36</v>
@@ -16476,7 +16512,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ72">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR72">
         <v>1.7</v>
@@ -16601,7 +16637,7 @@
         <v>148</v>
       </c>
       <c r="P73" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16679,10 +16715,10 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ73">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR73">
         <v>1.67</v>
@@ -16807,7 +16843,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16888,7 +16924,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ74">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR74">
         <v>2.12</v>
@@ -17013,7 +17049,7 @@
         <v>150</v>
       </c>
       <c r="P75" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -17091,7 +17127,7 @@
         <v>3</v>
       </c>
       <c r="AP75">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ75">
         <v>1.35</v>
@@ -17219,7 +17255,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -17503,7 +17539,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ77">
         <v>0.59</v>
@@ -17712,7 +17748,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ78">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR78">
         <v>2.22</v>
@@ -17837,7 +17873,7 @@
         <v>154</v>
       </c>
       <c r="P79" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -18124,7 +18160,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ80">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR80">
         <v>1.48</v>
@@ -18249,7 +18285,7 @@
         <v>156</v>
       </c>
       <c r="P81" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -18327,7 +18363,7 @@
         <v>2.33</v>
       </c>
       <c r="AP81">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ81">
         <v>1.76</v>
@@ -18533,10 +18569,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ82">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR82">
         <v>2.28</v>
@@ -18661,7 +18697,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18742,7 +18778,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ83">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR83">
         <v>1.75</v>
@@ -18867,7 +18903,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18945,7 +18981,7 @@
         <v>1.25</v>
       </c>
       <c r="AP84">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ84">
         <v>1.06</v>
@@ -19073,7 +19109,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -19154,7 +19190,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ85">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR85">
         <v>1.41</v>
@@ -19360,7 +19396,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ86">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR86">
         <v>1.41</v>
@@ -19566,7 +19602,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ87">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR87">
         <v>1.79</v>
@@ -19691,7 +19727,7 @@
         <v>161</v>
       </c>
       <c r="P88" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19769,7 +19805,7 @@
         <v>2.5</v>
       </c>
       <c r="AP88">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ88">
         <v>2.65</v>
@@ -19897,7 +19933,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -19975,10 +20011,10 @@
         <v>2.5</v>
       </c>
       <c r="AP89">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ89">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR89">
         <v>1.72</v>
@@ -20103,7 +20139,7 @@
         <v>162</v>
       </c>
       <c r="P90" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -20181,7 +20217,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -20387,7 +20423,7 @@
         <v>2.25</v>
       </c>
       <c r="AP91">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ91">
         <v>1.82</v>
@@ -20802,7 +20838,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ93">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR93">
         <v>1.67</v>
@@ -21211,7 +21247,7 @@
         <v>2</v>
       </c>
       <c r="AP95">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ95">
         <v>1.76</v>
@@ -21339,7 +21375,7 @@
         <v>167</v>
       </c>
       <c r="P96" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q96">
         <v>1.3</v>
@@ -21545,7 +21581,7 @@
         <v>103</v>
       </c>
       <c r="P97" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -21626,7 +21662,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ97">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR97">
         <v>1.88</v>
@@ -21829,7 +21865,7 @@
         <v>0.6</v>
       </c>
       <c r="AP98">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ98">
         <v>0.59</v>
@@ -21957,7 +21993,7 @@
         <v>169</v>
       </c>
       <c r="P99" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -22035,7 +22071,7 @@
         <v>1.6</v>
       </c>
       <c r="AP99">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ99">
         <v>1.06</v>
@@ -22163,7 +22199,7 @@
         <v>170</v>
       </c>
       <c r="P100" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q100">
         <v>1.91</v>
@@ -22244,7 +22280,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ100">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR100">
         <v>1.72</v>
@@ -22369,7 +22405,7 @@
         <v>88</v>
       </c>
       <c r="P101" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q101">
         <v>7.5</v>
@@ -22450,7 +22486,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ101">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR101">
         <v>1.97</v>
@@ -22575,7 +22611,7 @@
         <v>94</v>
       </c>
       <c r="P102" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22653,10 +22689,10 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ102">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR102">
         <v>1.3</v>
@@ -22862,7 +22898,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ103">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR103">
         <v>1.58</v>
@@ -22987,7 +23023,7 @@
         <v>172</v>
       </c>
       <c r="P104" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -23065,10 +23101,10 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ104">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR104">
         <v>1.55</v>
@@ -23193,7 +23229,7 @@
         <v>88</v>
       </c>
       <c r="P105" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="Q105">
         <v>5.5</v>
@@ -23271,7 +23307,7 @@
         <v>2.6</v>
       </c>
       <c r="AP105">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ105">
         <v>2.65</v>
@@ -23399,7 +23435,7 @@
         <v>173</v>
       </c>
       <c r="P106" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q106">
         <v>1.91</v>
@@ -23477,10 +23513,10 @@
         <v>1.2</v>
       </c>
       <c r="AP106">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ106">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR106">
         <v>1.65</v>
@@ -23605,7 +23641,7 @@
         <v>174</v>
       </c>
       <c r="P107" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q107">
         <v>3.1</v>
@@ -23683,7 +23719,7 @@
         <v>1.8</v>
       </c>
       <c r="AP107">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ107">
         <v>1.82</v>
@@ -23889,10 +23925,10 @@
         <v>0.83</v>
       </c>
       <c r="AP108">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ108">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR108">
         <v>1.57</v>
@@ -24017,7 +24053,7 @@
         <v>175</v>
       </c>
       <c r="P109" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q109">
         <v>2.5</v>
@@ -24095,10 +24131,10 @@
         <v>0.5</v>
       </c>
       <c r="AP109">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ109">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR109">
         <v>1.5</v>
@@ -24223,7 +24259,7 @@
         <v>88</v>
       </c>
       <c r="P110" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="Q110">
         <v>3.25</v>
@@ -24304,7 +24340,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ110">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR110">
         <v>1.53</v>
@@ -24841,7 +24877,7 @@
         <v>178</v>
       </c>
       <c r="P113" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -25125,7 +25161,7 @@
         <v>0.2</v>
       </c>
       <c r="AP114">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -25334,7 +25370,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ115">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR115">
         <v>1.32</v>
@@ -25459,7 +25495,7 @@
         <v>180</v>
       </c>
       <c r="P116" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Q116">
         <v>2.1</v>
@@ -25537,7 +25573,7 @@
         <v>1.6</v>
       </c>
       <c r="AP116">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ116">
         <v>1.76</v>
@@ -25665,7 +25701,7 @@
         <v>181</v>
       </c>
       <c r="P117" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q117">
         <v>3.2</v>
@@ -25949,10 +25985,10 @@
         <v>0.86</v>
       </c>
       <c r="AP118">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ118">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -26155,10 +26191,10 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ119">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR119">
         <v>1.35</v>
@@ -26283,7 +26319,7 @@
         <v>184</v>
       </c>
       <c r="P120" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q120">
         <v>6.5</v>
@@ -26361,10 +26397,10 @@
         <v>2.67</v>
       </c>
       <c r="AP120">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ120">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR120">
         <v>1.31</v>
@@ -26567,10 +26603,10 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ121">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR121">
         <v>1.48</v>
@@ -26773,10 +26809,10 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ122">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR122">
         <v>1.2</v>
@@ -26901,7 +26937,7 @@
         <v>186</v>
       </c>
       <c r="P123" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26979,10 +27015,10 @@
         <v>0.67</v>
       </c>
       <c r="AP123">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ123">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR123">
         <v>1.51</v>
@@ -27107,7 +27143,7 @@
         <v>187</v>
       </c>
       <c r="P124" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q124">
         <v>2.88</v>
@@ -27185,10 +27221,10 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ124">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR124">
         <v>1.78</v>
@@ -27313,7 +27349,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="Q125">
         <v>3.25</v>
@@ -27391,7 +27427,7 @@
         <v>2.67</v>
       </c>
       <c r="AP125">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ125">
         <v>2.65</v>
@@ -27600,7 +27636,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ126">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR126">
         <v>1.75</v>
@@ -27725,7 +27761,7 @@
         <v>188</v>
       </c>
       <c r="P127" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28755,7 +28791,7 @@
         <v>191</v>
       </c>
       <c r="P132" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q132">
         <v>1.91</v>
@@ -29042,7 +29078,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ133">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR133">
         <v>1.56</v>
@@ -29245,7 +29281,7 @@
         <v>1.29</v>
       </c>
       <c r="AP134">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ134">
         <v>1.06</v>
@@ -29579,7 +29615,7 @@
         <v>195</v>
       </c>
       <c r="P136" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="Q136">
         <v>4.5</v>
@@ -29657,10 +29693,10 @@
         <v>1.71</v>
       </c>
       <c r="AP136">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ136">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR136">
         <v>1.23</v>
@@ -29863,10 +29899,10 @@
         <v>0.63</v>
       </c>
       <c r="AP137">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ137">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR137">
         <v>1.75</v>
@@ -29991,7 +30027,7 @@
         <v>197</v>
       </c>
       <c r="P138" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -30069,10 +30105,10 @@
         <v>0.57</v>
       </c>
       <c r="AP138">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ138">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR138">
         <v>1.53</v>
@@ -30275,10 +30311,10 @@
         <v>0.63</v>
       </c>
       <c r="AP139">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ139">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR139">
         <v>1.41</v>
@@ -30403,7 +30439,7 @@
         <v>199</v>
       </c>
       <c r="P140" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -30481,10 +30517,10 @@
         <v>1.25</v>
       </c>
       <c r="AP140">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ140">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR140">
         <v>1.55</v>
@@ -30687,10 +30723,10 @@
         <v>0.75</v>
       </c>
       <c r="AP141">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ141">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR141">
         <v>2.18</v>
@@ -30815,7 +30851,7 @@
         <v>201</v>
       </c>
       <c r="P142" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -30893,10 +30929,10 @@
         <v>0.86</v>
       </c>
       <c r="AP142">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ142">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR142">
         <v>1.32</v>
@@ -31021,7 +31057,7 @@
         <v>202</v>
       </c>
       <c r="P143" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31099,10 +31135,10 @@
         <v>2.29</v>
       </c>
       <c r="AP143">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ143">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR143">
         <v>1.41</v>
@@ -31305,10 +31341,10 @@
         <v>0.71</v>
       </c>
       <c r="AP144">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ144">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR144">
         <v>2.08</v>
@@ -32669,7 +32705,7 @@
         <v>88</v>
       </c>
       <c r="P151" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -32875,7 +32911,7 @@
         <v>205</v>
       </c>
       <c r="P152" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -33287,7 +33323,7 @@
         <v>207</v>
       </c>
       <c r="P154" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q154">
         <v>4.33</v>
@@ -33571,7 +33607,7 @@
         <v>0.78</v>
       </c>
       <c r="AP155">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ155">
         <v>0.88</v>
@@ -33905,7 +33941,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="Q157">
         <v>4.5</v>
@@ -34111,7 +34147,7 @@
         <v>209</v>
       </c>
       <c r="P158" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="Q158">
         <v>2.6</v>
@@ -34317,7 +34353,7 @@
         <v>210</v>
       </c>
       <c r="P159" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34729,7 +34765,7 @@
         <v>174</v>
       </c>
       <c r="P161" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -34810,7 +34846,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ161">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR161">
         <v>1.31</v>
@@ -35219,10 +35255,10 @@
         <v>0.67</v>
       </c>
       <c r="AP163">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ163">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR163">
         <v>1.38</v>
@@ -35347,7 +35383,7 @@
         <v>213</v>
       </c>
       <c r="P164" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q164">
         <v>3.1</v>
@@ -35425,10 +35461,10 @@
         <v>1.63</v>
       </c>
       <c r="AP164">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ164">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR164">
         <v>2.07</v>
@@ -35553,7 +35589,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q165">
         <v>2.4</v>
@@ -35631,10 +35667,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP165">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ165">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR165">
         <v>1.37</v>
@@ -35759,7 +35795,7 @@
         <v>214</v>
       </c>
       <c r="P166" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="Q166">
         <v>7.5</v>
@@ -35840,7 +35876,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ166">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR166">
         <v>1.29</v>
@@ -35965,7 +36001,7 @@
         <v>215</v>
       </c>
       <c r="P167" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q167">
         <v>3.1</v>
@@ -36043,10 +36079,10 @@
         <v>1.11</v>
       </c>
       <c r="AP167">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ167">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR167">
         <v>1.24</v>
@@ -36249,7 +36285,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP168">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ168">
         <v>0.9399999999999999</v>
@@ -36455,10 +36491,10 @@
         <v>0.75</v>
       </c>
       <c r="AP169">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ169">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR169">
         <v>2.15</v>
@@ -36661,10 +36697,10 @@
         <v>0.63</v>
       </c>
       <c r="AP170">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ170">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR170">
         <v>1.43</v>
@@ -36789,7 +36825,7 @@
         <v>218</v>
       </c>
       <c r="P171" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="Q171">
         <v>1.8</v>
@@ -36867,10 +36903,10 @@
         <v>0.67</v>
       </c>
       <c r="AP171">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ171">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR171">
         <v>1.78</v>
@@ -37073,7 +37109,7 @@
         <v>1.78</v>
       </c>
       <c r="AP172">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ172">
         <v>1.76</v>
@@ -37201,7 +37237,7 @@
         <v>88</v>
       </c>
       <c r="P173" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q173">
         <v>7.5</v>
@@ -37488,7 +37524,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ174">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR174">
         <v>2.38</v>
@@ -37613,7 +37649,7 @@
         <v>220</v>
       </c>
       <c r="P175" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Q175">
         <v>3.5</v>
@@ -37819,7 +37855,7 @@
         <v>88</v>
       </c>
       <c r="P176" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -38025,7 +38061,7 @@
         <v>221</v>
       </c>
       <c r="P177" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -38106,7 +38142,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ177">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR177">
         <v>1.8</v>
@@ -38437,7 +38473,7 @@
         <v>223</v>
       </c>
       <c r="P179" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="Q179">
         <v>2.63</v>
@@ -38515,7 +38551,7 @@
         <v>1.6</v>
       </c>
       <c r="AP179">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ179">
         <v>1.35</v>
@@ -38849,7 +38885,7 @@
         <v>225</v>
       </c>
       <c r="P181" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q181">
         <v>2.88</v>
@@ -39133,10 +39169,10 @@
         <v>1</v>
       </c>
       <c r="AP182">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ182">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR182">
         <v>1.78</v>
@@ -39261,7 +39297,7 @@
         <v>227</v>
       </c>
       <c r="P183" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="Q183">
         <v>2.4</v>
@@ -39339,7 +39375,7 @@
         <v>0.6</v>
       </c>
       <c r="AP183">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ183">
         <v>0.9399999999999999</v>
@@ -39548,7 +39584,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ184">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR184">
         <v>1.34</v>
@@ -39673,7 +39709,7 @@
         <v>228</v>
       </c>
       <c r="P185" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="Q185">
         <v>4.33</v>
@@ -39754,7 +39790,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ185">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR185">
         <v>1.35</v>
@@ -39957,7 +39993,7 @@
         <v>0.8</v>
       </c>
       <c r="AP186">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ186">
         <v>0.88</v>
@@ -40085,7 +40121,7 @@
         <v>230</v>
       </c>
       <c r="P187" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q187">
         <v>2.3</v>
@@ -40163,10 +40199,10 @@
         <v>0.6</v>
       </c>
       <c r="AP187">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ187">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR187">
         <v>1.35</v>
@@ -40369,10 +40405,10 @@
         <v>2.44</v>
       </c>
       <c r="AP188">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ188">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR188">
         <v>2.23</v>
@@ -40497,7 +40533,7 @@
         <v>232</v>
       </c>
       <c r="P189" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="Q189">
         <v>1.95</v>
@@ -40575,10 +40611,10 @@
         <v>0.6</v>
       </c>
       <c r="AP189">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ189">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR189">
         <v>2.06</v>
@@ -40781,10 +40817,10 @@
         <v>0.6</v>
       </c>
       <c r="AP190">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ190">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR190">
         <v>1.58</v>
@@ -41115,7 +41151,7 @@
         <v>88</v>
       </c>
       <c r="P192" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="Q192">
         <v>2.6</v>
@@ -41193,7 +41229,7 @@
         <v>0.45</v>
       </c>
       <c r="AP192">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ192">
         <v>0.59</v>
@@ -41605,7 +41641,7 @@
         <v>1.7</v>
       </c>
       <c r="AP194">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ194">
         <v>1.76</v>
@@ -41814,7 +41850,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ195">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR195">
         <v>1.48</v>
@@ -41939,7 +41975,7 @@
         <v>134</v>
       </c>
       <c r="P196" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="Q196">
         <v>7</v>
@@ -42017,7 +42053,7 @@
         <v>2.6</v>
       </c>
       <c r="AP196">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ196">
         <v>2.65</v>
@@ -42226,7 +42262,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ197">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR197">
         <v>1.86</v>
@@ -42351,7 +42387,7 @@
         <v>237</v>
       </c>
       <c r="P198" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -42557,7 +42593,7 @@
         <v>238</v>
       </c>
       <c r="P199" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="Q199">
         <v>6.5</v>
@@ -42638,7 +42674,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ199">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR199">
         <v>1.73</v>
@@ -42841,10 +42877,10 @@
         <v>0.55</v>
       </c>
       <c r="AP200">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ200">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR200">
         <v>2.18</v>
@@ -42969,7 +43005,7 @@
         <v>240</v>
       </c>
       <c r="P201" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -43047,7 +43083,7 @@
         <v>0.82</v>
       </c>
       <c r="AP201">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ201">
         <v>0.9399999999999999</v>
@@ -43175,7 +43211,7 @@
         <v>241</v>
       </c>
       <c r="P202" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="Q202">
         <v>2.5</v>
@@ -43256,7 +43292,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ202">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR202">
         <v>1.43</v>
@@ -43459,10 +43495,10 @@
         <v>0.6</v>
       </c>
       <c r="AP203">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ203">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR203">
         <v>1.26</v>
@@ -43665,10 +43701,10 @@
         <v>0.64</v>
       </c>
       <c r="AP204">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ204">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR204">
         <v>2.02</v>
@@ -43874,7 +43910,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ205">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR205">
         <v>2.32</v>
@@ -43999,7 +44035,7 @@
         <v>244</v>
       </c>
       <c r="P206" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="Q206">
         <v>2.88</v>
@@ -44077,7 +44113,7 @@
         <v>0.73</v>
       </c>
       <c r="AP206">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ206">
         <v>0.88</v>
@@ -44205,7 +44241,7 @@
         <v>245</v>
       </c>
       <c r="P207" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="Q207">
         <v>1.95</v>
@@ -44283,7 +44319,7 @@
         <v>1.55</v>
       </c>
       <c r="AP207">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ207">
         <v>1.35</v>
@@ -44492,7 +44528,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ208">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR208">
         <v>1.35</v>
@@ -44617,7 +44653,7 @@
         <v>247</v>
       </c>
       <c r="P209" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="Q209">
         <v>5.5</v>
@@ -44698,7 +44734,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ209">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR209">
         <v>1.6</v>
@@ -44823,7 +44859,7 @@
         <v>129</v>
       </c>
       <c r="P210" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="Q210">
         <v>3.4</v>
@@ -44901,7 +44937,7 @@
         <v>1.17</v>
       </c>
       <c r="AP210">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ210">
         <v>1.06</v>
@@ -45029,7 +45065,7 @@
         <v>88</v>
       </c>
       <c r="P211" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="Q211">
         <v>3.4</v>
@@ -45110,7 +45146,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ211">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR211">
         <v>1.4</v>
@@ -45235,7 +45271,7 @@
         <v>248</v>
       </c>
       <c r="P212" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="Q212">
         <v>4.75</v>
@@ -45316,7 +45352,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ212">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR212">
         <v>1.69</v>
@@ -45522,7 +45558,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ213">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR213">
         <v>1.48</v>
@@ -45647,7 +45683,7 @@
         <v>88</v>
       </c>
       <c r="P214" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45725,7 +45761,7 @@
         <v>1.64</v>
       </c>
       <c r="AP214">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ214">
         <v>1.76</v>
@@ -45853,7 +45889,7 @@
         <v>250</v>
       </c>
       <c r="P215" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="Q215">
         <v>3.6</v>
@@ -45931,7 +45967,7 @@
         <v>1.64</v>
       </c>
       <c r="AP215">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ215">
         <v>1.82</v>
@@ -46059,7 +46095,7 @@
         <v>88</v>
       </c>
       <c r="P216" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -46265,7 +46301,7 @@
         <v>251</v>
       </c>
       <c r="P217" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="Q217">
         <v>2.5</v>
@@ -46343,7 +46379,7 @@
         <v>1.09</v>
       </c>
       <c r="AP217">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ217">
         <v>1</v>
@@ -46549,7 +46585,7 @@
         <v>0.67</v>
       </c>
       <c r="AP218">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ218">
         <v>0.59</v>
@@ -46883,7 +46919,7 @@
         <v>254</v>
       </c>
       <c r="P220" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q220">
         <v>1.67</v>
@@ -46964,7 +47000,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ220">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR220">
         <v>2.25</v>
@@ -47170,7 +47206,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ221">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR221">
         <v>1.87</v>
@@ -47295,7 +47331,7 @@
         <v>256</v>
       </c>
       <c r="P222" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47376,7 +47412,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ222">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR222">
         <v>1.46</v>
@@ -47501,7 +47537,7 @@
         <v>257</v>
       </c>
       <c r="P223" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="Q223">
         <v>3.75</v>
@@ -47579,7 +47615,7 @@
         <v>1.75</v>
       </c>
       <c r="AP223">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ223">
         <v>1.76</v>
@@ -47707,7 +47743,7 @@
         <v>217</v>
       </c>
       <c r="P224" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="Q224">
         <v>2.88</v>
@@ -47788,7 +47824,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ224">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR224">
         <v>1.67</v>
@@ -47991,7 +48027,7 @@
         <v>1.67</v>
       </c>
       <c r="AP225">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ225">
         <v>1.35</v>
@@ -48197,7 +48233,7 @@
         <v>0.75</v>
       </c>
       <c r="AP226">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ226">
         <v>0.88</v>
@@ -48325,7 +48361,7 @@
         <v>260</v>
       </c>
       <c r="P227" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="Q227">
         <v>5.5</v>
@@ -48406,7 +48442,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ227">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR227">
         <v>1.46</v>
@@ -48609,7 +48645,7 @@
         <v>1</v>
       </c>
       <c r="AP228">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ228">
         <v>1</v>
@@ -48737,7 +48773,7 @@
         <v>262</v>
       </c>
       <c r="P229" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="Q229">
         <v>10</v>
@@ -48818,7 +48854,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ229">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR229">
         <v>1.38</v>
@@ -48943,7 +48979,7 @@
         <v>263</v>
       </c>
       <c r="P230" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="Q230">
         <v>2.63</v>
@@ -49021,10 +49057,10 @@
         <v>1</v>
       </c>
       <c r="AP230">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ230">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR230">
         <v>1.38</v>
@@ -49230,7 +49266,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ231">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR231">
         <v>1.47</v>
@@ -49433,10 +49469,10 @@
         <v>0.67</v>
       </c>
       <c r="AP232">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ232">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR232">
         <v>1.44</v>
@@ -49561,7 +49597,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49639,7 +49675,7 @@
         <v>1.75</v>
       </c>
       <c r="AP233">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ233">
         <v>1.82</v>
@@ -49767,7 +49803,7 @@
         <v>266</v>
       </c>
       <c r="P234" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="Q234">
         <v>5.5</v>
@@ -50051,7 +50087,7 @@
         <v>1.31</v>
       </c>
       <c r="AP235">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ235">
         <v>1.06</v>
@@ -50260,7 +50296,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ236">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR236">
         <v>1.9</v>
@@ -50463,7 +50499,7 @@
         <v>1.54</v>
       </c>
       <c r="AP237">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ237">
         <v>1.35</v>
@@ -50669,7 +50705,7 @@
         <v>0.62</v>
       </c>
       <c r="AP238">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ238">
         <v>0.59</v>
@@ -50797,7 +50833,7 @@
         <v>88</v>
       </c>
       <c r="P239" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="Q239">
         <v>2.88</v>
@@ -50878,7 +50914,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ239">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR239">
         <v>1.48</v>
@@ -51003,7 +51039,7 @@
         <v>88</v>
       </c>
       <c r="P240" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="Q240">
         <v>3.2</v>
@@ -51081,7 +51117,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP240">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ240">
         <v>0.88</v>
@@ -51209,7 +51245,7 @@
         <v>88</v>
       </c>
       <c r="P241" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="Q241">
         <v>1.83</v>
@@ -51496,7 +51532,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ242">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR242">
         <v>1.39</v>
@@ -51621,7 +51657,7 @@
         <v>269</v>
       </c>
       <c r="P243" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="Q243">
         <v>1.67</v>
@@ -51699,7 +51735,7 @@
         <v>0.77</v>
       </c>
       <c r="AP243">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ243">
         <v>0.9399999999999999</v>
@@ -51827,7 +51863,7 @@
         <v>270</v>
       </c>
       <c r="P244" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="Q244">
         <v>2.25</v>
@@ -51908,7 +51944,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ244">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR244">
         <v>1.7</v>
@@ -52111,7 +52147,7 @@
         <v>0.92</v>
       </c>
       <c r="AP245">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ245">
         <v>1</v>
@@ -52239,7 +52275,7 @@
         <v>272</v>
       </c>
       <c r="P246" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="Q246">
         <v>6</v>
@@ -52317,10 +52353,10 @@
         <v>2</v>
       </c>
       <c r="AP246">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ246">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR246">
         <v>1.43</v>
@@ -52526,7 +52562,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ247">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR247">
         <v>1.42</v>
@@ -52732,7 +52768,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ248">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR248">
         <v>1.46</v>
@@ -52857,7 +52893,7 @@
         <v>129</v>
       </c>
       <c r="P249" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="Q249">
         <v>4.5</v>
@@ -52938,7 +52974,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ249">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR249">
         <v>1.57</v>
@@ -53141,7 +53177,7 @@
         <v>2.69</v>
       </c>
       <c r="AP250">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ250">
         <v>2.65</v>
@@ -53347,7 +53383,7 @@
         <v>1.85</v>
       </c>
       <c r="AP251">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ251">
         <v>1.82</v>
@@ -53553,10 +53589,10 @@
         <v>1.15</v>
       </c>
       <c r="AP252">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ252">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR252">
         <v>1.48</v>
@@ -53681,7 +53717,7 @@
         <v>248</v>
       </c>
       <c r="P253" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="Q253">
         <v>2.4</v>
@@ -53759,10 +53795,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP253">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ253">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR253">
         <v>1.4</v>
@@ -54174,7 +54210,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ255">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR255">
         <v>2.21</v>
@@ -54711,7 +54747,7 @@
         <v>280</v>
       </c>
       <c r="P258" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="Q258">
         <v>3.5</v>
@@ -55201,7 +55237,7 @@
         <v>1.21</v>
       </c>
       <c r="AP260">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ260">
         <v>1.06</v>
@@ -55410,7 +55446,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ261">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR261">
         <v>1.34</v>
@@ -55613,7 +55649,7 @@
         <v>0.93</v>
       </c>
       <c r="AP262">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ262">
         <v>1</v>
@@ -55819,10 +55855,10 @@
         <v>1.07</v>
       </c>
       <c r="AP263">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ263">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR263">
         <v>1.46</v>
@@ -55947,7 +55983,7 @@
         <v>285</v>
       </c>
       <c r="P264" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="Q264">
         <v>2.5</v>
@@ -56025,10 +56061,10 @@
         <v>0.86</v>
       </c>
       <c r="AP264">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ264">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR264">
         <v>1.49</v>
@@ -56231,10 +56267,10 @@
         <v>0.5</v>
       </c>
       <c r="AP265">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ265">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR265">
         <v>1.4</v>
@@ -56359,7 +56395,7 @@
         <v>117</v>
       </c>
       <c r="P266" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="Q266">
         <v>5.5</v>
@@ -56437,10 +56473,10 @@
         <v>1.64</v>
       </c>
       <c r="AP266">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ266">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR266">
         <v>1.4</v>
@@ -56565,7 +56601,7 @@
         <v>88</v>
       </c>
       <c r="P267" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -56646,7 +56682,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ267">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR267">
         <v>1.45</v>
@@ -56771,7 +56807,7 @@
         <v>281</v>
       </c>
       <c r="P268" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -56849,10 +56885,10 @@
         <v>1.86</v>
       </c>
       <c r="AP268">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ268">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR268">
         <v>1.36</v>
@@ -56977,7 +57013,7 @@
         <v>286</v>
       </c>
       <c r="P269" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="Q269">
         <v>4.75</v>
@@ -57055,7 +57091,7 @@
         <v>1.93</v>
       </c>
       <c r="AP269">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ269">
         <v>1.82</v>
@@ -57183,7 +57219,7 @@
         <v>287</v>
       </c>
       <c r="P270" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="Q270">
         <v>2.88</v>
@@ -57261,7 +57297,7 @@
         <v>2.71</v>
       </c>
       <c r="AP270">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ270">
         <v>2.65</v>
@@ -57470,7 +57506,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ271">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR271">
         <v>1.54</v>
@@ -57595,7 +57631,7 @@
         <v>289</v>
       </c>
       <c r="P272" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="Q272">
         <v>2.75</v>
@@ -58007,7 +58043,7 @@
         <v>291</v>
       </c>
       <c r="P274" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q274">
         <v>2.2</v>
@@ -58213,7 +58249,7 @@
         <v>143</v>
       </c>
       <c r="P275" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="Q275">
         <v>2.88</v>
@@ -58419,7 +58455,7 @@
         <v>88</v>
       </c>
       <c r="P276" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="Q276">
         <v>2.3</v>
@@ -58625,7 +58661,7 @@
         <v>292</v>
       </c>
       <c r="P277" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Q277">
         <v>2.2</v>
@@ -58703,7 +58739,7 @@
         <v>1.8</v>
       </c>
       <c r="AP277">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ277">
         <v>1.82</v>
@@ -59118,7 +59154,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ279">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR279">
         <v>1.54</v>
@@ -59449,7 +59485,7 @@
         <v>281</v>
       </c>
       <c r="P281" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q281">
         <v>5</v>
@@ -59527,10 +59563,10 @@
         <v>1.73</v>
       </c>
       <c r="AP281">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ281">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR281">
         <v>1.56</v>
@@ -59655,7 +59691,7 @@
         <v>293</v>
       </c>
       <c r="P282" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q282">
         <v>2.6</v>
@@ -59733,10 +59769,10 @@
         <v>1.93</v>
       </c>
       <c r="AP282">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ282">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR282">
         <v>1.89</v>
@@ -59939,10 +59975,10 @@
         <v>0.73</v>
       </c>
       <c r="AP283">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ283">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR283">
         <v>1.39</v>
@@ -60145,10 +60181,10 @@
         <v>1</v>
       </c>
       <c r="AP284">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ284">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR284">
         <v>1.77</v>
@@ -60273,7 +60309,7 @@
         <v>296</v>
       </c>
       <c r="P285" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="Q285">
         <v>2.88</v>
@@ -60351,10 +60387,10 @@
         <v>0.8</v>
       </c>
       <c r="AP285">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ285">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR285">
         <v>1.23</v>
@@ -60560,7 +60596,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ286">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR286">
         <v>1.47</v>
@@ -60685,7 +60721,7 @@
         <v>297</v>
       </c>
       <c r="P287" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="Q287">
         <v>2.6</v>
@@ -60763,10 +60799,10 @@
         <v>0.47</v>
       </c>
       <c r="AP287">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ287">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR287">
         <v>1.35</v>
@@ -60891,7 +60927,7 @@
         <v>145</v>
       </c>
       <c r="P288" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="Q288">
         <v>3.4</v>
@@ -60969,7 +61005,7 @@
         <v>2.6</v>
       </c>
       <c r="AP288">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ288">
         <v>2.65</v>
@@ -61097,7 +61133,7 @@
         <v>298</v>
       </c>
       <c r="P289" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q289">
         <v>3.4</v>
@@ -61175,10 +61211,10 @@
         <v>0.53</v>
       </c>
       <c r="AP289">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ289">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR289">
         <v>1.38</v>
@@ -61715,7 +61751,7 @@
         <v>196</v>
       </c>
       <c r="P292" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q292">
         <v>2.3</v>
@@ -62127,7 +62163,7 @@
         <v>299</v>
       </c>
       <c r="P294" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="Q294">
         <v>3.4</v>
@@ -62539,7 +62575,7 @@
         <v>88</v>
       </c>
       <c r="P296" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="Q296">
         <v>4.33</v>
@@ -62951,7 +62987,7 @@
         <v>88</v>
       </c>
       <c r="P298" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="Q298">
         <v>4.33</v>
@@ -63108,6 +63144,1860 @@
       </c>
       <c r="BP298">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="299" spans="1:68">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>6683936</v>
+      </c>
+      <c r="C299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45430.4375</v>
+      </c>
+      <c r="F299">
+        <v>34</v>
+      </c>
+      <c r="G299" t="s">
+        <v>73</v>
+      </c>
+      <c r="H299" t="s">
+        <v>87</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="J299">
+        <v>2</v>
+      </c>
+      <c r="K299">
+        <v>3</v>
+      </c>
+      <c r="L299">
+        <v>4</v>
+      </c>
+      <c r="M299">
+        <v>2</v>
+      </c>
+      <c r="N299">
+        <v>6</v>
+      </c>
+      <c r="O299" t="s">
+        <v>302</v>
+      </c>
+      <c r="P299" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q299">
+        <v>3.64</v>
+      </c>
+      <c r="R299">
+        <v>2.79</v>
+      </c>
+      <c r="S299">
+        <v>2.2</v>
+      </c>
+      <c r="T299">
+        <v>1.15</v>
+      </c>
+      <c r="U299">
+        <v>5.25</v>
+      </c>
+      <c r="V299">
+        <v>1.76</v>
+      </c>
+      <c r="W299">
+        <v>2.03</v>
+      </c>
+      <c r="X299">
+        <v>3.3</v>
+      </c>
+      <c r="Y299">
+        <v>1.32</v>
+      </c>
+      <c r="Z299">
+        <v>3.3</v>
+      </c>
+      <c r="AA299">
+        <v>4.25</v>
+      </c>
+      <c r="AB299">
+        <v>1.68</v>
+      </c>
+      <c r="AC299">
+        <v>1.01</v>
+      </c>
+      <c r="AD299">
+        <v>49.5</v>
+      </c>
+      <c r="AE299">
+        <v>1.03</v>
+      </c>
+      <c r="AF299">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG299">
+        <v>1.25</v>
+      </c>
+      <c r="AH299">
+        <v>3.75</v>
+      </c>
+      <c r="AI299">
+        <v>1.28</v>
+      </c>
+      <c r="AJ299">
+        <v>3.54</v>
+      </c>
+      <c r="AK299">
+        <v>2.05</v>
+      </c>
+      <c r="AL299">
+        <v>1.22</v>
+      </c>
+      <c r="AM299">
+        <v>1.3</v>
+      </c>
+      <c r="AN299">
+        <v>1.25</v>
+      </c>
+      <c r="AO299">
+        <v>1.81</v>
+      </c>
+      <c r="AP299">
+        <v>1.35</v>
+      </c>
+      <c r="AQ299">
+        <v>1.71</v>
+      </c>
+      <c r="AR299">
+        <v>1.61</v>
+      </c>
+      <c r="AS299">
+        <v>1.83</v>
+      </c>
+      <c r="AT299">
+        <v>3.44</v>
+      </c>
+      <c r="AU299">
+        <v>10</v>
+      </c>
+      <c r="AV299">
+        <v>5</v>
+      </c>
+      <c r="AW299">
+        <v>9</v>
+      </c>
+      <c r="AX299">
+        <v>7</v>
+      </c>
+      <c r="AY299">
+        <v>19</v>
+      </c>
+      <c r="AZ299">
+        <v>12</v>
+      </c>
+      <c r="BA299">
+        <v>3</v>
+      </c>
+      <c r="BB299">
+        <v>3</v>
+      </c>
+      <c r="BC299">
+        <v>6</v>
+      </c>
+      <c r="BD299">
+        <v>2.62</v>
+      </c>
+      <c r="BE299">
+        <v>7.5</v>
+      </c>
+      <c r="BF299">
+        <v>1.67</v>
+      </c>
+      <c r="BG299">
+        <v>1.23</v>
+      </c>
+      <c r="BH299">
+        <v>3.56</v>
+      </c>
+      <c r="BI299">
+        <v>1.46</v>
+      </c>
+      <c r="BJ299">
+        <v>2.56</v>
+      </c>
+      <c r="BK299">
+        <v>1.8</v>
+      </c>
+      <c r="BL299">
+        <v>1.91</v>
+      </c>
+      <c r="BM299">
+        <v>2.3</v>
+      </c>
+      <c r="BN299">
+        <v>1.56</v>
+      </c>
+      <c r="BO299">
+        <v>3.04</v>
+      </c>
+      <c r="BP299">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="300" spans="1:68">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>6683937</v>
+      </c>
+      <c r="C300" t="s">
+        <v>68</v>
+      </c>
+      <c r="D300" t="s">
+        <v>69</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45430.4375</v>
+      </c>
+      <c r="F300">
+        <v>34</v>
+      </c>
+      <c r="G300" t="s">
+        <v>70</v>
+      </c>
+      <c r="H300" t="s">
+        <v>84</v>
+      </c>
+      <c r="I300">
+        <v>1</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>1</v>
+      </c>
+      <c r="L300">
+        <v>4</v>
+      </c>
+      <c r="M300">
+        <v>1</v>
+      </c>
+      <c r="N300">
+        <v>5</v>
+      </c>
+      <c r="O300" t="s">
+        <v>303</v>
+      </c>
+      <c r="P300" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q300">
+        <v>2.81</v>
+      </c>
+      <c r="R300">
+        <v>2.39</v>
+      </c>
+      <c r="S300">
+        <v>3.2</v>
+      </c>
+      <c r="T300">
+        <v>1.27</v>
+      </c>
+      <c r="U300">
+        <v>3.66</v>
+      </c>
+      <c r="V300">
+        <v>2.24</v>
+      </c>
+      <c r="W300">
+        <v>1.63</v>
+      </c>
+      <c r="X300">
+        <v>5.05</v>
+      </c>
+      <c r="Y300">
+        <v>1.16</v>
+      </c>
+      <c r="Z300">
+        <v>2.05</v>
+      </c>
+      <c r="AA300">
+        <v>3.6</v>
+      </c>
+      <c r="AB300">
+        <v>2.7</v>
+      </c>
+      <c r="AC300">
+        <v>1.03</v>
+      </c>
+      <c r="AD300">
+        <v>18</v>
+      </c>
+      <c r="AE300">
+        <v>1.13</v>
+      </c>
+      <c r="AF300">
+        <v>4.85</v>
+      </c>
+      <c r="AG300">
+        <v>1.53</v>
+      </c>
+      <c r="AH300">
+        <v>2.45</v>
+      </c>
+      <c r="AI300">
+        <v>1.47</v>
+      </c>
+      <c r="AJ300">
+        <v>2.6</v>
+      </c>
+      <c r="AK300">
+        <v>1.48</v>
+      </c>
+      <c r="AL300">
+        <v>1.28</v>
+      </c>
+      <c r="AM300">
+        <v>1.61</v>
+      </c>
+      <c r="AN300">
+        <v>1.38</v>
+      </c>
+      <c r="AO300">
+        <v>0.63</v>
+      </c>
+      <c r="AP300">
+        <v>1.47</v>
+      </c>
+      <c r="AQ300">
+        <v>0.59</v>
+      </c>
+      <c r="AR300">
+        <v>1.28</v>
+      </c>
+      <c r="AS300">
+        <v>1.22</v>
+      </c>
+      <c r="AT300">
+        <v>2.5</v>
+      </c>
+      <c r="AU300">
+        <v>13</v>
+      </c>
+      <c r="AV300">
+        <v>7</v>
+      </c>
+      <c r="AW300">
+        <v>14</v>
+      </c>
+      <c r="AX300">
+        <v>20</v>
+      </c>
+      <c r="AY300">
+        <v>27</v>
+      </c>
+      <c r="AZ300">
+        <v>27</v>
+      </c>
+      <c r="BA300">
+        <v>4</v>
+      </c>
+      <c r="BB300">
+        <v>3</v>
+      </c>
+      <c r="BC300">
+        <v>7</v>
+      </c>
+      <c r="BD300">
+        <v>1.73</v>
+      </c>
+      <c r="BE300">
+        <v>7.5</v>
+      </c>
+      <c r="BF300">
+        <v>2.4</v>
+      </c>
+      <c r="BG300">
+        <v>1.26</v>
+      </c>
+      <c r="BH300">
+        <v>3.34</v>
+      </c>
+      <c r="BI300">
+        <v>1.51</v>
+      </c>
+      <c r="BJ300">
+        <v>2.42</v>
+      </c>
+      <c r="BK300">
+        <v>1.85</v>
+      </c>
+      <c r="BL300">
+        <v>1.85</v>
+      </c>
+      <c r="BM300">
+        <v>2.45</v>
+      </c>
+      <c r="BN300">
+        <v>1.5</v>
+      </c>
+      <c r="BO300">
+        <v>3.28</v>
+      </c>
+      <c r="BP300">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="301" spans="1:68">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>6683935</v>
+      </c>
+      <c r="C301" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45430.4375</v>
+      </c>
+      <c r="F301">
+        <v>34</v>
+      </c>
+      <c r="G301" t="s">
+        <v>72</v>
+      </c>
+      <c r="H301" t="s">
+        <v>86</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="J301">
+        <v>1</v>
+      </c>
+      <c r="K301">
+        <v>2</v>
+      </c>
+      <c r="L301">
+        <v>1</v>
+      </c>
+      <c r="M301">
+        <v>3</v>
+      </c>
+      <c r="N301">
+        <v>4</v>
+      </c>
+      <c r="O301" t="s">
+        <v>260</v>
+      </c>
+      <c r="P301" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q301">
+        <v>3.74</v>
+      </c>
+      <c r="R301">
+        <v>2.38</v>
+      </c>
+      <c r="S301">
+        <v>2.8</v>
+      </c>
+      <c r="T301">
+        <v>1.34</v>
+      </c>
+      <c r="U301">
+        <v>3.18</v>
+      </c>
+      <c r="V301">
+        <v>2.63</v>
+      </c>
+      <c r="W301">
+        <v>1.5</v>
+      </c>
+      <c r="X301">
+        <v>6.25</v>
+      </c>
+      <c r="Y301">
+        <v>1.11</v>
+      </c>
+      <c r="Z301">
+        <v>3.15</v>
+      </c>
+      <c r="AA301">
+        <v>3.4</v>
+      </c>
+      <c r="AB301">
+        <v>1.92</v>
+      </c>
+      <c r="AC301">
+        <v>1.04</v>
+      </c>
+      <c r="AD301">
+        <v>10.5</v>
+      </c>
+      <c r="AE301">
+        <v>1.22</v>
+      </c>
+      <c r="AF301">
+        <v>3.82</v>
+      </c>
+      <c r="AG301">
+        <v>1.64</v>
+      </c>
+      <c r="AH301">
+        <v>2.12</v>
+      </c>
+      <c r="AI301">
+        <v>1.63</v>
+      </c>
+      <c r="AJ301">
+        <v>2.22</v>
+      </c>
+      <c r="AK301">
+        <v>1.69</v>
+      </c>
+      <c r="AL301">
+        <v>1.3</v>
+      </c>
+      <c r="AM301">
+        <v>1.39</v>
+      </c>
+      <c r="AN301">
+        <v>1.38</v>
+      </c>
+      <c r="AO301">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP301">
+        <v>1.29</v>
+      </c>
+      <c r="AQ301">
+        <v>0.71</v>
+      </c>
+      <c r="AR301">
+        <v>1.42</v>
+      </c>
+      <c r="AS301">
+        <v>1.26</v>
+      </c>
+      <c r="AT301">
+        <v>2.68</v>
+      </c>
+      <c r="AU301">
+        <v>5</v>
+      </c>
+      <c r="AV301">
+        <v>7</v>
+      </c>
+      <c r="AW301">
+        <v>11</v>
+      </c>
+      <c r="AX301">
+        <v>6</v>
+      </c>
+      <c r="AY301">
+        <v>16</v>
+      </c>
+      <c r="AZ301">
+        <v>13</v>
+      </c>
+      <c r="BA301">
+        <v>1</v>
+      </c>
+      <c r="BB301">
+        <v>2</v>
+      </c>
+      <c r="BC301">
+        <v>3</v>
+      </c>
+      <c r="BD301">
+        <v>2.1</v>
+      </c>
+      <c r="BE301">
+        <v>7</v>
+      </c>
+      <c r="BF301">
+        <v>1.91</v>
+      </c>
+      <c r="BG301">
+        <v>1.31</v>
+      </c>
+      <c r="BH301">
+        <v>3.04</v>
+      </c>
+      <c r="BI301">
+        <v>1.59</v>
+      </c>
+      <c r="BJ301">
+        <v>2.24</v>
+      </c>
+      <c r="BK301">
+        <v>2</v>
+      </c>
+      <c r="BL301">
+        <v>1.73</v>
+      </c>
+      <c r="BM301">
+        <v>2.66</v>
+      </c>
+      <c r="BN301">
+        <v>1.43</v>
+      </c>
+      <c r="BO301">
+        <v>3.56</v>
+      </c>
+      <c r="BP301">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="302" spans="1:68">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>6683938</v>
+      </c>
+      <c r="C302" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" t="s">
+        <v>69</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45430.4375</v>
+      </c>
+      <c r="F302">
+        <v>34</v>
+      </c>
+      <c r="G302" t="s">
+        <v>75</v>
+      </c>
+      <c r="H302" t="s">
+        <v>85</v>
+      </c>
+      <c r="I302">
+        <v>2</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>2</v>
+      </c>
+      <c r="L302">
+        <v>4</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>4</v>
+      </c>
+      <c r="O302" t="s">
+        <v>304</v>
+      </c>
+      <c r="P302" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q302">
+        <v>1.63</v>
+      </c>
+      <c r="R302">
+        <v>3.31</v>
+      </c>
+      <c r="S302">
+        <v>7.07</v>
+      </c>
+      <c r="T302">
+        <v>1.16</v>
+      </c>
+      <c r="U302">
+        <v>5.1</v>
+      </c>
+      <c r="V302">
+        <v>1.81</v>
+      </c>
+      <c r="W302">
+        <v>2.04</v>
+      </c>
+      <c r="X302">
+        <v>3.44</v>
+      </c>
+      <c r="Y302">
+        <v>1.3</v>
+      </c>
+      <c r="Z302">
+        <v>1.16</v>
+      </c>
+      <c r="AA302">
+        <v>6.4</v>
+      </c>
+      <c r="AB302">
+        <v>8.75</v>
+      </c>
+      <c r="AC302">
+        <v>1.01</v>
+      </c>
+      <c r="AD302">
+        <v>4</v>
+      </c>
+      <c r="AE302">
+        <v>1.04</v>
+      </c>
+      <c r="AF302">
+        <v>7.8</v>
+      </c>
+      <c r="AG302">
+        <v>1.36</v>
+      </c>
+      <c r="AH302">
+        <v>3.1</v>
+      </c>
+      <c r="AI302">
+        <v>1.51</v>
+      </c>
+      <c r="AJ302">
+        <v>2.49</v>
+      </c>
+      <c r="AK302">
+        <v>1.08</v>
+      </c>
+      <c r="AL302">
+        <v>1.13</v>
+      </c>
+      <c r="AM302">
+        <v>3.75</v>
+      </c>
+      <c r="AN302">
+        <v>2.44</v>
+      </c>
+      <c r="AO302">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP302">
+        <v>2.47</v>
+      </c>
+      <c r="AQ302">
+        <v>0.76</v>
+      </c>
+      <c r="AR302">
+        <v>1.92</v>
+      </c>
+      <c r="AS302">
+        <v>1.34</v>
+      </c>
+      <c r="AT302">
+        <v>3.26</v>
+      </c>
+      <c r="AU302">
+        <v>12</v>
+      </c>
+      <c r="AV302">
+        <v>6</v>
+      </c>
+      <c r="AW302">
+        <v>10</v>
+      </c>
+      <c r="AX302">
+        <v>8</v>
+      </c>
+      <c r="AY302">
+        <v>22</v>
+      </c>
+      <c r="AZ302">
+        <v>14</v>
+      </c>
+      <c r="BA302">
+        <v>5</v>
+      </c>
+      <c r="BB302">
+        <v>4</v>
+      </c>
+      <c r="BC302">
+        <v>9</v>
+      </c>
+      <c r="BD302">
+        <v>1.14</v>
+      </c>
+      <c r="BE302">
+        <v>11</v>
+      </c>
+      <c r="BF302">
+        <v>6.5</v>
+      </c>
+      <c r="BG302">
+        <v>1.18</v>
+      </c>
+      <c r="BH302">
+        <v>4.1</v>
+      </c>
+      <c r="BI302">
+        <v>1.36</v>
+      </c>
+      <c r="BJ302">
+        <v>2.79</v>
+      </c>
+      <c r="BK302">
+        <v>1.65</v>
+      </c>
+      <c r="BL302">
+        <v>2.13</v>
+      </c>
+      <c r="BM302">
+        <v>2.05</v>
+      </c>
+      <c r="BN302">
+        <v>1.7</v>
+      </c>
+      <c r="BO302">
+        <v>2.73</v>
+      </c>
+      <c r="BP302">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="303" spans="1:68">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>6683933</v>
+      </c>
+      <c r="C303" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45430.4375</v>
+      </c>
+      <c r="F303">
+        <v>34</v>
+      </c>
+      <c r="G303" t="s">
+        <v>71</v>
+      </c>
+      <c r="H303" t="s">
+        <v>74</v>
+      </c>
+      <c r="I303">
+        <v>2</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>2</v>
+      </c>
+      <c r="L303">
+        <v>2</v>
+      </c>
+      <c r="M303">
+        <v>1</v>
+      </c>
+      <c r="N303">
+        <v>3</v>
+      </c>
+      <c r="O303" t="s">
+        <v>305</v>
+      </c>
+      <c r="P303" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q303">
+        <v>1.65</v>
+      </c>
+      <c r="R303">
+        <v>3.24</v>
+      </c>
+      <c r="S303">
+        <v>7.05</v>
+      </c>
+      <c r="T303">
+        <v>1.17</v>
+      </c>
+      <c r="U303">
+        <v>4.95</v>
+      </c>
+      <c r="V303">
+        <v>1.85</v>
+      </c>
+      <c r="W303">
+        <v>1.99</v>
+      </c>
+      <c r="X303">
+        <v>3.54</v>
+      </c>
+      <c r="Y303">
+        <v>1.28</v>
+      </c>
+      <c r="Z303">
+        <v>1.26</v>
+      </c>
+      <c r="AA303">
+        <v>5.3</v>
+      </c>
+      <c r="AB303">
+        <v>6.5</v>
+      </c>
+      <c r="AC303">
+        <v>1.01</v>
+      </c>
+      <c r="AD303">
+        <v>42</v>
+      </c>
+      <c r="AE303">
+        <v>1.04</v>
+      </c>
+      <c r="AF303">
+        <v>7.4</v>
+      </c>
+      <c r="AG303">
+        <v>1.3</v>
+      </c>
+      <c r="AH303">
+        <v>3.4</v>
+      </c>
+      <c r="AI303">
+        <v>1.56</v>
+      </c>
+      <c r="AJ303">
+        <v>2.47</v>
+      </c>
+      <c r="AK303">
+        <v>1.1</v>
+      </c>
+      <c r="AL303">
+        <v>1.12</v>
+      </c>
+      <c r="AM303">
+        <v>3.69</v>
+      </c>
+      <c r="AN303">
+        <v>2.63</v>
+      </c>
+      <c r="AO303">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP303">
+        <v>2.65</v>
+      </c>
+      <c r="AQ303">
+        <v>0.88</v>
+      </c>
+      <c r="AR303">
+        <v>2.22</v>
+      </c>
+      <c r="AS303">
+        <v>1.34</v>
+      </c>
+      <c r="AT303">
+        <v>3.56</v>
+      </c>
+      <c r="AU303">
+        <v>9</v>
+      </c>
+      <c r="AV303">
+        <v>3</v>
+      </c>
+      <c r="AW303">
+        <v>12</v>
+      </c>
+      <c r="AX303">
+        <v>8</v>
+      </c>
+      <c r="AY303">
+        <v>21</v>
+      </c>
+      <c r="AZ303">
+        <v>11</v>
+      </c>
+      <c r="BA303">
+        <v>2</v>
+      </c>
+      <c r="BB303">
+        <v>2</v>
+      </c>
+      <c r="BC303">
+        <v>4</v>
+      </c>
+      <c r="BD303">
+        <v>1.14</v>
+      </c>
+      <c r="BE303">
+        <v>10</v>
+      </c>
+      <c r="BF303">
+        <v>6</v>
+      </c>
+      <c r="BG303">
+        <v>1.17</v>
+      </c>
+      <c r="BH303">
+        <v>4.25</v>
+      </c>
+      <c r="BI303">
+        <v>1.34</v>
+      </c>
+      <c r="BJ303">
+        <v>2.88</v>
+      </c>
+      <c r="BK303">
+        <v>1.62</v>
+      </c>
+      <c r="BL303">
+        <v>2.18</v>
+      </c>
+      <c r="BM303">
+        <v>2</v>
+      </c>
+      <c r="BN303">
+        <v>1.73</v>
+      </c>
+      <c r="BO303">
+        <v>2.66</v>
+      </c>
+      <c r="BP303">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="304" spans="1:68">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>6683932</v>
+      </c>
+      <c r="C304" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45430.4375</v>
+      </c>
+      <c r="F304">
+        <v>34</v>
+      </c>
+      <c r="G304" t="s">
+        <v>77</v>
+      </c>
+      <c r="H304" t="s">
+        <v>81</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <v>2</v>
+      </c>
+      <c r="M304">
+        <v>1</v>
+      </c>
+      <c r="N304">
+        <v>3</v>
+      </c>
+      <c r="O304" t="s">
+        <v>306</v>
+      </c>
+      <c r="P304" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q304">
+        <v>2.7</v>
+      </c>
+      <c r="R304">
+        <v>2.17</v>
+      </c>
+      <c r="S304">
+        <v>3.9</v>
+      </c>
+      <c r="T304">
+        <v>1.39</v>
+      </c>
+      <c r="U304">
+        <v>2.93</v>
+      </c>
+      <c r="V304">
+        <v>2.81</v>
+      </c>
+      <c r="W304">
+        <v>1.42</v>
+      </c>
+      <c r="X304">
+        <v>7.1</v>
+      </c>
+      <c r="Y304">
+        <v>1.09</v>
+      </c>
+      <c r="Z304">
+        <v>2.05</v>
+      </c>
+      <c r="AA304">
+        <v>3.15</v>
+      </c>
+      <c r="AB304">
+        <v>3.05</v>
+      </c>
+      <c r="AC304">
+        <v>1.01</v>
+      </c>
+      <c r="AD304">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE304">
+        <v>1.27</v>
+      </c>
+      <c r="AF304">
+        <v>3.4</v>
+      </c>
+      <c r="AG304">
+        <v>1.83</v>
+      </c>
+      <c r="AH304">
+        <v>1.87</v>
+      </c>
+      <c r="AI304">
+        <v>1.74</v>
+      </c>
+      <c r="AJ304">
+        <v>2.04</v>
+      </c>
+      <c r="AK304">
+        <v>1.35</v>
+      </c>
+      <c r="AL304">
+        <v>1.32</v>
+      </c>
+      <c r="AM304">
+        <v>1.74</v>
+      </c>
+      <c r="AN304">
+        <v>1.25</v>
+      </c>
+      <c r="AO304">
+        <v>1.25</v>
+      </c>
+      <c r="AP304">
+        <v>1.35</v>
+      </c>
+      <c r="AQ304">
+        <v>1.18</v>
+      </c>
+      <c r="AR304">
+        <v>1.35</v>
+      </c>
+      <c r="AS304">
+        <v>1.06</v>
+      </c>
+      <c r="AT304">
+        <v>2.41</v>
+      </c>
+      <c r="AU304">
+        <v>6</v>
+      </c>
+      <c r="AV304">
+        <v>5</v>
+      </c>
+      <c r="AW304">
+        <v>8</v>
+      </c>
+      <c r="AX304">
+        <v>9</v>
+      </c>
+      <c r="AY304">
+        <v>14</v>
+      </c>
+      <c r="AZ304">
+        <v>14</v>
+      </c>
+      <c r="BA304">
+        <v>1</v>
+      </c>
+      <c r="BB304">
+        <v>4</v>
+      </c>
+      <c r="BC304">
+        <v>5</v>
+      </c>
+      <c r="BD304">
+        <v>1.57</v>
+      </c>
+      <c r="BE304">
+        <v>7.5</v>
+      </c>
+      <c r="BF304">
+        <v>2.8</v>
+      </c>
+      <c r="BG304">
+        <v>1.29</v>
+      </c>
+      <c r="BH304">
+        <v>3.14</v>
+      </c>
+      <c r="BI304">
+        <v>1.56</v>
+      </c>
+      <c r="BJ304">
+        <v>2.3</v>
+      </c>
+      <c r="BK304">
+        <v>1.91</v>
+      </c>
+      <c r="BL304">
+        <v>1.8</v>
+      </c>
+      <c r="BM304">
+        <v>2.59</v>
+      </c>
+      <c r="BN304">
+        <v>1.45</v>
+      </c>
+      <c r="BO304">
+        <v>3.48</v>
+      </c>
+      <c r="BP304">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="305" spans="1:68">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>6683931</v>
+      </c>
+      <c r="C305" t="s">
+        <v>68</v>
+      </c>
+      <c r="D305" t="s">
+        <v>69</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45430.4375</v>
+      </c>
+      <c r="F305">
+        <v>34</v>
+      </c>
+      <c r="G305" t="s">
+        <v>76</v>
+      </c>
+      <c r="H305" t="s">
+        <v>80</v>
+      </c>
+      <c r="I305">
+        <v>2</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>2</v>
+      </c>
+      <c r="L305">
+        <v>4</v>
+      </c>
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305">
+        <v>4</v>
+      </c>
+      <c r="O305" t="s">
+        <v>307</v>
+      </c>
+      <c r="P305" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q305">
+        <v>1.45</v>
+      </c>
+      <c r="R305">
+        <v>3.4</v>
+      </c>
+      <c r="S305">
+        <v>8.5</v>
+      </c>
+      <c r="T305">
+        <v>1.13</v>
+      </c>
+      <c r="U305">
+        <v>5</v>
+      </c>
+      <c r="V305">
+        <v>1.73</v>
+      </c>
+      <c r="W305">
+        <v>2</v>
+      </c>
+      <c r="X305">
+        <v>3.2</v>
+      </c>
+      <c r="Y305">
+        <v>1.3</v>
+      </c>
+      <c r="Z305">
+        <v>1.08</v>
+      </c>
+      <c r="AA305">
+        <v>8.5</v>
+      </c>
+      <c r="AB305">
+        <v>13</v>
+      </c>
+      <c r="AC305">
+        <v>1.01</v>
+      </c>
+      <c r="AD305">
+        <v>34</v>
+      </c>
+      <c r="AE305">
+        <v>1.05</v>
+      </c>
+      <c r="AF305">
+        <v>8.5</v>
+      </c>
+      <c r="AG305">
+        <v>1.33</v>
+      </c>
+      <c r="AH305">
+        <v>3.2</v>
+      </c>
+      <c r="AI305">
+        <v>1.7</v>
+      </c>
+      <c r="AJ305">
+        <v>2.1</v>
+      </c>
+      <c r="AK305">
+        <v>1.04</v>
+      </c>
+      <c r="AL305">
+        <v>1.08</v>
+      </c>
+      <c r="AM305">
+        <v>4.75</v>
+      </c>
+      <c r="AN305">
+        <v>1.88</v>
+      </c>
+      <c r="AO305">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP305">
+        <v>1.94</v>
+      </c>
+      <c r="AQ305">
+        <v>0.65</v>
+      </c>
+      <c r="AR305">
+        <v>1.8</v>
+      </c>
+      <c r="AS305">
+        <v>1.07</v>
+      </c>
+      <c r="AT305">
+        <v>2.87</v>
+      </c>
+      <c r="AU305">
+        <v>9</v>
+      </c>
+      <c r="AV305">
+        <v>0</v>
+      </c>
+      <c r="AW305">
+        <v>11</v>
+      </c>
+      <c r="AX305">
+        <v>7</v>
+      </c>
+      <c r="AY305">
+        <v>20</v>
+      </c>
+      <c r="AZ305">
+        <v>7</v>
+      </c>
+      <c r="BA305">
+        <v>5</v>
+      </c>
+      <c r="BB305">
+        <v>3</v>
+      </c>
+      <c r="BC305">
+        <v>8</v>
+      </c>
+      <c r="BD305">
+        <v>1.1</v>
+      </c>
+      <c r="BE305">
+        <v>13</v>
+      </c>
+      <c r="BF305">
+        <v>8</v>
+      </c>
+      <c r="BG305">
+        <v>1.22</v>
+      </c>
+      <c r="BH305">
+        <v>3.64</v>
+      </c>
+      <c r="BI305">
+        <v>1.45</v>
+      </c>
+      <c r="BJ305">
+        <v>2.59</v>
+      </c>
+      <c r="BK305">
+        <v>1.8</v>
+      </c>
+      <c r="BL305">
+        <v>2</v>
+      </c>
+      <c r="BM305">
+        <v>2.26</v>
+      </c>
+      <c r="BN305">
+        <v>1.58</v>
+      </c>
+      <c r="BO305">
+        <v>2.98</v>
+      </c>
+      <c r="BP305">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="306" spans="1:68">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>6683934</v>
+      </c>
+      <c r="C306" t="s">
+        <v>68</v>
+      </c>
+      <c r="D306" t="s">
+        <v>69</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45430.4375</v>
+      </c>
+      <c r="F306">
+        <v>34</v>
+      </c>
+      <c r="G306" t="s">
+        <v>78</v>
+      </c>
+      <c r="H306" t="s">
+        <v>79</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>1</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <v>2</v>
+      </c>
+      <c r="M306">
+        <v>2</v>
+      </c>
+      <c r="N306">
+        <v>4</v>
+      </c>
+      <c r="O306" t="s">
+        <v>308</v>
+      </c>
+      <c r="P306" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q306">
+        <v>3.3</v>
+      </c>
+      <c r="R306">
+        <v>2.4</v>
+      </c>
+      <c r="S306">
+        <v>2.62</v>
+      </c>
+      <c r="T306">
+        <v>1.25</v>
+      </c>
+      <c r="U306">
+        <v>3.6</v>
+      </c>
+      <c r="V306">
+        <v>2.1</v>
+      </c>
+      <c r="W306">
+        <v>1.65</v>
+      </c>
+      <c r="X306">
+        <v>4.5</v>
+      </c>
+      <c r="Y306">
+        <v>1.17</v>
+      </c>
+      <c r="Z306">
+        <v>2.49</v>
+      </c>
+      <c r="AA306">
+        <v>3.7</v>
+      </c>
+      <c r="AB306">
+        <v>2.17</v>
+      </c>
+      <c r="AC306">
+        <v>1.02</v>
+      </c>
+      <c r="AD306">
+        <v>22.5</v>
+      </c>
+      <c r="AE306">
+        <v>1.13</v>
+      </c>
+      <c r="AF306">
+        <v>5.5</v>
+      </c>
+      <c r="AG306">
+        <v>1.5</v>
+      </c>
+      <c r="AH306">
+        <v>2.55</v>
+      </c>
+      <c r="AI306">
+        <v>1.42</v>
+      </c>
+      <c r="AJ306">
+        <v>2.8</v>
+      </c>
+      <c r="AK306">
+        <v>1.7</v>
+      </c>
+      <c r="AL306">
+        <v>1.25</v>
+      </c>
+      <c r="AM306">
+        <v>1.4</v>
+      </c>
+      <c r="AN306">
+        <v>1.75</v>
+      </c>
+      <c r="AO306">
+        <v>1.69</v>
+      </c>
+      <c r="AP306">
+        <v>1.71</v>
+      </c>
+      <c r="AQ306">
+        <v>1.65</v>
+      </c>
+      <c r="AR306">
+        <v>1.48</v>
+      </c>
+      <c r="AS306">
+        <v>1.52</v>
+      </c>
+      <c r="AT306">
+        <v>3</v>
+      </c>
+      <c r="AU306">
+        <v>7</v>
+      </c>
+      <c r="AV306">
+        <v>6</v>
+      </c>
+      <c r="AW306">
+        <v>16</v>
+      </c>
+      <c r="AX306">
+        <v>4</v>
+      </c>
+      <c r="AY306">
+        <v>23</v>
+      </c>
+      <c r="AZ306">
+        <v>10</v>
+      </c>
+      <c r="BA306">
+        <v>5</v>
+      </c>
+      <c r="BB306">
+        <v>2</v>
+      </c>
+      <c r="BC306">
+        <v>7</v>
+      </c>
+      <c r="BD306">
+        <v>2</v>
+      </c>
+      <c r="BE306">
+        <v>7.5</v>
+      </c>
+      <c r="BF306">
+        <v>2</v>
+      </c>
+      <c r="BG306">
+        <v>1.41</v>
+      </c>
+      <c r="BH306">
+        <v>2.73</v>
+      </c>
+      <c r="BI306">
+        <v>1.73</v>
+      </c>
+      <c r="BJ306">
+        <v>2</v>
+      </c>
+      <c r="BK306">
+        <v>2.22</v>
+      </c>
+      <c r="BL306">
+        <v>1.6</v>
+      </c>
+      <c r="BM306">
+        <v>2.98</v>
+      </c>
+      <c r="BN306">
+        <v>1.32</v>
+      </c>
+      <c r="BO306">
+        <v>4.25</v>
+      </c>
+      <c r="BP306">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="307" spans="1:68">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>6683939</v>
+      </c>
+      <c r="C307" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" t="s">
+        <v>69</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45430.4375</v>
+      </c>
+      <c r="F307">
+        <v>34</v>
+      </c>
+      <c r="G307" t="s">
+        <v>82</v>
+      </c>
+      <c r="H307" t="s">
+        <v>83</v>
+      </c>
+      <c r="I307">
+        <v>3</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>3</v>
+      </c>
+      <c r="L307">
+        <v>4</v>
+      </c>
+      <c r="M307">
+        <v>1</v>
+      </c>
+      <c r="N307">
+        <v>5</v>
+      </c>
+      <c r="O307" t="s">
+        <v>309</v>
+      </c>
+      <c r="P307" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q307">
+        <v>3.24</v>
+      </c>
+      <c r="R307">
+        <v>2.38</v>
+      </c>
+      <c r="S307">
+        <v>2.79</v>
+      </c>
+      <c r="T307">
+        <v>1.28</v>
+      </c>
+      <c r="U307">
+        <v>3.58</v>
+      </c>
+      <c r="V307">
+        <v>2.28</v>
+      </c>
+      <c r="W307">
+        <v>1.61</v>
+      </c>
+      <c r="X307">
+        <v>5.15</v>
+      </c>
+      <c r="Y307">
+        <v>1.16</v>
+      </c>
+      <c r="Z307">
+        <v>2</v>
+      </c>
+      <c r="AA307">
+        <v>3.85</v>
+      </c>
+      <c r="AB307">
+        <v>2.65</v>
+      </c>
+      <c r="AC307">
+        <v>1.03</v>
+      </c>
+      <c r="AD307">
+        <v>18</v>
+      </c>
+      <c r="AE307">
+        <v>1.14</v>
+      </c>
+      <c r="AF307">
+        <v>4.7</v>
+      </c>
+      <c r="AG307">
+        <v>1.61</v>
+      </c>
+      <c r="AH307">
+        <v>2.15</v>
+      </c>
+      <c r="AI307">
+        <v>1.48</v>
+      </c>
+      <c r="AJ307">
+        <v>2.57</v>
+      </c>
+      <c r="AK307">
+        <v>1.62</v>
+      </c>
+      <c r="AL307">
+        <v>1.28</v>
+      </c>
+      <c r="AM307">
+        <v>1.47</v>
+      </c>
+      <c r="AN307">
+        <v>1.44</v>
+      </c>
+      <c r="AO307">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP307">
+        <v>1.53</v>
+      </c>
+      <c r="AQ307">
+        <v>0.65</v>
+      </c>
+      <c r="AR307">
+        <v>1.39</v>
+      </c>
+      <c r="AS307">
+        <v>1.17</v>
+      </c>
+      <c r="AT307">
+        <v>2.56</v>
+      </c>
+      <c r="AU307">
+        <v>9</v>
+      </c>
+      <c r="AV307">
+        <v>10</v>
+      </c>
+      <c r="AW307">
+        <v>8</v>
+      </c>
+      <c r="AX307">
+        <v>12</v>
+      </c>
+      <c r="AY307">
+        <v>17</v>
+      </c>
+      <c r="AZ307">
+        <v>22</v>
+      </c>
+      <c r="BA307">
+        <v>2</v>
+      </c>
+      <c r="BB307">
+        <v>2</v>
+      </c>
+      <c r="BC307">
+        <v>4</v>
+      </c>
+      <c r="BD307">
+        <v>2</v>
+      </c>
+      <c r="BE307">
+        <v>7</v>
+      </c>
+      <c r="BF307">
+        <v>2</v>
+      </c>
+      <c r="BG307">
+        <v>1.11</v>
+      </c>
+      <c r="BH307">
+        <v>5.15</v>
+      </c>
+      <c r="BI307">
+        <v>1.25</v>
+      </c>
+      <c r="BJ307">
+        <v>3.42</v>
+      </c>
+      <c r="BK307">
+        <v>1.48</v>
+      </c>
+      <c r="BL307">
+        <v>2.5</v>
+      </c>
+      <c r="BM307">
+        <v>1.8</v>
+      </c>
+      <c r="BN307">
+        <v>1.91</v>
+      </c>
+      <c r="BO307">
+        <v>2.28</v>
+      </c>
+      <c r="BP307">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
@@ -63304,13 +63304,13 @@
         <v>12</v>
       </c>
       <c r="BA299">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB299">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC299">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD299">
         <v>2.62</v>
@@ -63510,13 +63510,13 @@
         <v>27</v>
       </c>
       <c r="BA300">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB300">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC300">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BD300">
         <v>1.73</v>
@@ -63719,10 +63719,10 @@
         <v>1</v>
       </c>
       <c r="BB301">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC301">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD301">
         <v>2.1</v>
@@ -63922,13 +63922,13 @@
         <v>14</v>
       </c>
       <c r="BA302">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB302">
         <v>4</v>
       </c>
       <c r="BC302">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD302">
         <v>1.14</v>
@@ -64128,13 +64128,13 @@
         <v>11</v>
       </c>
       <c r="BA303">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB303">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC303">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD303">
         <v>1.14</v>
@@ -64334,13 +64334,13 @@
         <v>14</v>
       </c>
       <c r="BA304">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB304">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC304">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD304">
         <v>1.57</v>
@@ -64540,13 +64540,13 @@
         <v>7</v>
       </c>
       <c r="BA305">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB305">
         <v>3</v>
       </c>
       <c r="BC305">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD305">
         <v>1.1</v>
@@ -64746,13 +64746,13 @@
         <v>10</v>
       </c>
       <c r="BA306">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB306">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC306">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD306">
         <v>2</v>
@@ -64952,13 +64952,13 @@
         <v>22</v>
       </c>
       <c r="BA307">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB307">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BC307">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="BD307">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
@@ -63286,22 +63286,22 @@
         <v>3.44</v>
       </c>
       <c r="AU299">
+        <v>6</v>
+      </c>
+      <c r="AV299">
+        <v>4</v>
+      </c>
+      <c r="AW299">
+        <v>4</v>
+      </c>
+      <c r="AX299">
+        <v>5</v>
+      </c>
+      <c r="AY299">
         <v>10</v>
       </c>
-      <c r="AV299">
-        <v>5</v>
-      </c>
-      <c r="AW299">
+      <c r="AZ299">
         <v>9</v>
-      </c>
-      <c r="AX299">
-        <v>7</v>
-      </c>
-      <c r="AY299">
-        <v>19</v>
-      </c>
-      <c r="AZ299">
-        <v>12</v>
       </c>
       <c r="BA299">
         <v>6</v>
@@ -63492,22 +63492,22 @@
         <v>2.5</v>
       </c>
       <c r="AU300">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AV300">
         <v>7</v>
       </c>
       <c r="AW300">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AX300">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AY300">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AZ300">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="BA300">
         <v>8</v>
@@ -63698,22 +63698,22 @@
         <v>2.68</v>
       </c>
       <c r="AU301">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV301">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW301">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AX301">
         <v>6</v>
       </c>
       <c r="AY301">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AZ301">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA301">
         <v>1</v>
@@ -63904,22 +63904,22 @@
         <v>3.26</v>
       </c>
       <c r="AU302">
+        <v>8</v>
+      </c>
+      <c r="AV302">
+        <v>8</v>
+      </c>
+      <c r="AW302">
+        <v>4</v>
+      </c>
+      <c r="AX302">
+        <v>3</v>
+      </c>
+      <c r="AY302">
         <v>12</v>
       </c>
-      <c r="AV302">
-        <v>6</v>
-      </c>
-      <c r="AW302">
-        <v>10</v>
-      </c>
-      <c r="AX302">
-        <v>8</v>
-      </c>
-      <c r="AY302">
-        <v>22</v>
-      </c>
       <c r="AZ302">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA302">
         <v>8</v>
@@ -64110,22 +64110,22 @@
         <v>3.56</v>
       </c>
       <c r="AU303">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV303">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW303">
+        <v>4</v>
+      </c>
+      <c r="AX303">
+        <v>2</v>
+      </c>
+      <c r="AY303">
         <v>12</v>
       </c>
-      <c r="AX303">
-        <v>8</v>
-      </c>
-      <c r="AY303">
-        <v>21</v>
-      </c>
       <c r="AZ303">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BA303">
         <v>5</v>
@@ -64316,22 +64316,22 @@
         <v>2.41</v>
       </c>
       <c r="AU304">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV304">
         <v>5</v>
       </c>
       <c r="AW304">
+        <v>3</v>
+      </c>
+      <c r="AX304">
+        <v>3</v>
+      </c>
+      <c r="AY304">
+        <v>5</v>
+      </c>
+      <c r="AZ304">
         <v>8</v>
-      </c>
-      <c r="AX304">
-        <v>9</v>
-      </c>
-      <c r="AY304">
-        <v>14</v>
-      </c>
-      <c r="AZ304">
-        <v>14</v>
       </c>
       <c r="BA304">
         <v>3</v>
@@ -64522,22 +64522,22 @@
         <v>2.87</v>
       </c>
       <c r="AU305">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV305">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW305">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AX305">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY305">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AZ305">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA305">
         <v>7</v>
@@ -64728,22 +64728,22 @@
         <v>3</v>
       </c>
       <c r="AU306">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV306">
+        <v>4</v>
+      </c>
+      <c r="AW306">
+        <v>8</v>
+      </c>
+      <c r="AX306">
+        <v>2</v>
+      </c>
+      <c r="AY306">
+        <v>13</v>
+      </c>
+      <c r="AZ306">
         <v>6</v>
-      </c>
-      <c r="AW306">
-        <v>16</v>
-      </c>
-      <c r="AX306">
-        <v>4</v>
-      </c>
-      <c r="AY306">
-        <v>23</v>
-      </c>
-      <c r="AZ306">
-        <v>10</v>
       </c>
       <c r="BA306">
         <v>8</v>
@@ -64934,22 +64934,22 @@
         <v>2.56</v>
       </c>
       <c r="AU307">
+        <v>4</v>
+      </c>
+      <c r="AV307">
         <v>9</v>
       </c>
-      <c r="AV307">
-        <v>10</v>
-      </c>
       <c r="AW307">
+        <v>4</v>
+      </c>
+      <c r="AX307">
+        <v>6</v>
+      </c>
+      <c r="AY307">
         <v>8</v>
       </c>
-      <c r="AX307">
-        <v>12</v>
-      </c>
-      <c r="AY307">
-        <v>17</v>
-      </c>
       <c r="AZ307">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="BA307">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
@@ -63286,22 +63286,22 @@
         <v>3.44</v>
       </c>
       <c r="AU299">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV299">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW299">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AX299">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY299">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AZ299">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA299">
         <v>6</v>
@@ -63492,22 +63492,22 @@
         <v>2.5</v>
       </c>
       <c r="AU300">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AV300">
         <v>7</v>
       </c>
       <c r="AW300">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AX300">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AY300">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AZ300">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="BA300">
         <v>8</v>
@@ -63698,22 +63698,22 @@
         <v>2.68</v>
       </c>
       <c r="AU301">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV301">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW301">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AX301">
         <v>6</v>
       </c>
       <c r="AY301">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AZ301">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA301">
         <v>1</v>
@@ -63904,22 +63904,22 @@
         <v>3.26</v>
       </c>
       <c r="AU302">
+        <v>12</v>
+      </c>
+      <c r="AV302">
+        <v>6</v>
+      </c>
+      <c r="AW302">
+        <v>10</v>
+      </c>
+      <c r="AX302">
         <v>8</v>
       </c>
-      <c r="AV302">
-        <v>8</v>
-      </c>
-      <c r="AW302">
-        <v>4</v>
-      </c>
-      <c r="AX302">
-        <v>3</v>
-      </c>
       <c r="AY302">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AZ302">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA302">
         <v>8</v>
@@ -64110,22 +64110,22 @@
         <v>3.56</v>
       </c>
       <c r="AU303">
+        <v>9</v>
+      </c>
+      <c r="AV303">
+        <v>3</v>
+      </c>
+      <c r="AW303">
+        <v>12</v>
+      </c>
+      <c r="AX303">
         <v>8</v>
       </c>
-      <c r="AV303">
-        <v>2</v>
-      </c>
-      <c r="AW303">
-        <v>4</v>
-      </c>
-      <c r="AX303">
-        <v>2</v>
-      </c>
       <c r="AY303">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AZ303">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BA303">
         <v>5</v>
@@ -64316,22 +64316,22 @@
         <v>2.41</v>
       </c>
       <c r="AU304">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV304">
         <v>5</v>
       </c>
       <c r="AW304">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX304">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AY304">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AZ304">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA304">
         <v>3</v>
@@ -64522,22 +64522,22 @@
         <v>2.87</v>
       </c>
       <c r="AU305">
+        <v>9</v>
+      </c>
+      <c r="AV305">
+        <v>0</v>
+      </c>
+      <c r="AW305">
+        <v>11</v>
+      </c>
+      <c r="AX305">
         <v>7</v>
       </c>
-      <c r="AV305">
-        <v>2</v>
-      </c>
-      <c r="AW305">
-        <v>6</v>
-      </c>
-      <c r="AX305">
-        <v>4</v>
-      </c>
       <c r="AY305">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ305">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA305">
         <v>7</v>
@@ -64728,22 +64728,22 @@
         <v>3</v>
       </c>
       <c r="AU306">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV306">
+        <v>6</v>
+      </c>
+      <c r="AW306">
+        <v>16</v>
+      </c>
+      <c r="AX306">
         <v>4</v>
       </c>
-      <c r="AW306">
-        <v>8</v>
-      </c>
-      <c r="AX306">
-        <v>2</v>
-      </c>
       <c r="AY306">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AZ306">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA306">
         <v>8</v>
@@ -64934,22 +64934,22 @@
         <v>2.56</v>
       </c>
       <c r="AU307">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV307">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW307">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX307">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AY307">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AZ307">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA307">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20232024.xlsx
@@ -2119,7 +2119,7 @@
         <v>7</v>
       </c>
       <c r="AZ2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -2322,10 +2322,10 @@
         <v>4</v>
       </c>
       <c r="AY3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA3">
         <v>4</v>
@@ -2528,10 +2528,10 @@
         <v>6</v>
       </c>
       <c r="AY4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA4">
         <v>1</v>
@@ -2734,10 +2734,10 @@
         <v>7</v>
       </c>
       <c r="AY5">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AZ5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA5">
         <v>4</v>
@@ -2940,10 +2940,10 @@
         <v>3</v>
       </c>
       <c r="AY6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA6">
         <v>8</v>
@@ -3146,10 +3146,10 @@
         <v>2</v>
       </c>
       <c r="AY7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA7">
         <v>7</v>
@@ -3352,10 +3352,10 @@
         <v>5</v>
       </c>
       <c r="AY8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA8">
         <v>6</v>
@@ -3558,10 +3558,10 @@
         <v>3</v>
       </c>
       <c r="AY9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA9">
         <v>3</v>
@@ -3764,10 +3764,10 @@
         <v>5</v>
       </c>
       <c r="AY10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA10">
         <v>7</v>
@@ -3970,10 +3970,10 @@
         <v>4</v>
       </c>
       <c r="AY11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA11">
         <v>4</v>
@@ -4176,10 +4176,10 @@
         <v>4</v>
       </c>
       <c r="AY12">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ12">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA12">
         <v>3</v>
@@ -4382,10 +4382,10 @@
         <v>10</v>
       </c>
       <c r="AY13">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AZ13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA13">
         <v>5</v>
@@ -4588,10 +4588,10 @@
         <v>6</v>
       </c>
       <c r="AY14">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA14">
         <v>10</v>
@@ -4794,7 +4794,7 @@
         <v>3</v>
       </c>
       <c r="AY15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ15">
         <v>10</v>
@@ -5000,10 +5000,10 @@
         <v>10</v>
       </c>
       <c r="AY16">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA16">
         <v>5</v>
@@ -5206,10 +5206,10 @@
         <v>6</v>
       </c>
       <c r="AY17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ17">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="BA17">
         <v>5</v>
@@ -5412,10 +5412,10 @@
         <v>4</v>
       </c>
       <c r="AY18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA18">
         <v>5</v>
@@ -5618,10 +5618,10 @@
         <v>6</v>
       </c>
       <c r="AY19">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA19">
         <v>10</v>
@@ -5824,10 +5824,10 @@
         <v>5</v>
       </c>
       <c r="AY20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA20">
         <v>3</v>
@@ -6030,10 +6030,10 @@
         <v>3</v>
       </c>
       <c r="AY21">
+        <v>15</v>
+      </c>
+      <c r="AZ21">
         <v>14</v>
-      </c>
-      <c r="AZ21">
-        <v>11</v>
       </c>
       <c r="BA21">
         <v>2</v>
@@ -6236,10 +6236,10 @@
         <v>0</v>
       </c>
       <c r="AY22">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BA22">
         <v>4</v>
@@ -6442,10 +6442,10 @@
         <v>4</v>
       </c>
       <c r="AY23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ23">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="BA23">
         <v>3</v>
@@ -6648,10 +6648,10 @@
         <v>4</v>
       </c>
       <c r="AY24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA24">
         <v>3</v>
@@ -6854,10 +6854,10 @@
         <v>7</v>
       </c>
       <c r="AY25">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ25">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA25">
         <v>1</v>
@@ -7063,7 +7063,7 @@
         <v>8</v>
       </c>
       <c r="AZ26">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BA26">
         <v>1</v>
@@ -7266,10 +7266,10 @@
         <v>4</v>
       </c>
       <c r="AY27">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AZ27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA27">
         <v>8</v>
@@ -7472,10 +7472,10 @@
         <v>4</v>
       </c>
       <c r="AY28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ28">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA28">
         <v>3</v>
@@ -7678,10 +7678,10 @@
         <v>5</v>
       </c>
       <c r="AY29">
+        <v>17</v>
+      </c>
+      <c r="AZ29">
         <v>14</v>
-      </c>
-      <c r="AZ29">
-        <v>11</v>
       </c>
       <c r="BA29">
         <v>7</v>
@@ -7884,10 +7884,10 @@
         <v>6</v>
       </c>
       <c r="AY30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ30">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA30">
         <v>1</v>
@@ -8090,10 +8090,10 @@
         <v>6</v>
       </c>
       <c r="AY31">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ31">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA31">
         <v>6</v>
@@ -8296,10 +8296,10 @@
         <v>11</v>
       </c>
       <c r="AY32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ32">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA32">
         <v>3</v>
@@ -8502,10 +8502,10 @@
         <v>5</v>
       </c>
       <c r="AY33">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ33">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA33">
         <v>6</v>
@@ -8708,10 +8708,10 @@
         <v>7</v>
       </c>
       <c r="AY34">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ34">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA34">
         <v>13</v>
@@ -8914,10 +8914,10 @@
         <v>1</v>
       </c>
       <c r="AY35">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA35">
         <v>8</v>
@@ -9120,10 +9120,10 @@
         <v>5</v>
       </c>
       <c r="AY36">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ36">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA36">
         <v>10</v>
@@ -9326,10 +9326,10 @@
         <v>9</v>
       </c>
       <c r="AY37">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ37">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BA37">
         <v>6</v>
@@ -9532,10 +9532,10 @@
         <v>4</v>
       </c>
       <c r="AY38">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA38">
         <v>5</v>
@@ -9738,10 +9738,10 @@
         <v>2</v>
       </c>
       <c r="AY39">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AZ39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA39">
         <v>8</v>
@@ -9944,10 +9944,10 @@
         <v>4</v>
       </c>
       <c r="AY40">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA40">
         <v>5</v>
@@ -10150,10 +10150,10 @@
         <v>3</v>
       </c>
       <c r="AY41">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ41">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA41">
         <v>11</v>
@@ -10356,10 +10356,10 @@
         <v>4</v>
       </c>
       <c r="AY42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ42">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA42">
         <v>3</v>
@@ -10562,10 +10562,10 @@
         <v>0</v>
       </c>
       <c r="AY43">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ43">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA43">
         <v>11</v>
@@ -10768,10 +10768,10 @@
         <v>5</v>
       </c>
       <c r="AY44">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ44">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA44">
         <v>9</v>
@@ -10974,7 +10974,7 @@
         <v>0</v>
       </c>
       <c r="AY45">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ45">
         <v>4</v>
@@ -11180,10 +11180,10 @@
         <v>3</v>
       </c>
       <c r="AY46">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ46">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA46">
         <v>7</v>
@@ -11386,7 +11386,7 @@
         <v>1</v>
       </c>
       <c r="AY47">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ47">
         <v>7</v>
@@ -11592,7 +11592,7 @@
         <v>4</v>
       </c>
       <c r="AY48">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ48">
         <v>9</v>
@@ -11798,10 +11798,10 @@
         <v>2</v>
       </c>
       <c r="AY49">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA49">
         <v>3</v>
@@ -12004,10 +12004,10 @@
         <v>11</v>
       </c>
       <c r="AY50">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ50">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA50">
         <v>8</v>
@@ -12210,10 +12210,10 @@
         <v>12</v>
       </c>
       <c r="AY51">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AZ51">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="BA51">
         <v>5</v>
@@ -12419,7 +12419,7 @@
         <v>11</v>
       </c>
       <c r="AZ52">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BA52">
         <v>5</v>
@@ -12622,10 +12622,10 @@
         <v>4</v>
       </c>
       <c r="AY53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ53">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA53">
         <v>5</v>
@@ -12828,10 +12828,10 @@
         <v>0</v>
       </c>
       <c r="AY54">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ54">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA54">
         <v>2</v>
@@ -13034,10 +13034,10 @@
         <v>5</v>
       </c>
       <c r="AY55">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ55">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA55">
         <v>2</v>
@@ -13240,10 +13240,10 @@
         <v>2</v>
       </c>
       <c r="AY56">
+        <v>22</v>
+      </c>
+      <c r="AZ56">
         <v>15</v>
-      </c>
-      <c r="AZ56">
-        <v>10</v>
       </c>
       <c r="BA56">
         <v>10</v>
@@ -13446,10 +13446,10 @@
         <v>7</v>
       </c>
       <c r="AY57">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ57">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA57">
         <v>4</v>
@@ -13652,10 +13652,10 @@
         <v>3</v>
       </c>
       <c r="AY58">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ58">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA58">
         <v>5</v>
@@ -13858,10 +13858,10 @@
         <v>6</v>
       </c>
       <c r="AY59">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA59">
         <v>4</v>
@@ -14064,7 +14064,7 @@
         <v>7</v>
       </c>
       <c r="AY60">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ60">
         <v>10</v>
@@ -14270,7 +14270,7 @@
         <v>6</v>
       </c>
       <c r="AY61">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ61">
         <v>11</v>
@@ -14476,10 +14476,10 @@
         <v>3</v>
       </c>
       <c r="AY62">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AZ62">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA62">
         <v>11</v>
@@ -14682,7 +14682,7 @@
         <v>3</v>
       </c>
       <c r="AY63">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ63">
         <v>3</v>
@@ -14888,10 +14888,10 @@
         <v>3</v>
       </c>
       <c r="AY64">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA64">
         <v>3</v>
@@ -15094,10 +15094,10 @@
         <v>3</v>
       </c>
       <c r="AY65">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AZ65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA65">
         <v>10</v>
@@ -15300,10 +15300,10 @@
         <v>2</v>
       </c>
       <c r="AY66">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ66">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA66">
         <v>4</v>
@@ -15506,10 +15506,10 @@
         <v>5</v>
       </c>
       <c r="AY67">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ67">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA67">
         <v>5</v>
@@ -15712,7 +15712,7 @@
         <v>6</v>
       </c>
       <c r="AY68">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ68">
         <v>14</v>
@@ -15918,10 +15918,10 @@
         <v>5</v>
       </c>
       <c r="AY69">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ69">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA69">
         <v>6</v>
@@ -16124,7 +16124,7 @@
         <v>3</v>
       </c>
       <c r="AY70">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ70">
         <v>11</v>
@@ -16330,10 +16330,10 @@
         <v>3</v>
       </c>
       <c r="AY71">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ71">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA71">
         <v>2</v>
@@ -16536,7 +16536,7 @@
         <v>3</v>
       </c>
       <c r="AY72">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AZ72">
         <v>6</v>
@@ -16742,10 +16742,10 @@
         <v>2</v>
       </c>
       <c r="AY73">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ73">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA73">
         <v>6</v>
@@ -16948,10 +16948,10 @@
         <v>4</v>
       </c>
       <c r="AY74">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ74">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA74">
         <v>5</v>
@@ -17154,10 +17154,10 @@
         <v>1</v>
       </c>
       <c r="AY75">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ75">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA75">
         <v>6</v>
@@ -17360,10 +17360,10 @@
         <v>1</v>
       </c>
       <c r="AY76">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ76">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA76">
         <v>6</v>
@@ -17566,10 +17566,10 @@
         <v>3</v>
       </c>
       <c r="AY77">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ77">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA77">
         <v>3</v>
@@ -17772,10 +17772,10 @@
         <v>3</v>
       </c>
       <c r="AY78">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AZ78">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA78">
         <v>7</v>
@@ -17981,7 +17981,7 @@
         <v>9</v>
       </c>
       <c r="AZ79">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA79">
         <v>5</v>
@@ -18184,10 +18184,10 @@
         <v>3</v>
       </c>
       <c r="AY80">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AZ80">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA80">
         <v>11</v>
@@ -18390,10 +18390,10 @@
         <v>8</v>
       </c>
       <c r="AY81">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ81">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA81">
         <v>0</v>
@@ -18596,10 +18596,10 @@
         <v>5</v>
       </c>
       <c r="AY82">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ82">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA82">
         <v>11</v>
@@ -18802,10 +18802,10 @@
         <v>4</v>
       </c>
       <c r="AY83">
+        <v>17</v>
+      </c>
+      <c r="AZ83">
         <v>10</v>
-      </c>
-      <c r="AZ83">
-        <v>9</v>
       </c>
       <c r="BA83">
         <v>11</v>
@@ -19008,7 +19008,7 @@
         <v>1</v>
       </c>
       <c r="AY84">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ84">
         <v>5</v>
@@ -19214,10 +19214,10 @@
         <v>5</v>
       </c>
       <c r="AY85">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ85">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA85">
         <v>8</v>
@@ -19420,10 +19420,10 @@
         <v>6</v>
       </c>
       <c r="AY86">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ86">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA86">
         <v>2</v>
@@ -19626,10 +19626,10 @@
         <v>8</v>
       </c>
       <c r="AY87">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AZ87">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BA87">
         <v>10</v>
@@ -19832,10 +19832,10 @@
         <v>3</v>
       </c>
       <c r="AY88">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ88">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA88">
         <v>4</v>
@@ -20038,10 +20038,10 @@
         <v>4</v>
       </c>
       <c r="AY89">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ89">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA89">
         <v>3</v>
@@ -20244,10 +20244,10 @@
         <v>4</v>
       </c>
       <c r="AY90">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ90">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA90">
         <v>5</v>
@@ -20450,10 +20450,10 @@
         <v>7</v>
       </c>
       <c r="AY91">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ91">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BA91">
         <v>9</v>
@@ -20656,10 +20656,10 @@
         <v>4</v>
       </c>
       <c r="AY92">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ92">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA92">
         <v>8</v>
@@ -20862,10 +20862,10 @@
         <v>6</v>
       </c>
       <c r="AY93">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ93">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA93">
         <v>0</v>
@@ -21071,7 +21071,7 @@
         <v>12</v>
       </c>
       <c r="AZ94">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA94">
         <v>3</v>
@@ -21274,10 +21274,10 @@
         <v>1</v>
       </c>
       <c r="AY95">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ95">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA95">
         <v>6</v>
@@ -21480,10 +21480,10 @@
         <v>5</v>
       </c>
       <c r="AY96">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ96">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA96">
         <v>7</v>
@@ -21686,10 +21686,10 @@
         <v>4</v>
       </c>
       <c r="AY97">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ97">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA97">
         <v>3</v>
@@ -21892,7 +21892,7 @@
         <v>0</v>
       </c>
       <c r="AY98">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ98">
         <v>3</v>
@@ -22098,10 +22098,10 @@
         <v>6</v>
       </c>
       <c r="AY99">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ99">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA99">
         <v>3</v>
@@ -22304,10 +22304,10 @@
         <v>3</v>
       </c>
       <c r="AY100">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ100">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA100">
         <v>7</v>
@@ -22510,10 +22510,10 @@
         <v>9</v>
       </c>
       <c r="AY101">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ101">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BA101">
         <v>3</v>
@@ -22716,10 +22716,10 @@
         <v>6</v>
       </c>
       <c r="AY102">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ102">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA102">
         <v>3</v>
@@ -22922,10 +22922,10 @@
         <v>5</v>
       </c>
       <c r="AY103">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ103">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA103">
         <v>11</v>
@@ -23128,10 +23128,10 @@
         <v>8</v>
       </c>
       <c r="AY104">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="BA104">
         <v>1</v>
@@ -23337,7 +23337,7 @@
         <v>3</v>
       </c>
       <c r="AZ105">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA105">
         <v>1</v>
@@ -23540,10 +23540,10 @@
         <v>4</v>
       </c>
       <c r="AY106">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ106">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA106">
         <v>5</v>
@@ -23746,10 +23746,10 @@
         <v>4</v>
       </c>
       <c r="AY107">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ107">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA107">
         <v>4</v>
@@ -23952,7 +23952,7 @@
         <v>8</v>
       </c>
       <c r="AY108">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ108">
         <v>11</v>
@@ -24158,10 +24158,10 @@
         <v>5</v>
       </c>
       <c r="AY109">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ109">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA109">
         <v>4</v>
@@ -24364,10 +24364,10 @@
         <v>4</v>
       </c>
       <c r="AY110">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ110">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA110">
         <v>1</v>
@@ -24570,10 +24570,10 @@
         <v>5</v>
       </c>
       <c r="AY111">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ111">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA111">
         <v>6</v>
@@ -24776,10 +24776,10 @@
         <v>4</v>
       </c>
       <c r="AY112">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ112">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA112">
         <v>5</v>
@@ -24982,10 +24982,10 @@
         <v>7</v>
       </c>
       <c r="AY113">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ113">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BA113">
         <v>6</v>
@@ -25188,10 +25188,10 @@
         <v>5</v>
       </c>
       <c r="AY114">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ114">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA114">
         <v>6</v>
@@ -25394,10 +25394,10 @@
         <v>5</v>
       </c>
       <c r="AY115">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ115">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA115">
         <v>14</v>
@@ -25600,10 +25600,10 @@
         <v>2</v>
       </c>
       <c r="AY116">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ116">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA116">
         <v>16</v>
@@ -25806,10 +25806,10 @@
         <v>6</v>
       </c>
       <c r="AY117">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ117">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA117">
         <v>2</v>
@@ -26012,10 +26012,10 @@
         <v>11</v>
       </c>
       <c r="AY118">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ118">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BA118">
         <v>4</v>
@@ -26218,10 +26218,10 @@
         <v>4</v>
       </c>
       <c r="AY119">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ119">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA119">
         <v>6</v>
@@ -26424,10 +26424,10 @@
         <v>11</v>
       </c>
       <c r="AY120">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ120">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BA120">
         <v>1</v>
@@ -26630,10 +26630,10 @@
         <v>2</v>
       </c>
       <c r="AY121">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ121">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA121">
         <v>5</v>
@@ -26836,10 +26836,10 @@
         <v>8</v>
       </c>
       <c r="AY122">
+        <v>15</v>
+      </c>
+      <c r="AZ122">
         <v>12</v>
-      </c>
-      <c r="AZ122">
-        <v>10</v>
       </c>
       <c r="BA122">
         <v>5</v>
@@ -27042,10 +27042,10 @@
         <v>10</v>
       </c>
       <c r="AY123">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ123">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA123">
         <v>8</v>
@@ -27248,10 +27248,10 @@
         <v>13</v>
       </c>
       <c r="AY124">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ124">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="BA124">
         <v>6</v>
@@ -27454,10 +27454,10 @@
         <v>6</v>
       </c>
       <c r="AY125">
+        <v>23</v>
+      </c>
+      <c r="AZ125">
         <v>20</v>
-      </c>
-      <c r="AZ125">
-        <v>12</v>
       </c>
       <c r="BA125">
         <v>8</v>
@@ -27660,10 +27660,10 @@
         <v>6</v>
       </c>
       <c r="AY126">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ126">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA126">
         <v>1</v>
@@ -27866,10 +27866,10 @@
         <v>7</v>
       </c>
       <c r="AY127">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ127">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA127">
         <v>4</v>
@@ -28072,10 +28072,10 @@
         <v>3</v>
       </c>
       <c r="AY128">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ128">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA128">
         <v>6</v>
@@ -28278,10 +28278,10 @@
         <v>6</v>
       </c>
       <c r="AY129">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ129">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA129">
         <v>7</v>
@@ -28484,10 +28484,10 @@
         <v>11</v>
       </c>
       <c r="AY130">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ130">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BA130">
         <v>4</v>
@@ -28690,10 +28690,10 @@
         <v>2</v>
       </c>
       <c r="AY131">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ131">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA131">
         <v>8</v>
@@ -28896,10 +28896,10 @@
         <v>3</v>
       </c>
       <c r="AY132">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ132">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA132">
         <v>9</v>
@@ -29102,10 +29102,10 @@
         <v>2</v>
       </c>
       <c r="AY133">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AZ133">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA133">
         <v>5</v>
@@ -29308,10 +29308,10 @@
         <v>0</v>
       </c>
       <c r="AY134">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ134">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA134">
         <v>5</v>
@@ -29514,10 +29514,10 @@
         <v>2</v>
       </c>
       <c r="AY135">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ135">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA135">
         <v>6</v>
@@ -29723,7 +29723,7 @@
         <v>12</v>
       </c>
       <c r="AZ136">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA136">
         <v>1</v>
@@ -29926,7 +29926,7 @@
         <v>5</v>
       </c>
       <c r="AY137">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AZ137">
         <v>12</v>
@@ -30132,10 +30132,10 @@
         <v>5</v>
       </c>
       <c r="AY138">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ138">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BA138">
         <v>8</v>
@@ -30338,10 +30338,10 @@
         <v>5</v>
       </c>
       <c r="AY139">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ139">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA139">
         <v>4</v>
@@ -30544,10 +30544,10 @@
         <v>3</v>
       </c>
       <c r="AY140">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ140">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA140">
         <v>7</v>
@@ -30750,10 +30750,10 @@
         <v>1</v>
       </c>
       <c r="AY141">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ141">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA141">
         <v>4</v>
@@ -30956,10 +30956,10 @@
         <v>4</v>
       </c>
       <c r="AY142">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ142">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA142">
         <v>8</v>
@@ -31162,10 +31162,10 @@
         <v>7</v>
       </c>
       <c r="AY143">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ143">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BA143">
         <v>0</v>
@@ -31368,7 +31368,7 @@
         <v>2</v>
       </c>
       <c r="AY144">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ144">
         <v>7</v>
@@ -31574,7 +31574,7 @@
         <v>7</v>
       </c>
       <c r="AY145">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AZ145">
         <v>12</v>
@@ -31780,10 +31780,10 @@
         <v>2</v>
       </c>
       <c r="AY146">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ146">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA146">
         <v>4</v>
@@ -31986,10 +31986,10 @@
         <v>11</v>
       </c>
       <c r="AY147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ147">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="BA147">
         <v>0</v>
@@ -32192,10 +32192,10 @@
         <v>4</v>
       </c>
       <c r="AY148">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ148">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA148">
         <v>7</v>
@@ -32398,7 +32398,7 @@
         <v>4</v>
       </c>
       <c r="AY149">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AZ149">
         <v>6</v>
@@ -32604,10 +32604,10 @@
         <v>4</v>
       </c>
       <c r="AY150">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ150">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA150">
         <v>9</v>
@@ -32810,10 +32810,10 @@
         <v>5</v>
       </c>
       <c r="AY151">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ151">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA151">
         <v>3</v>
@@ -33016,10 +33016,10 @@
         <v>4</v>
       </c>
       <c r="AY152">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ152">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BA152">
         <v>3</v>
@@ -33222,10 +33222,10 @@
         <v>7</v>
       </c>
       <c r="AY153">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ153">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA153">
         <v>0</v>
@@ -33428,10 +33428,10 @@
         <v>3</v>
       </c>
       <c r="AY154">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ154">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA154">
         <v>4</v>
@@ -33634,10 +33634,10 @@
         <v>6</v>
       </c>
       <c r="AY155">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ155">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA155">
         <v>4</v>
@@ -33840,10 +33840,10 @@
         <v>10</v>
       </c>
       <c r="AY156">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ156">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA156">
         <v>1</v>
@@ -34046,10 +34046,10 @@
         <v>2</v>
       </c>
       <c r="AY157">
+        <v>20</v>
+      </c>
+      <c r="AZ157">
         <v>12</v>
-      </c>
-      <c r="AZ157">
-        <v>10</v>
       </c>
       <c r="BA157">
         <v>13</v>
@@ -34252,10 +34252,10 @@
         <v>7</v>
       </c>
       <c r="AY158">
+        <v>19</v>
+      </c>
+      <c r="AZ158">
         <v>17</v>
-      </c>
-      <c r="AZ158">
-        <v>12</v>
       </c>
       <c r="BA158">
         <v>2</v>
@@ -34458,10 +34458,10 @@
         <v>8</v>
       </c>
       <c r="AY159">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ159">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA159">
         <v>1</v>
@@ -34664,10 +34664,10 @@
         <v>4</v>
       </c>
       <c r="AY160">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ160">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA160">
         <v>10</v>
@@ -34870,10 +34870,10 @@
         <v>4</v>
       </c>
       <c r="AY161">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ161">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA161">
         <v>5</v>
@@ -35076,10 +35076,10 @@
         <v>2</v>
       </c>
       <c r="AY162">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ162">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA162">
         <v>12</v>
@@ -35282,10 +35282,10 @@
         <v>4</v>
       </c>
       <c r="AY163">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ163">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA163">
         <v>2</v>
@@ -35488,7 +35488,7 @@
         <v>2</v>
       </c>
       <c r="AY164">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ164">
         <v>5</v>
@@ -35694,10 +35694,10 @@
         <v>1</v>
       </c>
       <c r="AY165">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ165">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA165">
         <v>6</v>
@@ -35900,10 +35900,10 @@
         <v>5</v>
       </c>
       <c r="AY166">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ166">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA166">
         <v>4</v>
@@ -36106,10 +36106,10 @@
         <v>1</v>
       </c>
       <c r="AY167">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ167">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA167">
         <v>5</v>
@@ -36312,10 +36312,10 @@
         <v>7</v>
       </c>
       <c r="AY168">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AZ168">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA168">
         <v>9</v>
@@ -36518,10 +36518,10 @@
         <v>0</v>
       </c>
       <c r="AY169">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AZ169">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA169">
         <v>8</v>
@@ -36724,10 +36724,10 @@
         <v>10</v>
       </c>
       <c r="AY170">
+        <v>22</v>
+      </c>
+      <c r="AZ170">
         <v>17</v>
-      </c>
-      <c r="AZ170">
-        <v>12</v>
       </c>
       <c r="BA170">
         <v>4</v>
@@ -36930,10 +36930,10 @@
         <v>6</v>
       </c>
       <c r="AY171">
+        <v>20</v>
+      </c>
+      <c r="AZ171">
         <v>12</v>
-      </c>
-      <c r="AZ171">
-        <v>11</v>
       </c>
       <c r="BA171">
         <v>8</v>
@@ -37136,10 +37136,10 @@
         <v>4</v>
       </c>
       <c r="AY172">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ172">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA172">
         <v>4</v>
@@ -37345,7 +37345,7 @@
         <v>9</v>
       </c>
       <c r="AZ173">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="BA173">
         <v>4</v>
@@ -37548,10 +37548,10 @@
         <v>6</v>
       </c>
       <c r="AY174">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ174">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA174">
         <v>6</v>
@@ -37757,7 +37757,7 @@
         <v>7</v>
       </c>
       <c r="AZ175">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA175">
         <v>1</v>
@@ -37960,10 +37960,10 @@
         <v>3</v>
       </c>
       <c r="AY176">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AZ176">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA176">
         <v>11</v>
@@ -38166,10 +38166,10 @@
         <v>5</v>
       </c>
       <c r="AY177">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ177">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA177">
         <v>3</v>
@@ -38372,10 +38372,10 @@
         <v>4</v>
       </c>
       <c r="AY178">
+        <v>16</v>
+      </c>
+      <c r="AZ178">
         <v>13</v>
-      </c>
-      <c r="AZ178">
-        <v>9</v>
       </c>
       <c r="BA178">
         <v>7</v>
@@ -38578,10 +38578,10 @@
         <v>7</v>
       </c>
       <c r="AY179">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ179">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA179">
         <v>7</v>
@@ -38784,10 +38784,10 @@
         <v>3</v>
       </c>
       <c r="AY180">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ180">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA180">
         <v>5</v>
@@ -38990,10 +38990,10 @@
         <v>7</v>
       </c>
       <c r="AY181">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ181">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA181">
         <v>8</v>
@@ -39196,7 +39196,7 @@
         <v>3</v>
       </c>
       <c r="AY182">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ182">
         <v>7</v>
@@ -39402,10 +39402,10 @@
         <v>4</v>
       </c>
       <c r="AY183">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ183">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA183">
         <v>5</v>
@@ -39608,10 +39608,10 @@
         <v>4</v>
       </c>
       <c r="AY184">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AZ184">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA184">
         <v>7</v>
@@ -39814,10 +39814,10 @@
         <v>2</v>
       </c>
       <c r="AY185">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ185">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA185">
         <v>1</v>
@@ -40020,10 +40020,10 @@
         <v>4</v>
       </c>
       <c r="AY186">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ186">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BA186">
         <v>6</v>
@@ -40226,10 +40226,10 @@
         <v>7</v>
       </c>
       <c r="AY187">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ187">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA187">
         <v>8</v>
@@ -40432,10 +40432,10 @@
         <v>5</v>
       </c>
       <c r="AY188">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ188">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA188">
         <v>4</v>
@@ -40638,10 +40638,10 @@
         <v>7</v>
       </c>
       <c r="AY189">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ189">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA189">
         <v>4</v>
@@ -40844,10 +40844,10 @@
         <v>2</v>
       </c>
       <c r="AY190">
+        <v>11</v>
+      </c>
+      <c r="AZ190">
         <v>7</v>
-      </c>
-      <c r="AZ190">
-        <v>4</v>
       </c>
       <c r="BA190">
         <v>10</v>
@@ -41050,10 +41050,10 @@
         <v>5</v>
       </c>
       <c r="AY191">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ191">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA191">
         <v>5</v>
@@ -41256,10 +41256,10 @@
         <v>6</v>
       </c>
       <c r="AY192">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AZ192">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA192">
         <v>6</v>
@@ -41462,10 +41462,10 @@
         <v>7</v>
       </c>
       <c r="AY193">
+        <v>21</v>
+      </c>
+      <c r="AZ193">
         <v>15</v>
-      </c>
-      <c r="AZ193">
-        <v>12</v>
       </c>
       <c r="BA193">
         <v>5</v>
@@ -41668,10 +41668,10 @@
         <v>5</v>
       </c>
       <c r="AY194">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ194">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA194">
         <v>5</v>
@@ -41874,10 +41874,10 @@
         <v>4</v>
       </c>
       <c r="AY195">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ195">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA195">
         <v>7</v>
@@ -42080,10 +42080,10 @@
         <v>8</v>
       </c>
       <c r="AY196">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ196">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA196">
         <v>4</v>
@@ -42286,10 +42286,10 @@
         <v>13</v>
       </c>
       <c r="AY197">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ197">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA197">
         <v>8</v>
@@ -42492,10 +42492,10 @@
         <v>3</v>
       </c>
       <c r="AY198">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ198">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA198">
         <v>6</v>
@@ -42698,10 +42698,10 @@
         <v>6</v>
       </c>
       <c r="AY199">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ199">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="BA199">
         <v>4</v>
@@ -42904,10 +42904,10 @@
         <v>5</v>
       </c>
       <c r="AY200">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ200">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA200">
         <v>11</v>
@@ -43110,10 +43110,10 @@
         <v>3</v>
       </c>
       <c r="AY201">
+        <v>13</v>
+      </c>
+      <c r="AZ201">
         <v>11</v>
-      </c>
-      <c r="AZ201">
-        <v>8</v>
       </c>
       <c r="BA201">
         <v>4</v>
@@ -43316,10 +43316,10 @@
         <v>10</v>
       </c>
       <c r="AY202">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ202">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA202">
         <v>5</v>
@@ -43522,10 +43522,10 @@
         <v>5</v>
       </c>
       <c r="AY203">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ203">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA203">
         <v>4</v>
@@ -43728,10 +43728,10 @@
         <v>3</v>
       </c>
       <c r="AY204">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ204">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA204">
         <v>9</v>
@@ -43934,10 +43934,10 @@
         <v>3</v>
       </c>
       <c r="AY205">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ205">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA205">
         <v>6</v>
@@ -44140,10 +44140,10 @@
         <v>5</v>
       </c>
       <c r="AY206">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ206">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA206">
         <v>5</v>
@@ -44346,10 +44346,10 @@
         <v>2</v>
       </c>
       <c r="AY207">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ207">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA207">
         <v>10</v>
@@ -44552,10 +44552,10 @@
         <v>2</v>
       </c>
       <c r="AY208">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ208">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA208">
         <v>10</v>
@@ -44758,10 +44758,10 @@
         <v>7</v>
       </c>
       <c r="AY209">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ209">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA209">
         <v>3</v>
@@ -44964,10 +44964,10 @@
         <v>4</v>
       </c>
       <c r="AY210">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ210">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA210">
         <v>7</v>
@@ -45170,10 +45170,10 @@
         <v>10</v>
       </c>
       <c r="AY211">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ211">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BA211">
         <v>3</v>
@@ -45376,10 +45376,10 @@
         <v>7</v>
       </c>
       <c r="AY212">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ212">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA212">
         <v>2</v>
@@ -45582,10 +45582,10 @@
         <v>6</v>
       </c>
       <c r="AY213">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AZ213">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA213">
         <v>12</v>
@@ -45788,10 +45788,10 @@
         <v>4</v>
       </c>
       <c r="AY214">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AZ214">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA214">
         <v>8</v>
@@ -45994,10 +45994,10 @@
         <v>3</v>
       </c>
       <c r="AY215">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ215">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA215">
         <v>5</v>
@@ -46200,10 +46200,10 @@
         <v>7</v>
       </c>
       <c r="AY216">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ216">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA216">
         <v>1</v>
@@ -46406,10 +46406,10 @@
         <v>7</v>
       </c>
       <c r="AY217">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ217">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA217">
         <v>3</v>
@@ -46612,10 +46612,10 @@
         <v>3</v>
       </c>
       <c r="AY218">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ218">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA218">
         <v>4</v>
@@ -46818,10 +46818,10 @@
         <v>5</v>
       </c>
       <c r="AY219">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ219">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA219">
         <v>5</v>
@@ -47024,10 +47024,10 @@
         <v>5</v>
       </c>
       <c r="AY220">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AZ220">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA220">
         <v>6</v>
@@ -47230,10 +47230,10 @@
         <v>3</v>
       </c>
       <c r="AY221">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AZ221">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA221">
         <v>8</v>
@@ -47436,10 +47436,10 @@
         <v>3</v>
       </c>
       <c r="AY222">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ222">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA222">
         <v>8</v>
@@ -47642,10 +47642,10 @@
         <v>3</v>
       </c>
       <c r="AY223">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ223">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA223">
         <v>11</v>
@@ -47848,10 +47848,10 @@
         <v>1</v>
       </c>
       <c r="AY224">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AZ224">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA224">
         <v>12</v>
@@ -48054,10 +48054,10 @@
         <v>2</v>
       </c>
       <c r="AY225">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ225">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA225">
         <v>5</v>
@@ -48260,7 +48260,7 @@
         <v>1</v>
       </c>
       <c r="AY226">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ226">
         <v>3</v>
@@ -48466,10 +48466,10 @@
         <v>8</v>
       </c>
       <c r="AY227">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ227">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BA227">
         <v>3</v>
@@ -48672,10 +48672,10 @@
         <v>3</v>
       </c>
       <c r="AY228">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ228">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA228">
         <v>4</v>
@@ -48878,10 +48878,10 @@
         <v>10</v>
       </c>
       <c r="AY229">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ229">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="BA229">
         <v>2</v>
@@ -49084,10 +49084,10 @@
         <v>7</v>
       </c>
       <c r="AY230">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ230">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA230">
         <v>8</v>
@@ -49290,10 +49290,10 @@
         <v>6</v>
       </c>
       <c r="AY231">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ231">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA231">
         <v>7</v>
@@ -49496,10 +49496,10 @@
         <v>3</v>
       </c>
       <c r="AY232">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ232">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA232">
         <v>10</v>
@@ -49702,10 +49702,10 @@
         <v>10</v>
       </c>
       <c r="AY233">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ233">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BA233">
         <v>5</v>
@@ -49908,10 +49908,10 @@
         <v>7</v>
       </c>
       <c r="AY234">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ234">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA234">
         <v>2</v>
@@ -50114,10 +50114,10 @@
         <v>2</v>
       </c>
       <c r="AY235">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ235">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA235">
         <v>8</v>
@@ -50320,10 +50320,10 @@
         <v>5</v>
       </c>
       <c r="AY236">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ236">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA236">
         <v>12</v>
@@ -50526,10 +50526,10 @@
         <v>1</v>
       </c>
       <c r="AY237">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AZ237">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA237">
         <v>9</v>
@@ -50732,10 +50732,10 @@
         <v>6</v>
       </c>
       <c r="AY238">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ238">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA238">
         <v>6</v>
@@ -50938,10 +50938,10 @@
         <v>3</v>
       </c>
       <c r="AY239">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ239">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA239">
         <v>14</v>
@@ -51144,10 +51144,10 @@
         <v>6</v>
       </c>
       <c r="AY240">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ240">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA240">
         <v>3</v>
@@ -51350,10 +51350,10 @@
         <v>4</v>
       </c>
       <c r="AY241">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ241">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA241">
         <v>7</v>
@@ -51556,10 +51556,10 @@
         <v>3</v>
       </c>
       <c r="AY242">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AZ242">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA242">
         <v>12</v>
@@ -51762,10 +51762,10 @@
         <v>2</v>
       </c>
       <c r="AY243">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ243">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA243">
         <v>6</v>
@@ -51968,10 +51968,10 @@
         <v>6</v>
       </c>
       <c r="AY244">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ244">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA244">
         <v>6</v>
@@ -52174,10 +52174,10 @@
         <v>1</v>
       </c>
       <c r="AY245">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ245">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA245">
         <v>9</v>
@@ -52380,10 +52380,10 @@
         <v>3</v>
       </c>
       <c r="AY246">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ246">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA246">
         <v>3</v>
@@ -52586,10 +52586,10 @@
         <v>5</v>
       </c>
       <c r="AY247">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ247">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA247">
         <v>9</v>
@@ -52792,10 +52792,10 @@
         <v>7</v>
       </c>
       <c r="AY248">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ248">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA248">
         <v>5</v>
@@ -52998,10 +52998,10 @@
         <v>4</v>
       </c>
       <c r="AY249">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ249">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA249">
         <v>8</v>
@@ -53204,10 +53204,10 @@
         <v>4</v>
       </c>
       <c r="AY250">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ250">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BA250">
         <v>7</v>
@@ -53410,10 +53410,10 @@
         <v>6</v>
       </c>
       <c r="AY251">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ251">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA251">
         <v>8</v>
@@ -53616,10 +53616,10 @@
         <v>4</v>
       </c>
       <c r="AY252">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ252">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA252">
         <v>11</v>
@@ -53822,7 +53822,7 @@
         <v>4</v>
       </c>
       <c r="AY253">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ253">
         <v>11</v>
@@ -54028,10 +54028,10 @@
         <v>9</v>
       </c>
       <c r="AY254">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ254">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA254">
         <v>5</v>
@@ -54234,10 +54234,10 @@
         <v>3</v>
       </c>
       <c r="AY255">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ255">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA255">
         <v>5</v>
@@ -54440,7 +54440,7 @@
         <v>7</v>
       </c>
       <c r="AY256">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ256">
         <v>11</v>
@@ -54646,10 +54646,10 @@
         <v>1</v>
       </c>
       <c r="AY257">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ257">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA257">
         <v>9</v>
@@ -54852,10 +54852,10 @@
         <v>2</v>
       </c>
       <c r="AY258">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ258">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA258">
         <v>2</v>
@@ -55058,10 +55058,10 @@
         <v>4</v>
       </c>
       <c r="AY259">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AZ259">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA259">
         <v>6</v>
@@ -55264,10 +55264,10 @@
         <v>3</v>
       </c>
       <c r="AY260">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ260">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA260">
         <v>4</v>
@@ -55470,10 +55470,10 @@
         <v>5</v>
       </c>
       <c r="AY261">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ261">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA261">
         <v>2</v>
@@ -55676,10 +55676,10 @@
         <v>2</v>
       </c>
       <c r="AY262">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ262">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA262">
         <v>7</v>
@@ -55882,10 +55882,10 @@
         <v>3</v>
       </c>
       <c r="AY263">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ263">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA263">
         <v>6</v>
@@ -56088,10 +56088,10 @@
         <v>4</v>
       </c>
       <c r="AY264">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AZ264">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA264">
         <v>6</v>
@@ -56294,10 +56294,10 @@
         <v>5</v>
       </c>
       <c r="AY265">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ265">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA265">
         <v>5</v>
@@ -56500,10 +56500,10 @@
         <v>6</v>
       </c>
       <c r="AY266">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ266">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA266">
         <v>2</v>
@@ -56706,10 +56706,10 @@
         <v>4</v>
       </c>
       <c r="AY267">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ267">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA267">
         <v>4</v>
@@ -56912,10 +56912,10 @@
         <v>8</v>
       </c>
       <c r="AY268">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ268">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA268">
         <v>5</v>
@@ -57118,10 +57118,10 @@
         <v>6</v>
       </c>
       <c r="AY269">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ269">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA269">
         <v>1</v>
@@ -57324,7 +57324,7 @@
         <v>10</v>
       </c>
       <c r="AY270">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ270">
         <v>15</v>
@@ -57533,7 +57533,7 @@
         <v>7</v>
       </c>
       <c r="AZ271">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA271">
         <v>2</v>
@@ -57736,10 +57736,10 @@
         <v>2</v>
       </c>
       <c r="AY272">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="AZ272">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA272">
         <v>10</v>
@@ -57942,10 +57942,10 @@
         <v>4</v>
       </c>
       <c r="AY273">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ273">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA273">
         <v>4</v>
@@ -58148,10 +58148,10 @@
         <v>4</v>
       </c>
       <c r="AY274">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ274">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA274">
         <v>5</v>
@@ -58354,10 +58354,10 @@
         <v>5</v>
       </c>
       <c r="AY275">
+        <v>16</v>
+      </c>
+      <c r="AZ275">
         <v>13</v>
-      </c>
-      <c r="AZ275">
-        <v>10</v>
       </c>
       <c r="BA275">
         <v>3</v>
@@ -58560,10 +58560,10 @@
         <v>5</v>
       </c>
       <c r="AY276">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AZ276">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA276">
         <v>6</v>
@@ -58766,10 +58766,10 @@
         <v>5</v>
       </c>
       <c r="AY277">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ277">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA277">
         <v>5</v>
@@ -58972,10 +58972,10 @@
         <v>5</v>
       </c>
       <c r="AY278">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ278">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA278">
         <v>3</v>
@@ -59178,10 +59178,10 @@
         <v>7</v>
       </c>
       <c r="AY279">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ279">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA279">
         <v>6</v>
@@ -59384,10 +59384,10 @@
         <v>7</v>
       </c>
       <c r="AY280">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ280">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA280">
         <v>3</v>
@@ -59590,10 +59590,10 @@
         <v>3</v>
       </c>
       <c r="AY281">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ281">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA281">
         <v>4</v>
@@ -59796,10 +59796,10 @@
         <v>3</v>
       </c>
       <c r="AY282">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ282">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA282">
         <v>3</v>
@@ -60002,10 +60002,10 @@
         <v>4</v>
       </c>
       <c r="AY283">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ283">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA283">
         <v>9</v>
@@ -60208,10 +60208,10 @@
         <v>10</v>
       </c>
       <c r="AY284">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ284">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BA284">
         <v>6</v>
@@ -60414,10 +60414,10 @@
         <v>8</v>
       </c>
       <c r="AY285">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ285">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA285">
         <v>7</v>
@@ -60620,7 +60620,7 @@
         <v>5</v>
       </c>
       <c r="AY286">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ286">
         <v>5</v>
@@ -60826,10 +60826,10 @@
         <v>6</v>
       </c>
       <c r="AY287">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ287">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA287">
         <v>6</v>
@@ -61032,10 +61032,10 @@
         <v>0</v>
       </c>
       <c r="AY288">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ288">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA288">
         <v>10</v>
@@ -61238,10 +61238,10 @@
         <v>3</v>
       </c>
       <c r="AY289">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ289">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA289">
         <v>6</v>
@@ -61444,10 +61444,10 @@
         <v>6</v>
       </c>
       <c r="AY290">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ290">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA290">
         <v>5</v>
@@ -61650,10 +61650,10 @@
         <v>6</v>
       </c>
       <c r="AY291">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ291">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA291">
         <v>4</v>
@@ -61856,7 +61856,7 @@
         <v>5</v>
       </c>
       <c r="AY292">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ292">
         <v>9</v>
@@ -62062,10 +62062,10 @@
         <v>10</v>
       </c>
       <c r="AY293">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ293">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA293">
         <v>2</v>
@@ -62268,10 +62268,10 @@
         <v>3</v>
       </c>
       <c r="AY294">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ294">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA294">
         <v>6</v>
@@ -62474,10 +62474,10 @@
         <v>3</v>
       </c>
       <c r="AY295">
+        <v>15</v>
+      </c>
+      <c r="AZ295">
         <v>10</v>
-      </c>
-      <c r="AZ295">
-        <v>6</v>
       </c>
       <c r="BA295">
         <v>4</v>
@@ -62680,7 +62680,7 @@
         <v>5</v>
       </c>
       <c r="AY296">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ296">
         <v>13</v>
@@ -62889,7 +62889,7 @@
         <v>7</v>
       </c>
       <c r="AZ297">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA297">
         <v>4</v>
@@ -63092,10 +63092,10 @@
         <v>12</v>
       </c>
       <c r="AY298">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ298">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="BA298">
         <v>2</v>
@@ -63298,10 +63298,10 @@
         <v>7</v>
       </c>
       <c r="AY299">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ299">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA299">
         <v>6</v>
@@ -63504,10 +63504,10 @@
         <v>20</v>
       </c>
       <c r="AY300">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AZ300">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="BA300">
         <v>8</v>
@@ -63710,7 +63710,7 @@
         <v>6</v>
       </c>
       <c r="AY301">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ301">
         <v>13</v>
@@ -63916,10 +63916,10 @@
         <v>8</v>
       </c>
       <c r="AY302">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ302">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA302">
         <v>8</v>
@@ -64122,10 +64122,10 @@
         <v>8</v>
       </c>
       <c r="AY303">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ303">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA303">
         <v>5</v>
@@ -64328,10 +64328,10 @@
         <v>9</v>
       </c>
       <c r="AY304">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ304">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA304">
         <v>3</v>
@@ -64537,7 +64537,7 @@
         <v>20</v>
       </c>
       <c r="AZ305">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA305">
         <v>7</v>
@@ -64740,10 +64740,10 @@
         <v>4</v>
       </c>
       <c r="AY306">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AZ306">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA306">
         <v>8</v>
@@ -64946,10 +64946,10 @@
         <v>12</v>
       </c>
       <c r="AY307">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ307">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="BA307">
         <v>5</v>
